--- a/tares_3.xlsx
+++ b/tares_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db108f0a9d2e271a/Escritorio/202520/Tecnología del Hormigón/TALLER_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db108f0a9d2e271a/Escritorio/202520/Tecnología del Hormigón/TALLER_3_TH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="499" documentId="13_ncr:1_{1C5220AB-3361-6449-9B84-967C43BA207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAA0BD4B-090A-4D69-9585-4C5FCBB1BEAC}"/>
+  <xr:revisionPtr revIDLastSave="1935" documentId="13_ncr:1_{1C5220AB-3361-6449-9B84-967C43BA207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{502F0DB3-15FD-46FF-AAFF-06B73A0333E7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4380" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{0E2A80D9-1365-9241-B0C7-2E437C7772EE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="5" xr2:uid="{0E2A80D9-1365-9241-B0C7-2E437C7772EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Desarrollo Madurez" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,44 @@
     <sheet name="Datos wc" sheetId="3" r:id="rId5"/>
     <sheet name="Bolomey y Venaut" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Bolomey y Venaut'!$L$18:$L$19</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Bolomey y Venaut'!$S$24</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Bolomey y Venaut'!$S$25</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Bolomey y Venaut'!$P$17</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Bolomey y Venaut'!$S$26</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="213">
   <si>
     <t>DATOS GRUPO 1</t>
   </si>
@@ -611,9 +649,6 @@
     <t>Se asume un cemento sin retardante</t>
   </si>
   <si>
-    <t>Interpolación defectusos</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -660,9 +695,6 @@
   </si>
   <si>
     <t>R_14</t>
-  </si>
-  <si>
-    <t>Venaut</t>
   </si>
   <si>
     <t>Cemento alta resistencia</t>
@@ -712,14 +744,52 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Desarrollo sistema de ecuaciones Bolomey</t>
+  </si>
+  <si>
+    <t>f(Z1)_14</t>
+  </si>
+  <si>
+    <t>f(Z2)_14</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>f(Z1)_28</t>
+  </si>
+  <si>
+    <t>f(Z2)_28</t>
+  </si>
+  <si>
+    <t>Desarrollo sistema de ecuaciones Venuat</t>
+  </si>
+  <si>
+    <t>Cemento corriente</t>
+  </si>
+  <si>
+    <t>f(k1)</t>
+  </si>
+  <si>
+    <t>f(k2)</t>
+  </si>
+  <si>
+    <t>Venuat</t>
+  </si>
+  <si>
+    <t>Interpolación defectuosos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -824,7 +894,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,8 +967,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1677,13 +1759,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1914,127 +2010,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2095,9 +2070,6 @@
     <xf numFmtId="2" fontId="0" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2110,22 +2082,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2134,13 +2094,160 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Moneda [0]" xfId="3" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1EFE39CA-5279-BB4C-9150-D80A85E2E677}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
@@ -2408,10 +2515,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2745,21 +2848,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="K2" s="90" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="K2" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="2:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="69" t="s">
@@ -2780,10 +2883,10 @@
       <c r="G3" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="113"/>
       <c r="K3" s="68" t="s">
         <v>15</v>
       </c>
@@ -3161,16 +3264,16 @@
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
-      <c r="K13" s="88" t="s">
+      <c r="K13" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="85" t="s">
+      <c r="L13" s="114"/>
+      <c r="M13" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
       <c r="Q13" s="74"/>
       <c r="R13" s="74"/>
       <c r="S13" s="74"/>
@@ -3213,10 +3316,10 @@
         <f>M10+(L7-L10)*((M11-M10)/(L11-L10))</f>
         <v>9.4891304347826093</v>
       </c>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
       <c r="Q14" s="74"/>
       <c r="R14" s="74"/>
       <c r="S14" s="74"/>
@@ -3283,11 +3386,11 @@
         <f t="shared" si="1"/>
         <v>3024</v>
       </c>
-      <c r="K16" s="84" t="s">
+      <c r="K16" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
     </row>
     <row r="17" spans="2:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="68">
@@ -3319,9 +3422,9 @@
         <f t="shared" si="1"/>
         <v>3360</v>
       </c>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
     </row>
     <row r="18" spans="2:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B18" s="68">
@@ -3696,19 +3799,19 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="93"/>
+      <c r="C29" s="119"/>
       <c r="K29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="87"/>
+      <c r="C30" s="113"/>
       <c r="K30" cm="1">
         <f t="array" ref="K30:L31">MINVERSE(K26:L27)</f>
         <v>4.4065621092005989</v>
@@ -3746,10 +3849,10 @@
       <c r="C33" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="88" t="s">
+      <c r="K33" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="L33" s="88"/>
+      <c r="L33" s="114"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B34" s="68" t="s">
@@ -3781,14 +3884,14 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="K37" s="94" t="s">
+      <c r="C37" s="115"/>
+      <c r="K37" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="L37" s="94"/>
+      <c r="L37" s="120"/>
       <c r="M37" s="73"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.5">
@@ -3837,10 +3940,10 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="83"/>
+      <c r="C41" s="122"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.5">
       <c r="L42" t="s">
@@ -3901,16 +4004,16 @@
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="K46" s="82" t="s">
+      <c r="K46" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="L46" s="82"/>
+      <c r="L46" s="121"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="82"/>
+      <c r="C47" s="121"/>
       <c r="K47" s="73" t="s">
         <v>125</v>
       </c>
@@ -3929,13 +4032,18 @@
       </c>
     </row>
     <row r="49" spans="11:12" x14ac:dyDescent="0.5">
-      <c r="K49" s="83" t="s">
+      <c r="K49" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="L49" s="83"/>
+      <c r="L49" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="K16:M17"/>
     <mergeCell ref="M13:P14"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K33:L33"/>
@@ -3946,11 +4054,6 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="K16:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3984,10 +4087,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3998,10 +4101,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="96"/>
+      <c r="I2" s="127"/>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4014,8 +4117,8 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4026,8 +4129,8 @@
         <v>7</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="98"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="129"/>
       <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4040,8 +4143,8 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="5">
         <v>0</v>
       </c>
@@ -4052,8 +4155,8 @@
         <v>0</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="129"/>
       <c r="J4" s="5">
         <v>0</v>
       </c>
@@ -4066,8 +4169,8 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="5">
         <v>0.25</v>
       </c>
@@ -4078,8 +4181,8 @@
         <v>0.45</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="129"/>
       <c r="J5" s="5">
         <v>0.25</v>
       </c>
@@ -4092,8 +4195,8 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="129"/>
       <c r="D6" s="5">
         <v>0.5</v>
       </c>
@@ -4104,8 +4207,8 @@
         <v>1.03</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="98"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="129"/>
       <c r="J6" s="5">
         <v>0.5</v>
       </c>
@@ -4118,8 +4221,8 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="98"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="5">
         <v>0.75</v>
       </c>
@@ -4130,8 +4233,8 @@
         <v>1.66</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="129"/>
       <c r="J7" s="5">
         <v>0.75</v>
       </c>
@@ -4144,8 +4247,8 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="129"/>
       <c r="D8" s="5">
         <v>1</v>
       </c>
@@ -4156,8 +4259,8 @@
         <v>2.36</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="98"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="129"/>
       <c r="J8" s="5">
         <v>1</v>
       </c>
@@ -4170,8 +4273,8 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="98"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="5">
         <v>1.5</v>
       </c>
@@ -4182,8 +4285,8 @@
         <v>3.86</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="98"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129"/>
       <c r="J9" s="5">
         <v>1.5</v>
       </c>
@@ -4196,8 +4299,8 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="98"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
       <c r="D10" s="5">
         <v>2</v>
       </c>
@@ -4208,8 +4311,8 @@
         <v>5.24</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
       <c r="J10" s="5">
         <v>2</v>
       </c>
@@ -4222,8 +4325,8 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="5">
         <v>2.5</v>
       </c>
@@ -4234,8 +4337,8 @@
         <v>6.39</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="98"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="129"/>
       <c r="J11" s="5">
         <v>2.5</v>
       </c>
@@ -4248,8 +4351,8 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="5">
         <v>3</v>
       </c>
@@ -4260,8 +4363,8 @@
         <v>7.41</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="98"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="129"/>
       <c r="J12" s="5">
         <v>3</v>
       </c>
@@ -4274,8 +4377,8 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="5">
         <v>3.5</v>
       </c>
@@ -4286,8 +4389,8 @@
         <v>8.31</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="98"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129"/>
       <c r="J13" s="5">
         <v>3.5</v>
       </c>
@@ -4300,8 +4403,8 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="5">
         <v>4</v>
       </c>
@@ -4312,8 +4415,8 @@
         <v>9.09</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="98"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="129"/>
       <c r="J14" s="5">
         <v>4</v>
       </c>
@@ -4326,8 +4429,8 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
       <c r="D15" s="5">
         <v>4.5</v>
       </c>
@@ -4338,8 +4441,8 @@
         <v>9.76</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="98"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="129"/>
       <c r="J15" s="5">
         <v>4.5</v>
       </c>
@@ -4352,8 +4455,8 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="5">
         <v>5</v>
       </c>
@@ -4364,8 +4467,8 @@
         <v>10.31</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="129"/>
       <c r="J16" s="5">
         <v>5</v>
       </c>
@@ -4378,8 +4481,8 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="5">
         <v>5.5</v>
       </c>
@@ -4390,8 +4493,8 @@
         <v>10.84</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="98"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="5">
         <v>5.5</v>
       </c>
@@ -4404,8 +4507,8 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="5">
         <v>6</v>
       </c>
@@ -4416,8 +4519,8 @@
         <v>11.34</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="98"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="129"/>
       <c r="J18" s="5">
         <v>6</v>
       </c>
@@ -4430,8 +4533,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
       <c r="D19" s="5">
         <v>7</v>
       </c>
@@ -4442,8 +4545,8 @@
         <v>12.34</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="98"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="129"/>
       <c r="J19" s="5">
         <v>7</v>
       </c>
@@ -4456,8 +4559,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="5">
         <v>8</v>
       </c>
@@ -4468,8 +4571,8 @@
         <v>13.34</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="98"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="129"/>
       <c r="J20" s="5">
         <v>8</v>
       </c>
@@ -4482,8 +4585,8 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="5">
         <v>9</v>
       </c>
@@ -4494,8 +4597,8 @@
         <v>14.34</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="100"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
       <c r="J21" s="5">
         <v>9</v>
       </c>
@@ -4508,10 +4611,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="102"/>
+      <c r="C22" s="125"/>
       <c r="D22" s="5">
         <v>10</v>
       </c>
@@ -4522,10 +4625,10 @@
         <v>15.34</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="101" t="s">
+      <c r="H22" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="102"/>
+      <c r="I22" s="125"/>
       <c r="J22" s="5">
         <v>10</v>
       </c>
@@ -4716,10 +4819,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="96"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="3" t="s">
         <v>1</v>
       </c>
@@ -4730,10 +4833,10 @@
         <v>3</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="95" t="s">
+      <c r="H30" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="96"/>
+      <c r="I30" s="127"/>
       <c r="J30" s="3" t="s">
         <v>1</v>
       </c>
@@ -4746,8 +4849,8 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="1"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="98"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="129"/>
       <c r="D31" s="4" t="s">
         <v>5</v>
       </c>
@@ -4758,8 +4861,8 @@
         <v>7</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="98"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="129"/>
       <c r="J31" s="4" t="s">
         <v>5</v>
       </c>
@@ -4772,8 +4875,8 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="98"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="5">
         <v>0</v>
       </c>
@@ -4784,8 +4887,8 @@
         <v>0</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="98"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="129"/>
       <c r="J32" s="5">
         <v>0</v>
       </c>
@@ -4798,8 +4901,8 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="98"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="5">
         <v>0.25</v>
       </c>
@@ -4810,8 +4913,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="98"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="129"/>
       <c r="J33" s="5">
         <v>0.25</v>
       </c>
@@ -4824,8 +4927,8 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="98"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="129"/>
       <c r="D34" s="5">
         <v>0.5</v>
       </c>
@@ -4836,8 +4939,8 @@
         <v>1.29</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="98"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="129"/>
       <c r="J34" s="5">
         <v>0.5</v>
       </c>
@@ -4850,8 +4953,8 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="98"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="5">
         <v>0.75</v>
       </c>
@@ -4862,8 +4965,8 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="98"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="129"/>
       <c r="J35" s="5">
         <v>0.75</v>
       </c>
@@ -4876,8 +4979,8 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="98"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="129"/>
       <c r="D36" s="5">
         <v>1</v>
       </c>
@@ -4888,8 +4991,8 @@
         <v>2.94</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
       <c r="J36" s="5">
         <v>1</v>
       </c>
@@ -4902,8 +5005,8 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="98"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="129"/>
       <c r="D37" s="5">
         <v>1.5</v>
       </c>
@@ -4914,8 +5017,8 @@
         <v>4.83</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="98"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="129"/>
       <c r="J37" s="5">
         <v>1.5</v>
       </c>
@@ -4928,8 +5031,8 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="98"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="5">
         <v>2</v>
       </c>
@@ -4940,8 +5043,8 @@
         <v>6.51</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="129"/>
       <c r="J38" s="5">
         <v>2</v>
       </c>
@@ -4954,8 +5057,8 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="98"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="5">
         <v>2.5</v>
       </c>
@@ -4966,8 +5069,8 @@
         <v>7.96</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="98"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="129"/>
       <c r="J39" s="5">
         <v>2.5</v>
       </c>
@@ -4980,8 +5083,8 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="98"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="129"/>
       <c r="D40" s="5">
         <v>3</v>
       </c>
@@ -4992,8 +5095,8 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="98"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="129"/>
       <c r="J40" s="5">
         <v>3</v>
       </c>
@@ -5006,8 +5109,8 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="98"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="129"/>
       <c r="D41" s="5">
         <v>3.5</v>
       </c>
@@ -5018,8 +5121,8 @@
         <v>10.34</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="98"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="129"/>
       <c r="J41" s="5">
         <v>3.5</v>
       </c>
@@ -5032,8 +5135,8 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="98"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="5">
         <v>4</v>
       </c>
@@ -5044,8 +5147,8 @@
         <v>11.3</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="98"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="129"/>
       <c r="J42" s="5">
         <v>4</v>
       </c>
@@ -5058,8 +5161,8 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="98"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="5">
         <v>4.5</v>
       </c>
@@ -5070,8 +5173,8 @@
         <v>12.11</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="98"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="129"/>
       <c r="J43" s="5">
         <v>4.5</v>
       </c>
@@ -5084,8 +5187,8 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="98"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="5">
         <v>5</v>
       </c>
@@ -5096,8 +5199,8 @@
         <v>12.86</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="98"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="129"/>
       <c r="J44" s="5">
         <v>5</v>
       </c>
@@ -5110,8 +5213,8 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="98"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="129"/>
       <c r="D45" s="5">
         <v>5.5</v>
       </c>
@@ -5122,8 +5225,8 @@
         <v>13.56</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="98"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="129"/>
       <c r="J45" s="5">
         <v>5.5</v>
       </c>
@@ -5136,8 +5239,8 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="98"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="129"/>
       <c r="D46" s="5">
         <v>6</v>
       </c>
@@ -5148,8 +5251,8 @@
         <v>14.22</v>
       </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="98"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="129"/>
       <c r="J46" s="5">
         <v>6</v>
       </c>
@@ -5162,8 +5265,8 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
-      <c r="B47" s="97"/>
-      <c r="C47" s="98"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="5">
         <v>7</v>
       </c>
@@ -5174,8 +5277,8 @@
         <v>15.56</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="98"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="129"/>
       <c r="J47" s="5">
         <v>7</v>
       </c>
@@ -5188,8 +5291,8 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
-      <c r="B48" s="97"/>
-      <c r="C48" s="98"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="129"/>
       <c r="D48" s="5">
         <v>8</v>
       </c>
@@ -5200,8 +5303,8 @@
         <v>16.89</v>
       </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="98"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="129"/>
       <c r="J48" s="5">
         <v>8</v>
       </c>
@@ -5214,8 +5317,8 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="100"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="131"/>
       <c r="D49" s="5">
         <v>9</v>
       </c>
@@ -5226,8 +5329,8 @@
         <v>18.23</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="100"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="131"/>
       <c r="J49" s="5">
         <v>9</v>
       </c>
@@ -5240,10 +5343,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
-      <c r="B50" s="101" t="s">
+      <c r="B50" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="102"/>
+      <c r="C50" s="125"/>
       <c r="D50" s="5">
         <v>10</v>
       </c>
@@ -5254,10 +5357,10 @@
         <v>19.559999999999999</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="101" t="s">
+      <c r="H50" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="102"/>
+      <c r="I50" s="125"/>
       <c r="J50" s="5">
         <v>10</v>
       </c>
@@ -5448,10 +5551,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
-      <c r="B58" s="95" t="s">
+      <c r="B58" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="96"/>
+      <c r="C58" s="127"/>
       <c r="D58" s="3" t="s">
         <v>1</v>
       </c>
@@ -5462,10 +5565,10 @@
         <v>3</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="95" t="s">
+      <c r="H58" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I58" s="96"/>
+      <c r="I58" s="127"/>
       <c r="J58" s="3" t="s">
         <v>1</v>
       </c>
@@ -5478,8 +5581,8 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
-      <c r="B59" s="97"/>
-      <c r="C59" s="98"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="4" t="s">
         <v>5</v>
       </c>
@@ -5490,8 +5593,8 @@
         <v>7</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="98"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="129"/>
       <c r="J59" s="4" t="s">
         <v>5</v>
       </c>
@@ -5504,8 +5607,8 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
-      <c r="B60" s="97"/>
-      <c r="C60" s="98"/>
+      <c r="B60" s="128"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="5">
         <v>0</v>
       </c>
@@ -5516,8 +5619,8 @@
         <v>0</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="98"/>
+      <c r="H60" s="128"/>
+      <c r="I60" s="129"/>
       <c r="J60" s="5">
         <v>0</v>
       </c>
@@ -5530,8 +5633,8 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
-      <c r="B61" s="97"/>
-      <c r="C61" s="98"/>
+      <c r="B61" s="128"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="5">
         <v>0.25</v>
       </c>
@@ -5542,8 +5645,8 @@
         <v>0.39</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="98"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="129"/>
       <c r="J61" s="5">
         <v>0.25</v>
       </c>
@@ -5556,8 +5659,8 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
-      <c r="B62" s="97"/>
-      <c r="C62" s="98"/>
+      <c r="B62" s="128"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="5">
         <v>0.5</v>
       </c>
@@ -5568,8 +5671,8 @@
         <v>0.88</v>
       </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="98"/>
+      <c r="H62" s="128"/>
+      <c r="I62" s="129"/>
       <c r="J62" s="5">
         <v>0.5</v>
       </c>
@@ -5582,8 +5685,8 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
-      <c r="B63" s="97"/>
-      <c r="C63" s="98"/>
+      <c r="B63" s="128"/>
+      <c r="C63" s="129"/>
       <c r="D63" s="5">
         <v>0.75</v>
       </c>
@@ -5594,8 +5697,8 @@
         <v>1.42</v>
       </c>
       <c r="G63" s="2"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="98"/>
+      <c r="H63" s="128"/>
+      <c r="I63" s="129"/>
       <c r="J63" s="5">
         <v>0.75</v>
       </c>
@@ -5608,8 +5711,8 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
-      <c r="B64" s="97"/>
-      <c r="C64" s="98"/>
+      <c r="B64" s="128"/>
+      <c r="C64" s="129"/>
       <c r="D64" s="5">
         <v>1</v>
       </c>
@@ -5620,8 +5723,8 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="98"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="129"/>
       <c r="J64" s="5">
         <v>1</v>
       </c>
@@ -5634,8 +5737,8 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
-      <c r="B65" s="97"/>
-      <c r="C65" s="98"/>
+      <c r="B65" s="128"/>
+      <c r="C65" s="129"/>
       <c r="D65" s="5">
         <v>1.5</v>
       </c>
@@ -5646,8 +5749,8 @@
         <v>3.29</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="98"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="129"/>
       <c r="J65" s="5">
         <v>1.5</v>
       </c>
@@ -5660,8 +5763,8 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
-      <c r="B66" s="97"/>
-      <c r="C66" s="98"/>
+      <c r="B66" s="128"/>
+      <c r="C66" s="129"/>
       <c r="D66" s="5">
         <v>2</v>
       </c>
@@ -5672,8 +5775,8 @@
         <v>4.47</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="98"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="129"/>
       <c r="J66" s="5">
         <v>2</v>
       </c>
@@ -5686,8 +5789,8 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
-      <c r="B67" s="97"/>
-      <c r="C67" s="98"/>
+      <c r="B67" s="128"/>
+      <c r="C67" s="129"/>
       <c r="D67" s="5">
         <v>2.5</v>
       </c>
@@ -5698,8 +5801,8 @@
         <v>5.43</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="98"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="129"/>
       <c r="J67" s="5">
         <v>2.5</v>
       </c>
@@ -5712,8 +5815,8 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
-      <c r="B68" s="97"/>
-      <c r="C68" s="98"/>
+      <c r="B68" s="128"/>
+      <c r="C68" s="129"/>
       <c r="D68" s="5">
         <v>3</v>
       </c>
@@ -5724,8 +5827,8 @@
         <v>6.31</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="98"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="129"/>
       <c r="J68" s="5">
         <v>3</v>
       </c>
@@ -5738,8 +5841,8 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
-      <c r="B69" s="97"/>
-      <c r="C69" s="98"/>
+      <c r="B69" s="128"/>
+      <c r="C69" s="129"/>
       <c r="D69" s="5">
         <v>3.5</v>
       </c>
@@ -5750,8 +5853,8 @@
         <v>7.09</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="98"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="129"/>
       <c r="J69" s="5">
         <v>3.5</v>
       </c>
@@ -5764,8 +5867,8 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
-      <c r="B70" s="97"/>
-      <c r="C70" s="98"/>
+      <c r="B70" s="128"/>
+      <c r="C70" s="129"/>
       <c r="D70" s="5">
         <v>4</v>
       </c>
@@ -5776,8 +5879,8 @@
         <v>7.77</v>
       </c>
       <c r="G70" s="2"/>
-      <c r="H70" s="97"/>
-      <c r="I70" s="98"/>
+      <c r="H70" s="128"/>
+      <c r="I70" s="129"/>
       <c r="J70" s="5">
         <v>4</v>
       </c>
@@ -5790,8 +5893,8 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
-      <c r="B71" s="97"/>
-      <c r="C71" s="98"/>
+      <c r="B71" s="128"/>
+      <c r="C71" s="129"/>
       <c r="D71" s="5">
         <v>4.5</v>
       </c>
@@ -5802,8 +5905,8 @@
         <v>8.35</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="98"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="129"/>
       <c r="J71" s="5">
         <v>4.5</v>
       </c>
@@ -5816,8 +5919,8 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
-      <c r="B72" s="97"/>
-      <c r="C72" s="98"/>
+      <c r="B72" s="128"/>
+      <c r="C72" s="129"/>
       <c r="D72" s="5">
         <v>5</v>
       </c>
@@ -5828,8 +5931,8 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="98"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="129"/>
       <c r="J72" s="5">
         <v>5</v>
       </c>
@@ -5842,8 +5945,8 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
-      <c r="B73" s="97"/>
-      <c r="C73" s="98"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="129"/>
       <c r="D73" s="5">
         <v>5.5</v>
       </c>
@@ -5854,8 +5957,8 @@
         <v>9.39</v>
       </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="97"/>
-      <c r="I73" s="98"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="129"/>
       <c r="J73" s="5">
         <v>5.5</v>
       </c>
@@ -5868,8 +5971,8 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
-      <c r="B74" s="97"/>
-      <c r="C74" s="98"/>
+      <c r="B74" s="128"/>
+      <c r="C74" s="129"/>
       <c r="D74" s="5">
         <v>6</v>
       </c>
@@ -5880,8 +5983,8 @@
         <v>9.85</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="98"/>
+      <c r="H74" s="128"/>
+      <c r="I74" s="129"/>
       <c r="J74" s="5">
         <v>6</v>
       </c>
@@ -5894,8 +5997,8 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
-      <c r="B75" s="97"/>
-      <c r="C75" s="98"/>
+      <c r="B75" s="128"/>
+      <c r="C75" s="129"/>
       <c r="D75" s="5">
         <v>7</v>
       </c>
@@ -5906,8 +6009,8 @@
         <v>10.77</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="98"/>
+      <c r="H75" s="128"/>
+      <c r="I75" s="129"/>
       <c r="J75" s="5">
         <v>7</v>
       </c>
@@ -5920,8 +6023,8 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
-      <c r="B76" s="97"/>
-      <c r="C76" s="98"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="129"/>
       <c r="D76" s="5">
         <v>8</v>
       </c>
@@ -5932,8 +6035,8 @@
         <v>11.69</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="98"/>
+      <c r="H76" s="128"/>
+      <c r="I76" s="129"/>
       <c r="J76" s="5">
         <v>8</v>
       </c>
@@ -5946,8 +6049,8 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
-      <c r="B77" s="99"/>
-      <c r="C77" s="100"/>
+      <c r="B77" s="130"/>
+      <c r="C77" s="131"/>
       <c r="D77" s="5">
         <v>9</v>
       </c>
@@ -5958,8 +6061,8 @@
         <v>12.61</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="99"/>
-      <c r="I77" s="100"/>
+      <c r="H77" s="130"/>
+      <c r="I77" s="131"/>
       <c r="J77" s="5">
         <v>9</v>
       </c>
@@ -5972,10 +6075,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
-      <c r="B78" s="101" t="s">
+      <c r="B78" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="102"/>
+      <c r="C78" s="125"/>
       <c r="D78" s="5">
         <v>10</v>
       </c>
@@ -5986,10 +6089,10 @@
         <v>13.53</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="H78" s="101" t="s">
+      <c r="H78" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I78" s="102"/>
+      <c r="I78" s="125"/>
       <c r="J78" s="5">
         <v>10</v>
       </c>
@@ -6180,10 +6283,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
-      <c r="B86" s="95" t="s">
+      <c r="B86" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="96"/>
+      <c r="C86" s="127"/>
       <c r="D86" s="3" t="s">
         <v>1</v>
       </c>
@@ -6194,10 +6297,10 @@
         <v>3</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="95" t="s">
+      <c r="H86" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="I86" s="96"/>
+      <c r="I86" s="127"/>
       <c r="J86" s="3" t="s">
         <v>1</v>
       </c>
@@ -6210,8 +6313,8 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
-      <c r="B87" s="97"/>
-      <c r="C87" s="98"/>
+      <c r="B87" s="128"/>
+      <c r="C87" s="129"/>
       <c r="D87" s="4" t="s">
         <v>5</v>
       </c>
@@ -6222,8 +6325,8 @@
         <v>7</v>
       </c>
       <c r="G87" s="2"/>
-      <c r="H87" s="97"/>
-      <c r="I87" s="98"/>
+      <c r="H87" s="128"/>
+      <c r="I87" s="129"/>
       <c r="J87" s="4" t="s">
         <v>5</v>
       </c>
@@ -6236,8 +6339,8 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
-      <c r="B88" s="97"/>
-      <c r="C88" s="98"/>
+      <c r="B88" s="128"/>
+      <c r="C88" s="129"/>
       <c r="D88" s="5">
         <v>0</v>
       </c>
@@ -6248,8 +6351,8 @@
         <v>0</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="97"/>
-      <c r="I88" s="98"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="129"/>
       <c r="J88" s="5">
         <v>0</v>
       </c>
@@ -6262,8 +6365,8 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
-      <c r="B89" s="97"/>
-      <c r="C89" s="98"/>
+      <c r="B89" s="128"/>
+      <c r="C89" s="129"/>
       <c r="D89" s="5">
         <v>0.25</v>
       </c>
@@ -6274,8 +6377,8 @@
         <v>1.07</v>
       </c>
       <c r="G89" s="2"/>
-      <c r="H89" s="97"/>
-      <c r="I89" s="98"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="129"/>
       <c r="J89" s="5">
         <v>0.25</v>
       </c>
@@ -6288,8 +6391,8 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
-      <c r="B90" s="97"/>
-      <c r="C90" s="98"/>
+      <c r="B90" s="128"/>
+      <c r="C90" s="129"/>
       <c r="D90" s="5">
         <v>0.5</v>
       </c>
@@ -6300,8 +6403,8 @@
         <v>2.42</v>
       </c>
       <c r="G90" s="2"/>
-      <c r="H90" s="97"/>
-      <c r="I90" s="98"/>
+      <c r="H90" s="128"/>
+      <c r="I90" s="129"/>
       <c r="J90" s="5">
         <v>0.5</v>
       </c>
@@ -6314,8 +6417,8 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
-      <c r="B91" s="97"/>
-      <c r="C91" s="98"/>
+      <c r="B91" s="128"/>
+      <c r="C91" s="129"/>
       <c r="D91" s="5">
         <v>0.75</v>
       </c>
@@ -6326,8 +6429,8 @@
         <v>3.93</v>
       </c>
       <c r="G91" s="2"/>
-      <c r="H91" s="97"/>
-      <c r="I91" s="98"/>
+      <c r="H91" s="128"/>
+      <c r="I91" s="129"/>
       <c r="J91" s="5">
         <v>0.75</v>
       </c>
@@ -6340,8 +6443,8 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
-      <c r="B92" s="97"/>
-      <c r="C92" s="98"/>
+      <c r="B92" s="128"/>
+      <c r="C92" s="129"/>
       <c r="D92" s="5">
         <v>1</v>
       </c>
@@ -6352,8 +6455,8 @@
         <v>5.58</v>
       </c>
       <c r="G92" s="2"/>
-      <c r="H92" s="97"/>
-      <c r="I92" s="98"/>
+      <c r="H92" s="128"/>
+      <c r="I92" s="129"/>
       <c r="J92" s="5">
         <v>1</v>
       </c>
@@ -6366,8 +6469,8 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
-      <c r="B93" s="97"/>
-      <c r="C93" s="98"/>
+      <c r="B93" s="128"/>
+      <c r="C93" s="129"/>
       <c r="D93" s="5">
         <v>1.5</v>
       </c>
@@ -6378,8 +6481,8 @@
         <v>9.1</v>
       </c>
       <c r="G93" s="2"/>
-      <c r="H93" s="97"/>
-      <c r="I93" s="98"/>
+      <c r="H93" s="128"/>
+      <c r="I93" s="129"/>
       <c r="J93" s="5">
         <v>1.5</v>
       </c>
@@ -6392,8 +6495,8 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
-      <c r="B94" s="97"/>
-      <c r="C94" s="98"/>
+      <c r="B94" s="128"/>
+      <c r="C94" s="129"/>
       <c r="D94" s="5">
         <v>2</v>
       </c>
@@ -6404,8 +6507,8 @@
         <v>12.4</v>
       </c>
       <c r="G94" s="2"/>
-      <c r="H94" s="97"/>
-      <c r="I94" s="98"/>
+      <c r="H94" s="128"/>
+      <c r="I94" s="129"/>
       <c r="J94" s="5">
         <v>2</v>
       </c>
@@ -6418,8 +6521,8 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
-      <c r="B95" s="97"/>
-      <c r="C95" s="98"/>
+      <c r="B95" s="128"/>
+      <c r="C95" s="129"/>
       <c r="D95" s="5">
         <v>2.5</v>
       </c>
@@ -6430,8 +6533,8 @@
         <v>15.04</v>
       </c>
       <c r="G95" s="2"/>
-      <c r="H95" s="97"/>
-      <c r="I95" s="98"/>
+      <c r="H95" s="128"/>
+      <c r="I95" s="129"/>
       <c r="J95" s="5">
         <v>2.5</v>
       </c>
@@ -6444,8 +6547,8 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
-      <c r="B96" s="97"/>
-      <c r="C96" s="98"/>
+      <c r="B96" s="128"/>
+      <c r="C96" s="129"/>
       <c r="D96" s="5">
         <v>3</v>
       </c>
@@ -6456,8 +6559,8 @@
         <v>17.41</v>
       </c>
       <c r="G96" s="2"/>
-      <c r="H96" s="97"/>
-      <c r="I96" s="98"/>
+      <c r="H96" s="128"/>
+      <c r="I96" s="129"/>
       <c r="J96" s="5">
         <v>3</v>
       </c>
@@ -6470,8 +6573,8 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
-      <c r="B97" s="97"/>
-      <c r="C97" s="98"/>
+      <c r="B97" s="128"/>
+      <c r="C97" s="129"/>
       <c r="D97" s="5">
         <v>3.5</v>
       </c>
@@ -6482,8 +6585,8 @@
         <v>19.55</v>
       </c>
       <c r="G97" s="2"/>
-      <c r="H97" s="97"/>
-      <c r="I97" s="98"/>
+      <c r="H97" s="128"/>
+      <c r="I97" s="129"/>
       <c r="J97" s="5">
         <v>3.5</v>
       </c>
@@ -6496,8 +6599,8 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
-      <c r="B98" s="97"/>
-      <c r="C98" s="98"/>
+      <c r="B98" s="128"/>
+      <c r="C98" s="129"/>
       <c r="D98" s="5">
         <v>4</v>
       </c>
@@ -6508,8 +6611,8 @@
         <v>21.37</v>
       </c>
       <c r="G98" s="2"/>
-      <c r="H98" s="97"/>
-      <c r="I98" s="98"/>
+      <c r="H98" s="128"/>
+      <c r="I98" s="129"/>
       <c r="J98" s="5">
         <v>4</v>
       </c>
@@ -6522,8 +6625,8 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
-      <c r="B99" s="97"/>
-      <c r="C99" s="98"/>
+      <c r="B99" s="128"/>
+      <c r="C99" s="129"/>
       <c r="D99" s="5">
         <v>4.5</v>
       </c>
@@ -6534,8 +6637,8 @@
         <v>23.02</v>
       </c>
       <c r="G99" s="2"/>
-      <c r="H99" s="97"/>
-      <c r="I99" s="98"/>
+      <c r="H99" s="128"/>
+      <c r="I99" s="129"/>
       <c r="J99" s="5">
         <v>4.5</v>
       </c>
@@ -6548,8 +6651,8 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
-      <c r="B100" s="97"/>
-      <c r="C100" s="98"/>
+      <c r="B100" s="128"/>
+      <c r="C100" s="129"/>
       <c r="D100" s="5">
         <v>5</v>
       </c>
@@ -6560,8 +6663,8 @@
         <v>24.45</v>
       </c>
       <c r="G100" s="2"/>
-      <c r="H100" s="97"/>
-      <c r="I100" s="98"/>
+      <c r="H100" s="128"/>
+      <c r="I100" s="129"/>
       <c r="J100" s="5">
         <v>5</v>
       </c>
@@ -6574,8 +6677,8 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
-      <c r="B101" s="97"/>
-      <c r="C101" s="98"/>
+      <c r="B101" s="128"/>
+      <c r="C101" s="129"/>
       <c r="D101" s="5">
         <v>5.5</v>
       </c>
@@ -6586,8 +6689,8 @@
         <v>25.77</v>
       </c>
       <c r="G101" s="2"/>
-      <c r="H101" s="97"/>
-      <c r="I101" s="98"/>
+      <c r="H101" s="128"/>
+      <c r="I101" s="129"/>
       <c r="J101" s="5">
         <v>5.5</v>
       </c>
@@ -6600,8 +6703,8 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
-      <c r="B102" s="97"/>
-      <c r="C102" s="98"/>
+      <c r="B102" s="128"/>
+      <c r="C102" s="129"/>
       <c r="D102" s="5">
         <v>6</v>
       </c>
@@ -6612,8 +6715,8 @@
         <v>27.03</v>
       </c>
       <c r="G102" s="2"/>
-      <c r="H102" s="97"/>
-      <c r="I102" s="98"/>
+      <c r="H102" s="128"/>
+      <c r="I102" s="129"/>
       <c r="J102" s="5">
         <v>6</v>
       </c>
@@ -6626,8 +6729,8 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
-      <c r="B103" s="97"/>
-      <c r="C103" s="98"/>
+      <c r="B103" s="128"/>
+      <c r="C103" s="129"/>
       <c r="D103" s="5">
         <v>7</v>
       </c>
@@ -6638,8 +6741,8 @@
         <v>29.56</v>
       </c>
       <c r="G103" s="2"/>
-      <c r="H103" s="97"/>
-      <c r="I103" s="98"/>
+      <c r="H103" s="128"/>
+      <c r="I103" s="129"/>
       <c r="J103" s="5">
         <v>7</v>
       </c>
@@ -6652,8 +6755,8 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
-      <c r="B104" s="97"/>
-      <c r="C104" s="98"/>
+      <c r="B104" s="128"/>
+      <c r="C104" s="129"/>
       <c r="D104" s="5">
         <v>8</v>
       </c>
@@ -6664,8 +6767,8 @@
         <v>32.090000000000003</v>
       </c>
       <c r="G104" s="2"/>
-      <c r="H104" s="97"/>
-      <c r="I104" s="98"/>
+      <c r="H104" s="128"/>
+      <c r="I104" s="129"/>
       <c r="J104" s="5">
         <v>8</v>
       </c>
@@ -6678,8 +6781,8 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="100"/>
+      <c r="B105" s="130"/>
+      <c r="C105" s="131"/>
       <c r="D105" s="5">
         <v>9</v>
       </c>
@@ -6690,8 +6793,8 @@
         <v>34.619999999999997</v>
       </c>
       <c r="G105" s="2"/>
-      <c r="H105" s="99"/>
-      <c r="I105" s="100"/>
+      <c r="H105" s="130"/>
+      <c r="I105" s="131"/>
       <c r="J105" s="5">
         <v>9</v>
       </c>
@@ -6704,10 +6807,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
-      <c r="B106" s="101" t="s">
+      <c r="B106" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="102"/>
+      <c r="C106" s="125"/>
       <c r="D106" s="5">
         <v>10</v>
       </c>
@@ -6718,10 +6821,10 @@
         <v>37.15</v>
       </c>
       <c r="G106" s="2"/>
-      <c r="H106" s="101" t="s">
+      <c r="H106" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I106" s="102"/>
+      <c r="I106" s="125"/>
       <c r="J106" s="5">
         <v>10</v>
       </c>
@@ -6912,10 +7015,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
-      <c r="B114" s="95" t="s">
+      <c r="B114" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="C114" s="96"/>
+      <c r="C114" s="127"/>
       <c r="D114" s="3" t="s">
         <v>1</v>
       </c>
@@ -6926,10 +7029,10 @@
         <v>3</v>
       </c>
       <c r="G114" s="2"/>
-      <c r="H114" s="95" t="s">
+      <c r="H114" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="I114" s="96"/>
+      <c r="I114" s="127"/>
       <c r="J114" s="3" t="s">
         <v>1</v>
       </c>
@@ -6942,8 +7045,8 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
-      <c r="B115" s="97"/>
-      <c r="C115" s="98"/>
+      <c r="B115" s="128"/>
+      <c r="C115" s="129"/>
       <c r="D115" s="4" t="s">
         <v>5</v>
       </c>
@@ -6954,8 +7057,8 @@
         <v>7</v>
       </c>
       <c r="G115" s="2"/>
-      <c r="H115" s="97"/>
-      <c r="I115" s="98"/>
+      <c r="H115" s="128"/>
+      <c r="I115" s="129"/>
       <c r="J115" s="4" t="s">
         <v>5</v>
       </c>
@@ -6968,8 +7071,8 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
-      <c r="B116" s="97"/>
-      <c r="C116" s="98"/>
+      <c r="B116" s="128"/>
+      <c r="C116" s="129"/>
       <c r="D116" s="5">
         <v>0</v>
       </c>
@@ -6980,8 +7083,8 @@
         <v>0</v>
       </c>
       <c r="G116" s="2"/>
-      <c r="H116" s="97"/>
-      <c r="I116" s="98"/>
+      <c r="H116" s="128"/>
+      <c r="I116" s="129"/>
       <c r="J116" s="5">
         <v>0</v>
       </c>
@@ -6994,8 +7097,8 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
-      <c r="B117" s="97"/>
-      <c r="C117" s="98"/>
+      <c r="B117" s="128"/>
+      <c r="C117" s="129"/>
       <c r="D117" s="5">
         <v>0.25</v>
       </c>
@@ -7006,8 +7109,8 @@
         <v>0.92</v>
       </c>
       <c r="G117" s="2"/>
-      <c r="H117" s="97"/>
-      <c r="I117" s="98"/>
+      <c r="H117" s="128"/>
+      <c r="I117" s="129"/>
       <c r="J117" s="5">
         <v>0.25</v>
       </c>
@@ -7020,8 +7123,8 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
-      <c r="B118" s="97"/>
-      <c r="C118" s="98"/>
+      <c r="B118" s="128"/>
+      <c r="C118" s="129"/>
       <c r="D118" s="5">
         <v>0.5</v>
       </c>
@@ -7032,8 +7135,8 @@
         <v>2.09</v>
       </c>
       <c r="G118" s="2"/>
-      <c r="H118" s="97"/>
-      <c r="I118" s="98"/>
+      <c r="H118" s="128"/>
+      <c r="I118" s="129"/>
       <c r="J118" s="5">
         <v>0.5</v>
       </c>
@@ -7046,8 +7149,8 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
-      <c r="B119" s="97"/>
-      <c r="C119" s="98"/>
+      <c r="B119" s="128"/>
+      <c r="C119" s="129"/>
       <c r="D119" s="5">
         <v>0.75</v>
       </c>
@@ -7058,8 +7161,8 @@
         <v>3.4</v>
       </c>
       <c r="G119" s="2"/>
-      <c r="H119" s="97"/>
-      <c r="I119" s="98"/>
+      <c r="H119" s="128"/>
+      <c r="I119" s="129"/>
       <c r="J119" s="5">
         <v>0.75</v>
       </c>
@@ -7072,8 +7175,8 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
-      <c r="B120" s="97"/>
-      <c r="C120" s="98"/>
+      <c r="B120" s="128"/>
+      <c r="C120" s="129"/>
       <c r="D120" s="5">
         <v>1</v>
       </c>
@@ -7084,8 +7187,8 @@
         <v>4.79</v>
       </c>
       <c r="G120" s="2"/>
-      <c r="H120" s="97"/>
-      <c r="I120" s="98"/>
+      <c r="H120" s="128"/>
+      <c r="I120" s="129"/>
       <c r="J120" s="5">
         <v>1</v>
       </c>
@@ -7098,8 +7201,8 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
-      <c r="B121" s="97"/>
-      <c r="C121" s="98"/>
+      <c r="B121" s="128"/>
+      <c r="C121" s="129"/>
       <c r="D121" s="5">
         <v>1.5</v>
       </c>
@@ -7110,8 +7213,8 @@
         <v>7.81</v>
       </c>
       <c r="G121" s="2"/>
-      <c r="H121" s="97"/>
-      <c r="I121" s="98"/>
+      <c r="H121" s="128"/>
+      <c r="I121" s="129"/>
       <c r="J121" s="5">
         <v>1.5</v>
       </c>
@@ -7124,8 +7227,8 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
-      <c r="B122" s="97"/>
-      <c r="C122" s="98"/>
+      <c r="B122" s="128"/>
+      <c r="C122" s="129"/>
       <c r="D122" s="5">
         <v>2</v>
       </c>
@@ -7136,8 +7239,8 @@
         <v>10.6</v>
       </c>
       <c r="G122" s="2"/>
-      <c r="H122" s="97"/>
-      <c r="I122" s="98"/>
+      <c r="H122" s="128"/>
+      <c r="I122" s="129"/>
       <c r="J122" s="5">
         <v>2</v>
       </c>
@@ -7150,8 +7253,8 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
-      <c r="B123" s="97"/>
-      <c r="C123" s="98"/>
+      <c r="B123" s="128"/>
+      <c r="C123" s="129"/>
       <c r="D123" s="5">
         <v>2.5</v>
       </c>
@@ -7162,8 +7265,8 @@
         <v>12.89</v>
       </c>
       <c r="G123" s="2"/>
-      <c r="H123" s="97"/>
-      <c r="I123" s="98"/>
+      <c r="H123" s="128"/>
+      <c r="I123" s="129"/>
       <c r="J123" s="5">
         <v>2.5</v>
       </c>
@@ -7176,8 +7279,8 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
-      <c r="B124" s="97"/>
-      <c r="C124" s="98"/>
+      <c r="B124" s="128"/>
+      <c r="C124" s="129"/>
       <c r="D124" s="5">
         <v>3</v>
       </c>
@@ -7188,8 +7291,8 @@
         <v>15.05</v>
       </c>
       <c r="G124" s="2"/>
-      <c r="H124" s="97"/>
-      <c r="I124" s="98"/>
+      <c r="H124" s="128"/>
+      <c r="I124" s="129"/>
       <c r="J124" s="5">
         <v>3</v>
       </c>
@@ -7202,8 +7305,8 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
-      <c r="B125" s="97"/>
-      <c r="C125" s="98"/>
+      <c r="B125" s="128"/>
+      <c r="C125" s="129"/>
       <c r="D125" s="5">
         <v>3.5</v>
       </c>
@@ -7214,8 +7317,8 @@
         <v>16.899999999999999</v>
       </c>
       <c r="G125" s="2"/>
-      <c r="H125" s="97"/>
-      <c r="I125" s="98"/>
+      <c r="H125" s="128"/>
+      <c r="I125" s="129"/>
       <c r="J125" s="5">
         <v>3.5</v>
       </c>
@@ -7228,8 +7331,8 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
-      <c r="B126" s="97"/>
-      <c r="C126" s="98"/>
+      <c r="B126" s="128"/>
+      <c r="C126" s="129"/>
       <c r="D126" s="5">
         <v>4</v>
       </c>
@@ -7240,8 +7343,8 @@
         <v>18.559999999999999</v>
       </c>
       <c r="G126" s="2"/>
-      <c r="H126" s="97"/>
-      <c r="I126" s="98"/>
+      <c r="H126" s="128"/>
+      <c r="I126" s="129"/>
       <c r="J126" s="5">
         <v>4</v>
       </c>
@@ -7254,8 +7357,8 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
-      <c r="B127" s="97"/>
-      <c r="C127" s="98"/>
+      <c r="B127" s="128"/>
+      <c r="C127" s="129"/>
       <c r="D127" s="5">
         <v>4.5</v>
       </c>
@@ -7266,8 +7369,8 @@
         <v>20.05</v>
       </c>
       <c r="G127" s="2"/>
-      <c r="H127" s="97"/>
-      <c r="I127" s="98"/>
+      <c r="H127" s="128"/>
+      <c r="I127" s="129"/>
       <c r="J127" s="5">
         <v>4.5</v>
       </c>
@@ -7280,8 +7383,8 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
-      <c r="B128" s="97"/>
-      <c r="C128" s="98"/>
+      <c r="B128" s="128"/>
+      <c r="C128" s="129"/>
       <c r="D128" s="5">
         <v>5</v>
       </c>
@@ -7292,8 +7395,8 @@
         <v>21.4</v>
       </c>
       <c r="G128" s="2"/>
-      <c r="H128" s="97"/>
-      <c r="I128" s="98"/>
+      <c r="H128" s="128"/>
+      <c r="I128" s="129"/>
       <c r="J128" s="5">
         <v>5</v>
       </c>
@@ -7306,8 +7409,8 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
-      <c r="B129" s="97"/>
-      <c r="C129" s="98"/>
+      <c r="B129" s="128"/>
+      <c r="C129" s="129"/>
       <c r="D129" s="5">
         <v>5.5</v>
       </c>
@@ -7318,8 +7421,8 @@
         <v>22.7</v>
       </c>
       <c r="G129" s="2"/>
-      <c r="H129" s="97"/>
-      <c r="I129" s="98"/>
+      <c r="H129" s="128"/>
+      <c r="I129" s="129"/>
       <c r="J129" s="5">
         <v>5.5</v>
       </c>
@@ -7332,8 +7435,8 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
-      <c r="B130" s="97"/>
-      <c r="C130" s="98"/>
+      <c r="B130" s="128"/>
+      <c r="C130" s="129"/>
       <c r="D130" s="5">
         <v>6</v>
       </c>
@@ -7344,8 +7447,8 @@
         <v>23.87</v>
       </c>
       <c r="G130" s="2"/>
-      <c r="H130" s="97"/>
-      <c r="I130" s="98"/>
+      <c r="H130" s="128"/>
+      <c r="I130" s="129"/>
       <c r="J130" s="5">
         <v>6</v>
       </c>
@@ -7358,8 +7461,8 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
-      <c r="B131" s="97"/>
-      <c r="C131" s="98"/>
+      <c r="B131" s="128"/>
+      <c r="C131" s="129"/>
       <c r="D131" s="5">
         <v>7</v>
       </c>
@@ -7370,8 +7473,8 @@
         <v>26.21</v>
       </c>
       <c r="G131" s="2"/>
-      <c r="H131" s="97"/>
-      <c r="I131" s="98"/>
+      <c r="H131" s="128"/>
+      <c r="I131" s="129"/>
       <c r="J131" s="5">
         <v>7</v>
       </c>
@@ -7384,8 +7487,8 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
-      <c r="B132" s="97"/>
-      <c r="C132" s="98"/>
+      <c r="B132" s="128"/>
+      <c r="C132" s="129"/>
       <c r="D132" s="5">
         <v>8</v>
       </c>
@@ -7396,8 +7499,8 @@
         <v>28.55</v>
       </c>
       <c r="G132" s="2"/>
-      <c r="H132" s="97"/>
-      <c r="I132" s="98"/>
+      <c r="H132" s="128"/>
+      <c r="I132" s="129"/>
       <c r="J132" s="5">
         <v>8</v>
       </c>
@@ -7410,8 +7513,8 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
-      <c r="B133" s="99"/>
-      <c r="C133" s="100"/>
+      <c r="B133" s="130"/>
+      <c r="C133" s="131"/>
       <c r="D133" s="5">
         <v>9</v>
       </c>
@@ -7422,8 +7525,8 @@
         <v>30.89</v>
       </c>
       <c r="G133" s="2"/>
-      <c r="H133" s="99"/>
-      <c r="I133" s="100"/>
+      <c r="H133" s="130"/>
+      <c r="I133" s="131"/>
       <c r="J133" s="5">
         <v>9</v>
       </c>
@@ -7436,10 +7539,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
-      <c r="B134" s="101" t="s">
+      <c r="B134" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C134" s="102"/>
+      <c r="C134" s="125"/>
       <c r="D134" s="5">
         <v>10</v>
       </c>
@@ -7450,10 +7553,10 @@
         <v>33.229999999999997</v>
       </c>
       <c r="G134" s="2"/>
-      <c r="H134" s="101" t="s">
+      <c r="H134" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I134" s="102"/>
+      <c r="I134" s="125"/>
       <c r="J134" s="5">
         <v>10</v>
       </c>
@@ -7644,10 +7747,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A142" s="1"/>
-      <c r="B142" s="95" t="s">
+      <c r="B142" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="C142" s="96"/>
+      <c r="C142" s="127"/>
       <c r="D142" s="3" t="s">
         <v>1</v>
       </c>
@@ -7658,10 +7761,10 @@
         <v>3</v>
       </c>
       <c r="G142" s="2"/>
-      <c r="H142" s="95" t="s">
+      <c r="H142" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="I142" s="96"/>
+      <c r="I142" s="127"/>
       <c r="J142" s="3" t="s">
         <v>1</v>
       </c>
@@ -7674,8 +7777,8 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A143" s="1"/>
-      <c r="B143" s="97"/>
-      <c r="C143" s="98"/>
+      <c r="B143" s="128"/>
+      <c r="C143" s="129"/>
       <c r="D143" s="4" t="s">
         <v>5</v>
       </c>
@@ -7686,8 +7789,8 @@
         <v>7</v>
       </c>
       <c r="G143" s="2"/>
-      <c r="H143" s="97"/>
-      <c r="I143" s="98"/>
+      <c r="H143" s="128"/>
+      <c r="I143" s="129"/>
       <c r="J143" s="4" t="s">
         <v>5</v>
       </c>
@@ -7700,8 +7803,8 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A144" s="1"/>
-      <c r="B144" s="97"/>
-      <c r="C144" s="98"/>
+      <c r="B144" s="128"/>
+      <c r="C144" s="129"/>
       <c r="D144" s="5">
         <v>0</v>
       </c>
@@ -7712,8 +7815,8 @@
         <v>0</v>
       </c>
       <c r="G144" s="2"/>
-      <c r="H144" s="97"/>
-      <c r="I144" s="98"/>
+      <c r="H144" s="128"/>
+      <c r="I144" s="129"/>
       <c r="J144" s="5">
         <v>0</v>
       </c>
@@ -7726,8 +7829,8 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A145" s="1"/>
-      <c r="B145" s="97"/>
-      <c r="C145" s="98"/>
+      <c r="B145" s="128"/>
+      <c r="C145" s="129"/>
       <c r="D145" s="5">
         <v>0.25</v>
       </c>
@@ -7738,8 +7841,8 @@
         <v>0.48</v>
       </c>
       <c r="G145" s="2"/>
-      <c r="H145" s="97"/>
-      <c r="I145" s="98"/>
+      <c r="H145" s="128"/>
+      <c r="I145" s="129"/>
       <c r="J145" s="5">
         <v>0.25</v>
       </c>
@@ -7752,8 +7855,8 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A146" s="1"/>
-      <c r="B146" s="97"/>
-      <c r="C146" s="98"/>
+      <c r="B146" s="128"/>
+      <c r="C146" s="129"/>
       <c r="D146" s="5">
         <v>0.5</v>
       </c>
@@ -7764,8 +7867,8 @@
         <v>1.08</v>
       </c>
       <c r="G146" s="2"/>
-      <c r="H146" s="97"/>
-      <c r="I146" s="98"/>
+      <c r="H146" s="128"/>
+      <c r="I146" s="129"/>
       <c r="J146" s="5">
         <v>0.5</v>
       </c>
@@ -7778,8 +7881,8 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A147" s="1"/>
-      <c r="B147" s="97"/>
-      <c r="C147" s="98"/>
+      <c r="B147" s="128"/>
+      <c r="C147" s="129"/>
       <c r="D147" s="5">
         <v>0.75</v>
       </c>
@@ -7790,8 +7893,8 @@
         <v>1.73</v>
       </c>
       <c r="G147" s="2"/>
-      <c r="H147" s="97"/>
-      <c r="I147" s="98"/>
+      <c r="H147" s="128"/>
+      <c r="I147" s="129"/>
       <c r="J147" s="5">
         <v>0.75</v>
       </c>
@@ -7804,8 +7907,8 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A148" s="1"/>
-      <c r="B148" s="97"/>
-      <c r="C148" s="98"/>
+      <c r="B148" s="128"/>
+      <c r="C148" s="129"/>
       <c r="D148" s="5">
         <v>1</v>
       </c>
@@ -7816,8 +7919,8 @@
         <v>2.46</v>
       </c>
       <c r="G148" s="2"/>
-      <c r="H148" s="97"/>
-      <c r="I148" s="98"/>
+      <c r="H148" s="128"/>
+      <c r="I148" s="129"/>
       <c r="J148" s="5">
         <v>1</v>
       </c>
@@ -7830,8 +7933,8 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A149" s="1"/>
-      <c r="B149" s="97"/>
-      <c r="C149" s="98"/>
+      <c r="B149" s="128"/>
+      <c r="C149" s="129"/>
       <c r="D149" s="5">
         <v>1.5</v>
       </c>
@@ -7842,8 +7945,8 @@
         <v>4.04</v>
       </c>
       <c r="G149" s="2"/>
-      <c r="H149" s="97"/>
-      <c r="I149" s="98"/>
+      <c r="H149" s="128"/>
+      <c r="I149" s="129"/>
       <c r="J149" s="5">
         <v>1.5</v>
       </c>
@@ -7856,8 +7959,8 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A150" s="1"/>
-      <c r="B150" s="97"/>
-      <c r="C150" s="98"/>
+      <c r="B150" s="128"/>
+      <c r="C150" s="129"/>
       <c r="D150" s="5">
         <v>2</v>
       </c>
@@ -7868,8 +7971,8 @@
         <v>5.51</v>
       </c>
       <c r="G150" s="2"/>
-      <c r="H150" s="97"/>
-      <c r="I150" s="98"/>
+      <c r="H150" s="128"/>
+      <c r="I150" s="129"/>
       <c r="J150" s="5">
         <v>2</v>
       </c>
@@ -7882,8 +7985,8 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A151" s="1"/>
-      <c r="B151" s="97"/>
-      <c r="C151" s="98"/>
+      <c r="B151" s="128"/>
+      <c r="C151" s="129"/>
       <c r="D151" s="5">
         <v>2.5</v>
       </c>
@@ -7894,8 +7997,8 @@
         <v>6.71</v>
       </c>
       <c r="G151" s="2"/>
-      <c r="H151" s="97"/>
-      <c r="I151" s="98"/>
+      <c r="H151" s="128"/>
+      <c r="I151" s="129"/>
       <c r="J151" s="5">
         <v>2.5</v>
       </c>
@@ -7908,8 +8011,8 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A152" s="1"/>
-      <c r="B152" s="97"/>
-      <c r="C152" s="98"/>
+      <c r="B152" s="128"/>
+      <c r="C152" s="129"/>
       <c r="D152" s="5">
         <v>3</v>
       </c>
@@ -7920,8 +8023,8 @@
         <v>7.81</v>
       </c>
       <c r="G152" s="2"/>
-      <c r="H152" s="97"/>
-      <c r="I152" s="98"/>
+      <c r="H152" s="128"/>
+      <c r="I152" s="129"/>
       <c r="J152" s="5">
         <v>3</v>
       </c>
@@ -7934,8 +8037,8 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A153" s="1"/>
-      <c r="B153" s="97"/>
-      <c r="C153" s="98"/>
+      <c r="B153" s="128"/>
+      <c r="C153" s="129"/>
       <c r="D153" s="5">
         <v>3.5</v>
       </c>
@@ -7946,8 +8049,8 @@
         <v>8.76</v>
       </c>
       <c r="G153" s="2"/>
-      <c r="H153" s="97"/>
-      <c r="I153" s="98"/>
+      <c r="H153" s="128"/>
+      <c r="I153" s="129"/>
       <c r="J153" s="5">
         <v>3.5</v>
       </c>
@@ -7960,8 +8063,8 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A154" s="1"/>
-      <c r="B154" s="97"/>
-      <c r="C154" s="98"/>
+      <c r="B154" s="128"/>
+      <c r="C154" s="129"/>
       <c r="D154" s="5">
         <v>4</v>
       </c>
@@ -7972,8 +8075,8 @@
         <v>9.61</v>
       </c>
       <c r="G154" s="2"/>
-      <c r="H154" s="97"/>
-      <c r="I154" s="98"/>
+      <c r="H154" s="128"/>
+      <c r="I154" s="129"/>
       <c r="J154" s="5">
         <v>4</v>
       </c>
@@ -7986,8 +8089,8 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A155" s="1"/>
-      <c r="B155" s="97"/>
-      <c r="C155" s="98"/>
+      <c r="B155" s="128"/>
+      <c r="C155" s="129"/>
       <c r="D155" s="5">
         <v>4.5</v>
       </c>
@@ -7998,8 +8101,8 @@
         <v>10.29</v>
       </c>
       <c r="G155" s="2"/>
-      <c r="H155" s="97"/>
-      <c r="I155" s="98"/>
+      <c r="H155" s="128"/>
+      <c r="I155" s="129"/>
       <c r="J155" s="5">
         <v>4.5</v>
       </c>
@@ -8012,8 +8115,8 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A156" s="1"/>
-      <c r="B156" s="97"/>
-      <c r="C156" s="98"/>
+      <c r="B156" s="128"/>
+      <c r="C156" s="129"/>
       <c r="D156" s="5">
         <v>5</v>
       </c>
@@ -8024,8 +8127,8 @@
         <v>10.91</v>
       </c>
       <c r="G156" s="2"/>
-      <c r="H156" s="97"/>
-      <c r="I156" s="98"/>
+      <c r="H156" s="128"/>
+      <c r="I156" s="129"/>
       <c r="J156" s="5">
         <v>5</v>
       </c>
@@ -8038,8 +8141,8 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A157" s="1"/>
-      <c r="B157" s="97"/>
-      <c r="C157" s="98"/>
+      <c r="B157" s="128"/>
+      <c r="C157" s="129"/>
       <c r="D157" s="5">
         <v>5.5</v>
       </c>
@@ -8050,8 +8153,8 @@
         <v>11.51</v>
       </c>
       <c r="G157" s="2"/>
-      <c r="H157" s="97"/>
-      <c r="I157" s="98"/>
+      <c r="H157" s="128"/>
+      <c r="I157" s="129"/>
       <c r="J157" s="5">
         <v>5.5</v>
       </c>
@@ -8064,8 +8167,8 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A158" s="1"/>
-      <c r="B158" s="97"/>
-      <c r="C158" s="98"/>
+      <c r="B158" s="128"/>
+      <c r="C158" s="129"/>
       <c r="D158" s="5">
         <v>6</v>
       </c>
@@ -8076,8 +8179,8 @@
         <v>12.06</v>
       </c>
       <c r="G158" s="2"/>
-      <c r="H158" s="97"/>
-      <c r="I158" s="98"/>
+      <c r="H158" s="128"/>
+      <c r="I158" s="129"/>
       <c r="J158" s="5">
         <v>6</v>
       </c>
@@ -8090,8 +8193,8 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A159" s="1"/>
-      <c r="B159" s="97"/>
-      <c r="C159" s="98"/>
+      <c r="B159" s="128"/>
+      <c r="C159" s="129"/>
       <c r="D159" s="5">
         <v>7</v>
       </c>
@@ -8102,8 +8205,8 @@
         <v>13.16</v>
       </c>
       <c r="G159" s="2"/>
-      <c r="H159" s="97"/>
-      <c r="I159" s="98"/>
+      <c r="H159" s="128"/>
+      <c r="I159" s="129"/>
       <c r="J159" s="5">
         <v>7</v>
       </c>
@@ -8116,8 +8219,8 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A160" s="1"/>
-      <c r="B160" s="97"/>
-      <c r="C160" s="98"/>
+      <c r="B160" s="128"/>
+      <c r="C160" s="129"/>
       <c r="D160" s="5">
         <v>8</v>
       </c>
@@ -8128,8 +8231,8 @@
         <v>14.26</v>
       </c>
       <c r="G160" s="2"/>
-      <c r="H160" s="97"/>
-      <c r="I160" s="98"/>
+      <c r="H160" s="128"/>
+      <c r="I160" s="129"/>
       <c r="J160" s="5">
         <v>8</v>
       </c>
@@ -8142,8 +8245,8 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A161" s="1"/>
-      <c r="B161" s="99"/>
-      <c r="C161" s="100"/>
+      <c r="B161" s="130"/>
+      <c r="C161" s="131"/>
       <c r="D161" s="5">
         <v>9</v>
       </c>
@@ -8154,8 +8257,8 @@
         <v>15.36</v>
       </c>
       <c r="G161" s="2"/>
-      <c r="H161" s="99"/>
-      <c r="I161" s="100"/>
+      <c r="H161" s="130"/>
+      <c r="I161" s="131"/>
       <c r="J161" s="5">
         <v>9</v>
       </c>
@@ -8168,10 +8271,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A162" s="1"/>
-      <c r="B162" s="101" t="s">
+      <c r="B162" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="102"/>
+      <c r="C162" s="125"/>
       <c r="D162" s="5">
         <v>10</v>
       </c>
@@ -8182,10 +8285,10 @@
         <v>16.46</v>
       </c>
       <c r="G162" s="2"/>
-      <c r="H162" s="101" t="s">
+      <c r="H162" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I162" s="102"/>
+      <c r="I162" s="125"/>
       <c r="J162" s="5">
         <v>10</v>
       </c>
@@ -8376,10 +8479,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A170" s="1"/>
-      <c r="B170" s="95" t="s">
+      <c r="B170" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="C170" s="96"/>
+      <c r="C170" s="127"/>
       <c r="D170" s="3" t="s">
         <v>1</v>
       </c>
@@ -8390,10 +8493,10 @@
         <v>3</v>
       </c>
       <c r="G170" s="2"/>
-      <c r="H170" s="95" t="s">
+      <c r="H170" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="I170" s="96"/>
+      <c r="I170" s="127"/>
       <c r="J170" s="3" t="s">
         <v>1</v>
       </c>
@@ -8406,8 +8509,8 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A171" s="1"/>
-      <c r="B171" s="97"/>
-      <c r="C171" s="98"/>
+      <c r="B171" s="128"/>
+      <c r="C171" s="129"/>
       <c r="D171" s="4" t="s">
         <v>5</v>
       </c>
@@ -8418,8 +8521,8 @@
         <v>7</v>
       </c>
       <c r="G171" s="2"/>
-      <c r="H171" s="97"/>
-      <c r="I171" s="98"/>
+      <c r="H171" s="128"/>
+      <c r="I171" s="129"/>
       <c r="J171" s="4" t="s">
         <v>5</v>
       </c>
@@ -8432,8 +8535,8 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A172" s="1"/>
-      <c r="B172" s="97"/>
-      <c r="C172" s="98"/>
+      <c r="B172" s="128"/>
+      <c r="C172" s="129"/>
       <c r="D172" s="5">
         <v>0</v>
       </c>
@@ -8444,8 +8547,8 @@
         <v>0</v>
       </c>
       <c r="G172" s="2"/>
-      <c r="H172" s="97"/>
-      <c r="I172" s="98"/>
+      <c r="H172" s="128"/>
+      <c r="I172" s="129"/>
       <c r="J172" s="5">
         <v>0</v>
       </c>
@@ -8458,8 +8561,8 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A173" s="1"/>
-      <c r="B173" s="97"/>
-      <c r="C173" s="98"/>
+      <c r="B173" s="128"/>
+      <c r="C173" s="129"/>
       <c r="D173" s="5">
         <v>0.25</v>
       </c>
@@ -8470,8 +8573,8 @@
         <v>0.38</v>
       </c>
       <c r="G173" s="2"/>
-      <c r="H173" s="97"/>
-      <c r="I173" s="98"/>
+      <c r="H173" s="128"/>
+      <c r="I173" s="129"/>
       <c r="J173" s="5">
         <v>0.25</v>
       </c>
@@ -8484,8 +8587,8 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A174" s="1"/>
-      <c r="B174" s="97"/>
-      <c r="C174" s="98"/>
+      <c r="B174" s="128"/>
+      <c r="C174" s="129"/>
       <c r="D174" s="5">
         <v>0.5</v>
       </c>
@@ -8496,8 +8599,8 @@
         <v>0.81</v>
       </c>
       <c r="G174" s="2"/>
-      <c r="H174" s="97"/>
-      <c r="I174" s="98"/>
+      <c r="H174" s="128"/>
+      <c r="I174" s="129"/>
       <c r="J174" s="5">
         <v>0.5</v>
       </c>
@@ -8510,8 +8613,8 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A175" s="1"/>
-      <c r="B175" s="97"/>
-      <c r="C175" s="98"/>
+      <c r="B175" s="128"/>
+      <c r="C175" s="129"/>
       <c r="D175" s="5">
         <v>0.75</v>
       </c>
@@ -8522,8 +8625,8 @@
         <v>1.37</v>
       </c>
       <c r="G175" s="2"/>
-      <c r="H175" s="97"/>
-      <c r="I175" s="98"/>
+      <c r="H175" s="128"/>
+      <c r="I175" s="129"/>
       <c r="J175" s="5">
         <v>0.75</v>
       </c>
@@ -8536,8 +8639,8 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A176" s="1"/>
-      <c r="B176" s="97"/>
-      <c r="C176" s="98"/>
+      <c r="B176" s="128"/>
+      <c r="C176" s="129"/>
       <c r="D176" s="5">
         <v>1</v>
       </c>
@@ -8548,8 +8651,8 @@
         <v>1.91</v>
       </c>
       <c r="G176" s="2"/>
-      <c r="H176" s="97"/>
-      <c r="I176" s="98"/>
+      <c r="H176" s="128"/>
+      <c r="I176" s="129"/>
       <c r="J176" s="5">
         <v>1</v>
       </c>
@@ -8562,8 +8665,8 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A177" s="1"/>
-      <c r="B177" s="97"/>
-      <c r="C177" s="98"/>
+      <c r="B177" s="128"/>
+      <c r="C177" s="129"/>
       <c r="D177" s="5">
         <v>1.5</v>
       </c>
@@ -8574,8 +8677,8 @@
         <v>3.05</v>
       </c>
       <c r="G177" s="2"/>
-      <c r="H177" s="97"/>
-      <c r="I177" s="98"/>
+      <c r="H177" s="128"/>
+      <c r="I177" s="129"/>
       <c r="J177" s="5">
         <v>1.5</v>
       </c>
@@ -8588,8 +8691,8 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A178" s="1"/>
-      <c r="B178" s="97"/>
-      <c r="C178" s="98"/>
+      <c r="B178" s="128"/>
+      <c r="C178" s="129"/>
       <c r="D178" s="5">
         <v>2</v>
       </c>
@@ -8600,8 +8703,8 @@
         <v>4.17</v>
       </c>
       <c r="G178" s="2"/>
-      <c r="H178" s="97"/>
-      <c r="I178" s="98"/>
+      <c r="H178" s="128"/>
+      <c r="I178" s="129"/>
       <c r="J178" s="5">
         <v>2</v>
       </c>
@@ -8614,8 +8717,8 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A179" s="1"/>
-      <c r="B179" s="97"/>
-      <c r="C179" s="98"/>
+      <c r="B179" s="128"/>
+      <c r="C179" s="129"/>
       <c r="D179" s="5">
         <v>2.5</v>
       </c>
@@ -8626,8 +8729,8 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="G179" s="2"/>
-      <c r="H179" s="97"/>
-      <c r="I179" s="98"/>
+      <c r="H179" s="128"/>
+      <c r="I179" s="129"/>
       <c r="J179" s="5">
         <v>2.5</v>
       </c>
@@ -8640,8 +8743,8 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A180" s="1"/>
-      <c r="B180" s="97"/>
-      <c r="C180" s="98"/>
+      <c r="B180" s="128"/>
+      <c r="C180" s="129"/>
       <c r="D180" s="5">
         <v>3</v>
       </c>
@@ -8652,8 +8755,8 @@
         <v>6.03</v>
       </c>
       <c r="G180" s="2"/>
-      <c r="H180" s="97"/>
-      <c r="I180" s="98"/>
+      <c r="H180" s="128"/>
+      <c r="I180" s="129"/>
       <c r="J180" s="5">
         <v>3</v>
       </c>
@@ -8666,8 +8769,8 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A181" s="1"/>
-      <c r="B181" s="97"/>
-      <c r="C181" s="98"/>
+      <c r="B181" s="128"/>
+      <c r="C181" s="129"/>
       <c r="D181" s="5">
         <v>3.5</v>
       </c>
@@ -8678,8 +8781,8 @@
         <v>6.79</v>
       </c>
       <c r="G181" s="2"/>
-      <c r="H181" s="97"/>
-      <c r="I181" s="98"/>
+      <c r="H181" s="128"/>
+      <c r="I181" s="129"/>
       <c r="J181" s="5">
         <v>3.5</v>
       </c>
@@ -8692,8 +8795,8 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A182" s="1"/>
-      <c r="B182" s="97"/>
-      <c r="C182" s="98"/>
+      <c r="B182" s="128"/>
+      <c r="C182" s="129"/>
       <c r="D182" s="5">
         <v>4</v>
       </c>
@@ -8704,8 +8807,8 @@
         <v>7.45</v>
       </c>
       <c r="G182" s="2"/>
-      <c r="H182" s="97"/>
-      <c r="I182" s="98"/>
+      <c r="H182" s="128"/>
+      <c r="I182" s="129"/>
       <c r="J182" s="5">
         <v>4</v>
       </c>
@@ -8718,8 +8821,8 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A183" s="1"/>
-      <c r="B183" s="97"/>
-      <c r="C183" s="98"/>
+      <c r="B183" s="128"/>
+      <c r="C183" s="129"/>
       <c r="D183" s="5">
         <v>4.5</v>
       </c>
@@ -8730,8 +8833,8 @@
         <v>8.09</v>
       </c>
       <c r="G183" s="2"/>
-      <c r="H183" s="97"/>
-      <c r="I183" s="98"/>
+      <c r="H183" s="128"/>
+      <c r="I183" s="129"/>
       <c r="J183" s="5">
         <v>4.5</v>
       </c>
@@ -8744,8 +8847,8 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A184" s="1"/>
-      <c r="B184" s="97"/>
-      <c r="C184" s="98"/>
+      <c r="B184" s="128"/>
+      <c r="C184" s="129"/>
       <c r="D184" s="5">
         <v>5</v>
       </c>
@@ -8756,8 +8859,8 @@
         <v>8.49</v>
       </c>
       <c r="G184" s="2"/>
-      <c r="H184" s="97"/>
-      <c r="I184" s="98"/>
+      <c r="H184" s="128"/>
+      <c r="I184" s="129"/>
       <c r="J184" s="5">
         <v>5</v>
       </c>
@@ -8770,8 +8873,8 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A185" s="1"/>
-      <c r="B185" s="97"/>
-      <c r="C185" s="98"/>
+      <c r="B185" s="128"/>
+      <c r="C185" s="129"/>
       <c r="D185" s="5">
         <v>5.5</v>
       </c>
@@ -8782,8 +8885,8 @@
         <v>8.91</v>
       </c>
       <c r="G185" s="2"/>
-      <c r="H185" s="97"/>
-      <c r="I185" s="98"/>
+      <c r="H185" s="128"/>
+      <c r="I185" s="129"/>
       <c r="J185" s="5">
         <v>5.5</v>
       </c>
@@ -8796,8 +8899,8 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A186" s="1"/>
-      <c r="B186" s="97"/>
-      <c r="C186" s="98"/>
+      <c r="B186" s="128"/>
+      <c r="C186" s="129"/>
       <c r="D186" s="5">
         <v>6</v>
       </c>
@@ -8808,8 +8911,8 @@
         <v>9.25</v>
       </c>
       <c r="G186" s="2"/>
-      <c r="H186" s="97"/>
-      <c r="I186" s="98"/>
+      <c r="H186" s="128"/>
+      <c r="I186" s="129"/>
       <c r="J186" s="5">
         <v>6</v>
       </c>
@@ -8822,8 +8925,8 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A187" s="1"/>
-      <c r="B187" s="97"/>
-      <c r="C187" s="98"/>
+      <c r="B187" s="128"/>
+      <c r="C187" s="129"/>
       <c r="D187" s="5">
         <v>7</v>
       </c>
@@ -8834,8 +8937,8 @@
         <v>9.93</v>
       </c>
       <c r="G187" s="2"/>
-      <c r="H187" s="97"/>
-      <c r="I187" s="98"/>
+      <c r="H187" s="128"/>
+      <c r="I187" s="129"/>
       <c r="J187" s="5">
         <v>7</v>
       </c>
@@ -8848,8 +8951,8 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A188" s="1"/>
-      <c r="B188" s="97"/>
-      <c r="C188" s="98"/>
+      <c r="B188" s="128"/>
+      <c r="C188" s="129"/>
       <c r="D188" s="5">
         <v>8</v>
       </c>
@@ -8860,8 +8963,8 @@
         <v>10.61</v>
       </c>
       <c r="G188" s="2"/>
-      <c r="H188" s="97"/>
-      <c r="I188" s="98"/>
+      <c r="H188" s="128"/>
+      <c r="I188" s="129"/>
       <c r="J188" s="5">
         <v>8</v>
       </c>
@@ -8874,8 +8977,8 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A189" s="1"/>
-      <c r="B189" s="99"/>
-      <c r="C189" s="100"/>
+      <c r="B189" s="130"/>
+      <c r="C189" s="131"/>
       <c r="D189" s="5">
         <v>9</v>
       </c>
@@ -8886,8 +8989,8 @@
         <v>11.29</v>
       </c>
       <c r="G189" s="2"/>
-      <c r="H189" s="99"/>
-      <c r="I189" s="100"/>
+      <c r="H189" s="130"/>
+      <c r="I189" s="131"/>
       <c r="J189" s="5">
         <v>9</v>
       </c>
@@ -8900,10 +9003,10 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A190" s="1"/>
-      <c r="B190" s="101" t="s">
+      <c r="B190" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C190" s="102"/>
+      <c r="C190" s="125"/>
       <c r="D190" s="5">
         <v>10</v>
       </c>
@@ -8914,10 +9017,10 @@
         <v>11.97</v>
       </c>
       <c r="G190" s="2"/>
-      <c r="H190" s="101" t="s">
+      <c r="H190" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I190" s="102"/>
+      <c r="I190" s="125"/>
       <c r="J190" s="5">
         <v>10</v>
       </c>
@@ -9108,10 +9211,10 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A198" s="1"/>
-      <c r="B198" s="95" t="s">
+      <c r="B198" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C198" s="96"/>
+      <c r="C198" s="127"/>
       <c r="D198" s="3" t="s">
         <v>1</v>
       </c>
@@ -9122,10 +9225,10 @@
         <v>3</v>
       </c>
       <c r="G198" s="2"/>
-      <c r="H198" s="95" t="s">
+      <c r="H198" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="I198" s="96"/>
+      <c r="I198" s="127"/>
       <c r="J198" s="3" t="s">
         <v>1</v>
       </c>
@@ -9138,8 +9241,8 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A199" s="1"/>
-      <c r="B199" s="97"/>
-      <c r="C199" s="98"/>
+      <c r="B199" s="128"/>
+      <c r="C199" s="129"/>
       <c r="D199" s="4" t="s">
         <v>5</v>
       </c>
@@ -9150,8 +9253,8 @@
         <v>7</v>
       </c>
       <c r="G199" s="2"/>
-      <c r="H199" s="97"/>
-      <c r="I199" s="98"/>
+      <c r="H199" s="128"/>
+      <c r="I199" s="129"/>
       <c r="J199" s="4" t="s">
         <v>5</v>
       </c>
@@ -9164,8 +9267,8 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A200" s="1"/>
-      <c r="B200" s="97"/>
-      <c r="C200" s="98"/>
+      <c r="B200" s="128"/>
+      <c r="C200" s="129"/>
       <c r="D200" s="5">
         <v>0</v>
       </c>
@@ -9176,8 +9279,8 @@
         <v>0</v>
       </c>
       <c r="G200" s="2"/>
-      <c r="H200" s="97"/>
-      <c r="I200" s="98"/>
+      <c r="H200" s="128"/>
+      <c r="I200" s="129"/>
       <c r="J200" s="5">
         <v>0</v>
       </c>
@@ -9190,8 +9293,8 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A201" s="1"/>
-      <c r="B201" s="97"/>
-      <c r="C201" s="98"/>
+      <c r="B201" s="128"/>
+      <c r="C201" s="129"/>
       <c r="D201" s="5">
         <v>0.25</v>
       </c>
@@ -9202,8 +9305,8 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G201" s="2"/>
-      <c r="H201" s="97"/>
-      <c r="I201" s="98"/>
+      <c r="H201" s="128"/>
+      <c r="I201" s="129"/>
       <c r="J201" s="5">
         <v>0.25</v>
       </c>
@@ -9216,8 +9319,8 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A202" s="1"/>
-      <c r="B202" s="97"/>
-      <c r="C202" s="98"/>
+      <c r="B202" s="128"/>
+      <c r="C202" s="129"/>
       <c r="D202" s="5">
         <v>0.5</v>
       </c>
@@ -9228,8 +9331,8 @@
         <v>1.23</v>
       </c>
       <c r="G202" s="2"/>
-      <c r="H202" s="97"/>
-      <c r="I202" s="98"/>
+      <c r="H202" s="128"/>
+      <c r="I202" s="129"/>
       <c r="J202" s="5">
         <v>0.5</v>
       </c>
@@ -9242,8 +9345,8 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A203" s="1"/>
-      <c r="B203" s="97"/>
-      <c r="C203" s="98"/>
+      <c r="B203" s="128"/>
+      <c r="C203" s="129"/>
       <c r="D203" s="5">
         <v>0.75</v>
       </c>
@@ -9254,8 +9357,8 @@
         <v>1.98</v>
       </c>
       <c r="G203" s="2"/>
-      <c r="H203" s="97"/>
-      <c r="I203" s="98"/>
+      <c r="H203" s="128"/>
+      <c r="I203" s="129"/>
       <c r="J203" s="5">
         <v>0.75</v>
       </c>
@@ -9268,8 +9371,8 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A204" s="1"/>
-      <c r="B204" s="97"/>
-      <c r="C204" s="98"/>
+      <c r="B204" s="128"/>
+      <c r="C204" s="129"/>
       <c r="D204" s="5">
         <v>1</v>
       </c>
@@ -9280,8 +9383,8 @@
         <v>2.75</v>
       </c>
       <c r="G204" s="2"/>
-      <c r="H204" s="97"/>
-      <c r="I204" s="98"/>
+      <c r="H204" s="128"/>
+      <c r="I204" s="129"/>
       <c r="J204" s="5">
         <v>1</v>
       </c>
@@ -9294,8 +9397,8 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A205" s="1"/>
-      <c r="B205" s="97"/>
-      <c r="C205" s="98"/>
+      <c r="B205" s="128"/>
+      <c r="C205" s="129"/>
       <c r="D205" s="5">
         <v>1.5</v>
       </c>
@@ -9306,8 +9409,8 @@
         <v>4.28</v>
       </c>
       <c r="G205" s="2"/>
-      <c r="H205" s="97"/>
-      <c r="I205" s="98"/>
+      <c r="H205" s="128"/>
+      <c r="I205" s="129"/>
       <c r="J205" s="5">
         <v>1.5</v>
       </c>
@@ -9320,8 +9423,8 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A206" s="1"/>
-      <c r="B206" s="97"/>
-      <c r="C206" s="98"/>
+      <c r="B206" s="128"/>
+      <c r="C206" s="129"/>
       <c r="D206" s="5">
         <v>2</v>
       </c>
@@ -9332,8 +9435,8 @@
         <v>5.63</v>
       </c>
       <c r="G206" s="2"/>
-      <c r="H206" s="97"/>
-      <c r="I206" s="98"/>
+      <c r="H206" s="128"/>
+      <c r="I206" s="129"/>
       <c r="J206" s="5">
         <v>2</v>
       </c>
@@ -9346,8 +9449,8 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A207" s="1"/>
-      <c r="B207" s="97"/>
-      <c r="C207" s="98"/>
+      <c r="B207" s="128"/>
+      <c r="C207" s="129"/>
       <c r="D207" s="5">
         <v>2.5</v>
       </c>
@@ -9358,8 +9461,8 @@
         <v>6.93</v>
       </c>
       <c r="G207" s="2"/>
-      <c r="H207" s="97"/>
-      <c r="I207" s="98"/>
+      <c r="H207" s="128"/>
+      <c r="I207" s="129"/>
       <c r="J207" s="5">
         <v>2.5</v>
       </c>
@@ -9372,8 +9475,8 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A208" s="1"/>
-      <c r="B208" s="97"/>
-      <c r="C208" s="98"/>
+      <c r="B208" s="128"/>
+      <c r="C208" s="129"/>
       <c r="D208" s="5">
         <v>3</v>
       </c>
@@ -9384,8 +9487,8 @@
         <v>8.18</v>
       </c>
       <c r="G208" s="2"/>
-      <c r="H208" s="97"/>
-      <c r="I208" s="98"/>
+      <c r="H208" s="128"/>
+      <c r="I208" s="129"/>
       <c r="J208" s="5">
         <v>3</v>
       </c>
@@ -9398,8 +9501,8 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A209" s="1"/>
-      <c r="B209" s="97"/>
-      <c r="C209" s="98"/>
+      <c r="B209" s="128"/>
+      <c r="C209" s="129"/>
       <c r="D209" s="5">
         <v>3.5</v>
       </c>
@@ -9410,8 +9513,8 @@
         <v>9.35</v>
       </c>
       <c r="G209" s="2"/>
-      <c r="H209" s="97"/>
-      <c r="I209" s="98"/>
+      <c r="H209" s="128"/>
+      <c r="I209" s="129"/>
       <c r="J209" s="5">
         <v>3.5</v>
       </c>
@@ -9424,8 +9527,8 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A210" s="1"/>
-      <c r="B210" s="97"/>
-      <c r="C210" s="98"/>
+      <c r="B210" s="128"/>
+      <c r="C210" s="129"/>
       <c r="D210" s="5">
         <v>4</v>
       </c>
@@ -9436,8 +9539,8 @@
         <v>10.35</v>
       </c>
       <c r="G210" s="2"/>
-      <c r="H210" s="97"/>
-      <c r="I210" s="98"/>
+      <c r="H210" s="128"/>
+      <c r="I210" s="129"/>
       <c r="J210" s="5">
         <v>4</v>
       </c>
@@ -9450,8 +9553,8 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A211" s="1"/>
-      <c r="B211" s="97"/>
-      <c r="C211" s="98"/>
+      <c r="B211" s="128"/>
+      <c r="C211" s="129"/>
       <c r="D211" s="5">
         <v>4.5</v>
       </c>
@@ -9462,8 +9565,8 @@
         <v>11.23</v>
       </c>
       <c r="G211" s="2"/>
-      <c r="H211" s="97"/>
-      <c r="I211" s="98"/>
+      <c r="H211" s="128"/>
+      <c r="I211" s="129"/>
       <c r="J211" s="5">
         <v>4.5</v>
       </c>
@@ -9476,8 +9579,8 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A212" s="1"/>
-      <c r="B212" s="97"/>
-      <c r="C212" s="98"/>
+      <c r="B212" s="128"/>
+      <c r="C212" s="129"/>
       <c r="D212" s="5">
         <v>5</v>
       </c>
@@ -9488,8 +9591,8 @@
         <v>11.98</v>
       </c>
       <c r="G212" s="2"/>
-      <c r="H212" s="97"/>
-      <c r="I212" s="98"/>
+      <c r="H212" s="128"/>
+      <c r="I212" s="129"/>
       <c r="J212" s="5">
         <v>5</v>
       </c>
@@ -9502,8 +9605,8 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A213" s="1"/>
-      <c r="B213" s="97"/>
-      <c r="C213" s="98"/>
+      <c r="B213" s="128"/>
+      <c r="C213" s="129"/>
       <c r="D213" s="5">
         <v>5.5</v>
       </c>
@@ -9514,8 +9617,8 @@
         <v>12.58</v>
       </c>
       <c r="G213" s="2"/>
-      <c r="H213" s="97"/>
-      <c r="I213" s="98"/>
+      <c r="H213" s="128"/>
+      <c r="I213" s="129"/>
       <c r="J213" s="5">
         <v>5.5</v>
       </c>
@@ -9528,8 +9631,8 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
-      <c r="B214" s="97"/>
-      <c r="C214" s="98"/>
+      <c r="B214" s="128"/>
+      <c r="C214" s="129"/>
       <c r="D214" s="5">
         <v>6</v>
       </c>
@@ -9540,8 +9643,8 @@
         <v>13.08</v>
       </c>
       <c r="G214" s="2"/>
-      <c r="H214" s="97"/>
-      <c r="I214" s="98"/>
+      <c r="H214" s="128"/>
+      <c r="I214" s="129"/>
       <c r="J214" s="5">
         <v>6</v>
       </c>
@@ -9554,8 +9657,8 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
-      <c r="B215" s="97"/>
-      <c r="C215" s="98"/>
+      <c r="B215" s="128"/>
+      <c r="C215" s="129"/>
       <c r="D215" s="5">
         <v>7</v>
       </c>
@@ -9566,8 +9669,8 @@
         <v>14.08</v>
       </c>
       <c r="G215" s="2"/>
-      <c r="H215" s="97"/>
-      <c r="I215" s="98"/>
+      <c r="H215" s="128"/>
+      <c r="I215" s="129"/>
       <c r="J215" s="5">
         <v>7</v>
       </c>
@@ -9580,8 +9683,8 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
-      <c r="B216" s="97"/>
-      <c r="C216" s="98"/>
+      <c r="B216" s="128"/>
+      <c r="C216" s="129"/>
       <c r="D216" s="5">
         <v>8</v>
       </c>
@@ -9592,8 +9695,8 @@
         <v>15.08</v>
       </c>
       <c r="G216" s="2"/>
-      <c r="H216" s="97"/>
-      <c r="I216" s="98"/>
+      <c r="H216" s="128"/>
+      <c r="I216" s="129"/>
       <c r="J216" s="5">
         <v>8</v>
       </c>
@@ -9606,8 +9709,8 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
-      <c r="B217" s="99"/>
-      <c r="C217" s="100"/>
+      <c r="B217" s="130"/>
+      <c r="C217" s="131"/>
       <c r="D217" s="5">
         <v>9</v>
       </c>
@@ -9618,8 +9721,8 @@
         <v>16.079999999999998</v>
       </c>
       <c r="G217" s="2"/>
-      <c r="H217" s="99"/>
-      <c r="I217" s="100"/>
+      <c r="H217" s="130"/>
+      <c r="I217" s="131"/>
       <c r="J217" s="5">
         <v>9</v>
       </c>
@@ -9632,10 +9735,10 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
-      <c r="B218" s="101" t="s">
+      <c r="B218" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C218" s="102"/>
+      <c r="C218" s="125"/>
       <c r="D218" s="5">
         <v>10</v>
       </c>
@@ -9646,10 +9749,10 @@
         <v>17.079999999999998</v>
       </c>
       <c r="G218" s="2"/>
-      <c r="H218" s="101" t="s">
+      <c r="H218" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I218" s="102"/>
+      <c r="I218" s="125"/>
       <c r="J218" s="5">
         <v>10</v>
       </c>
@@ -9840,10 +9943,10 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
-      <c r="B226" s="95" t="s">
+      <c r="B226" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="C226" s="96"/>
+      <c r="C226" s="127"/>
       <c r="D226" s="3" t="s">
         <v>1</v>
       </c>
@@ -9854,10 +9957,10 @@
         <v>3</v>
       </c>
       <c r="G226" s="2"/>
-      <c r="H226" s="95" t="s">
+      <c r="H226" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="I226" s="96"/>
+      <c r="I226" s="127"/>
       <c r="J226" s="3" t="s">
         <v>1</v>
       </c>
@@ -9870,8 +9973,8 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
-      <c r="B227" s="97"/>
-      <c r="C227" s="98"/>
+      <c r="B227" s="128"/>
+      <c r="C227" s="129"/>
       <c r="D227" s="4" t="s">
         <v>5</v>
       </c>
@@ -9882,8 +9985,8 @@
         <v>7</v>
       </c>
       <c r="G227" s="2"/>
-      <c r="H227" s="97"/>
-      <c r="I227" s="98"/>
+      <c r="H227" s="128"/>
+      <c r="I227" s="129"/>
       <c r="J227" s="4" t="s">
         <v>5</v>
       </c>
@@ -9896,8 +9999,8 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
-      <c r="B228" s="97"/>
-      <c r="C228" s="98"/>
+      <c r="B228" s="128"/>
+      <c r="C228" s="129"/>
       <c r="D228" s="5">
         <v>0</v>
       </c>
@@ -9908,8 +10011,8 @@
         <v>0</v>
       </c>
       <c r="G228" s="2"/>
-      <c r="H228" s="97"/>
-      <c r="I228" s="98"/>
+      <c r="H228" s="128"/>
+      <c r="I228" s="129"/>
       <c r="J228" s="5">
         <v>0</v>
       </c>
@@ -9922,8 +10025,8 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
-      <c r="B229" s="97"/>
-      <c r="C229" s="98"/>
+      <c r="B229" s="128"/>
+      <c r="C229" s="129"/>
       <c r="D229" s="5">
         <v>0.25</v>
       </c>
@@ -9934,8 +10037,8 @@
         <v>0.39</v>
       </c>
       <c r="G229" s="2"/>
-      <c r="H229" s="97"/>
-      <c r="I229" s="98"/>
+      <c r="H229" s="128"/>
+      <c r="I229" s="129"/>
       <c r="J229" s="5">
         <v>0.25</v>
       </c>
@@ -9948,8 +10051,8 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
-      <c r="B230" s="97"/>
-      <c r="C230" s="98"/>
+      <c r="B230" s="128"/>
+      <c r="C230" s="129"/>
       <c r="D230" s="5">
         <v>0.5</v>
       </c>
@@ -9960,8 +10063,8 @@
         <v>0.84</v>
       </c>
       <c r="G230" s="2"/>
-      <c r="H230" s="97"/>
-      <c r="I230" s="98"/>
+      <c r="H230" s="128"/>
+      <c r="I230" s="129"/>
       <c r="J230" s="5">
         <v>0.5</v>
       </c>
@@ -9974,8 +10077,8 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
-      <c r="B231" s="97"/>
-      <c r="C231" s="98"/>
+      <c r="B231" s="128"/>
+      <c r="C231" s="129"/>
       <c r="D231" s="5">
         <v>0.75</v>
       </c>
@@ -9986,8 +10089,8 @@
         <v>1.39</v>
       </c>
       <c r="G231" s="2"/>
-      <c r="H231" s="97"/>
-      <c r="I231" s="98"/>
+      <c r="H231" s="128"/>
+      <c r="I231" s="129"/>
       <c r="J231" s="5">
         <v>0.75</v>
       </c>
@@ -10000,8 +10103,8 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
-      <c r="B232" s="97"/>
-      <c r="C232" s="98"/>
+      <c r="B232" s="128"/>
+      <c r="C232" s="129"/>
       <c r="D232" s="5">
         <v>1</v>
       </c>
@@ -10012,8 +10115,8 @@
         <v>1.96</v>
       </c>
       <c r="G232" s="2"/>
-      <c r="H232" s="97"/>
-      <c r="I232" s="98"/>
+      <c r="H232" s="128"/>
+      <c r="I232" s="129"/>
       <c r="J232" s="5">
         <v>1</v>
       </c>
@@ -10026,8 +10129,8 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
-      <c r="B233" s="97"/>
-      <c r="C233" s="98"/>
+      <c r="B233" s="128"/>
+      <c r="C233" s="129"/>
       <c r="D233" s="5">
         <v>1.5</v>
       </c>
@@ -10038,8 +10141,8 @@
         <v>3.2</v>
       </c>
       <c r="G233" s="2"/>
-      <c r="H233" s="97"/>
-      <c r="I233" s="98"/>
+      <c r="H233" s="128"/>
+      <c r="I233" s="129"/>
       <c r="J233" s="5">
         <v>1.5</v>
       </c>
@@ -10052,8 +10155,8 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
-      <c r="B234" s="97"/>
-      <c r="C234" s="98"/>
+      <c r="B234" s="128"/>
+      <c r="C234" s="129"/>
       <c r="D234" s="5">
         <v>2</v>
       </c>
@@ -10064,8 +10167,8 @@
         <v>4.38</v>
       </c>
       <c r="G234" s="2"/>
-      <c r="H234" s="97"/>
-      <c r="I234" s="98"/>
+      <c r="H234" s="128"/>
+      <c r="I234" s="129"/>
       <c r="J234" s="5">
         <v>2</v>
       </c>
@@ -10078,8 +10181,8 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
-      <c r="B235" s="97"/>
-      <c r="C235" s="98"/>
+      <c r="B235" s="128"/>
+      <c r="C235" s="129"/>
       <c r="D235" s="5">
         <v>2.5</v>
       </c>
@@ -10090,8 +10193,8 @@
         <v>5.54</v>
       </c>
       <c r="G235" s="2"/>
-      <c r="H235" s="97"/>
-      <c r="I235" s="98"/>
+      <c r="H235" s="128"/>
+      <c r="I235" s="129"/>
       <c r="J235" s="5">
         <v>2.5</v>
       </c>
@@ -10104,8 +10207,8 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
-      <c r="B236" s="97"/>
-      <c r="C236" s="98"/>
+      <c r="B236" s="128"/>
+      <c r="C236" s="129"/>
       <c r="D236" s="5">
         <v>3</v>
       </c>
@@ -10116,8 +10219,8 @@
         <v>6.48</v>
       </c>
       <c r="G236" s="2"/>
-      <c r="H236" s="97"/>
-      <c r="I236" s="98"/>
+      <c r="H236" s="128"/>
+      <c r="I236" s="129"/>
       <c r="J236" s="5">
         <v>3</v>
       </c>
@@ -10130,8 +10233,8 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
-      <c r="B237" s="97"/>
-      <c r="C237" s="98"/>
+      <c r="B237" s="128"/>
+      <c r="C237" s="129"/>
       <c r="D237" s="5">
         <v>3.5</v>
       </c>
@@ -10142,8 +10245,8 @@
         <v>7.1</v>
       </c>
       <c r="G237" s="2"/>
-      <c r="H237" s="97"/>
-      <c r="I237" s="98"/>
+      <c r="H237" s="128"/>
+      <c r="I237" s="129"/>
       <c r="J237" s="5">
         <v>3.5</v>
       </c>
@@ -10156,8 +10259,8 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
-      <c r="B238" s="97"/>
-      <c r="C238" s="98"/>
+      <c r="B238" s="128"/>
+      <c r="C238" s="129"/>
       <c r="D238" s="5">
         <v>4</v>
       </c>
@@ -10168,8 +10271,8 @@
         <v>7.7</v>
       </c>
       <c r="G238" s="2"/>
-      <c r="H238" s="97"/>
-      <c r="I238" s="98"/>
+      <c r="H238" s="128"/>
+      <c r="I238" s="129"/>
       <c r="J238" s="5">
         <v>4</v>
       </c>
@@ -10182,8 +10285,8 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A239" s="1"/>
-      <c r="B239" s="97"/>
-      <c r="C239" s="98"/>
+      <c r="B239" s="128"/>
+      <c r="C239" s="129"/>
       <c r="D239" s="5">
         <v>4.5</v>
       </c>
@@ -10194,8 +10297,8 @@
         <v>8.26</v>
       </c>
       <c r="G239" s="2"/>
-      <c r="H239" s="97"/>
-      <c r="I239" s="98"/>
+      <c r="H239" s="128"/>
+      <c r="I239" s="129"/>
       <c r="J239" s="5">
         <v>4.5</v>
       </c>
@@ -10208,8 +10311,8 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A240" s="1"/>
-      <c r="B240" s="97"/>
-      <c r="C240" s="98"/>
+      <c r="B240" s="128"/>
+      <c r="C240" s="129"/>
       <c r="D240" s="5">
         <v>5</v>
       </c>
@@ -10220,8 +10323,8 @@
         <v>8.82</v>
       </c>
       <c r="G240" s="2"/>
-      <c r="H240" s="97"/>
-      <c r="I240" s="98"/>
+      <c r="H240" s="128"/>
+      <c r="I240" s="129"/>
       <c r="J240" s="5">
         <v>5</v>
       </c>
@@ -10234,8 +10337,8 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A241" s="1"/>
-      <c r="B241" s="97"/>
-      <c r="C241" s="98"/>
+      <c r="B241" s="128"/>
+      <c r="C241" s="129"/>
       <c r="D241" s="5">
         <v>5.5</v>
       </c>
@@ -10246,8 +10349,8 @@
         <v>9.36</v>
       </c>
       <c r="G241" s="2"/>
-      <c r="H241" s="97"/>
-      <c r="I241" s="98"/>
+      <c r="H241" s="128"/>
+      <c r="I241" s="129"/>
       <c r="J241" s="5">
         <v>5.5</v>
       </c>
@@ -10260,8 +10363,8 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A242" s="1"/>
-      <c r="B242" s="97"/>
-      <c r="C242" s="98"/>
+      <c r="B242" s="128"/>
+      <c r="C242" s="129"/>
       <c r="D242" s="5">
         <v>6</v>
       </c>
@@ -10272,8 +10375,8 @@
         <v>9.76</v>
       </c>
       <c r="G242" s="2"/>
-      <c r="H242" s="97"/>
-      <c r="I242" s="98"/>
+      <c r="H242" s="128"/>
+      <c r="I242" s="129"/>
       <c r="J242" s="5">
         <v>6</v>
       </c>
@@ -10286,8 +10389,8 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A243" s="1"/>
-      <c r="B243" s="97"/>
-      <c r="C243" s="98"/>
+      <c r="B243" s="128"/>
+      <c r="C243" s="129"/>
       <c r="D243" s="5">
         <v>7</v>
       </c>
@@ -10298,8 +10401,8 @@
         <v>10.56</v>
       </c>
       <c r="G243" s="2"/>
-      <c r="H243" s="97"/>
-      <c r="I243" s="98"/>
+      <c r="H243" s="128"/>
+      <c r="I243" s="129"/>
       <c r="J243" s="5">
         <v>7</v>
       </c>
@@ -10312,8 +10415,8 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A244" s="1"/>
-      <c r="B244" s="97"/>
-      <c r="C244" s="98"/>
+      <c r="B244" s="128"/>
+      <c r="C244" s="129"/>
       <c r="D244" s="5">
         <v>8</v>
       </c>
@@ -10324,8 +10427,8 @@
         <v>11.36</v>
       </c>
       <c r="G244" s="2"/>
-      <c r="H244" s="97"/>
-      <c r="I244" s="98"/>
+      <c r="H244" s="128"/>
+      <c r="I244" s="129"/>
       <c r="J244" s="5">
         <v>8</v>
       </c>
@@ -10338,8 +10441,8 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A245" s="1"/>
-      <c r="B245" s="99"/>
-      <c r="C245" s="100"/>
+      <c r="B245" s="130"/>
+      <c r="C245" s="131"/>
       <c r="D245" s="5">
         <v>9</v>
       </c>
@@ -10350,8 +10453,8 @@
         <v>12.16</v>
       </c>
       <c r="G245" s="2"/>
-      <c r="H245" s="99"/>
-      <c r="I245" s="100"/>
+      <c r="H245" s="130"/>
+      <c r="I245" s="131"/>
       <c r="J245" s="5">
         <v>9</v>
       </c>
@@ -10364,10 +10467,10 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A246" s="1"/>
-      <c r="B246" s="101" t="s">
+      <c r="B246" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C246" s="102"/>
+      <c r="C246" s="125"/>
       <c r="D246" s="5">
         <v>10</v>
       </c>
@@ -10378,10 +10481,10 @@
         <v>12.96</v>
       </c>
       <c r="G246" s="2"/>
-      <c r="H246" s="101" t="s">
+      <c r="H246" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I246" s="102"/>
+      <c r="I246" s="125"/>
       <c r="J246" s="5">
         <v>10</v>
       </c>
@@ -10572,10 +10675,10 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A254" s="1"/>
-      <c r="B254" s="95" t="s">
+      <c r="B254" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C254" s="96"/>
+      <c r="C254" s="127"/>
       <c r="D254" s="3" t="s">
         <v>1</v>
       </c>
@@ -10586,10 +10689,10 @@
         <v>3</v>
       </c>
       <c r="G254" s="2"/>
-      <c r="H254" s="95" t="s">
+      <c r="H254" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="I254" s="96"/>
+      <c r="I254" s="127"/>
       <c r="J254" s="3" t="s">
         <v>1</v>
       </c>
@@ -10602,8 +10705,8 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A255" s="1"/>
-      <c r="B255" s="97"/>
-      <c r="C255" s="98"/>
+      <c r="B255" s="128"/>
+      <c r="C255" s="129"/>
       <c r="D255" s="4" t="s">
         <v>5</v>
       </c>
@@ -10614,8 +10717,8 @@
         <v>7</v>
       </c>
       <c r="G255" s="2"/>
-      <c r="H255" s="97"/>
-      <c r="I255" s="98"/>
+      <c r="H255" s="128"/>
+      <c r="I255" s="129"/>
       <c r="J255" s="4" t="s">
         <v>5</v>
       </c>
@@ -10628,8 +10731,8 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A256" s="1"/>
-      <c r="B256" s="97"/>
-      <c r="C256" s="98"/>
+      <c r="B256" s="128"/>
+      <c r="C256" s="129"/>
       <c r="D256" s="5">
         <v>0</v>
       </c>
@@ -10640,8 +10743,8 @@
         <v>0</v>
       </c>
       <c r="G256" s="2"/>
-      <c r="H256" s="97"/>
-      <c r="I256" s="98"/>
+      <c r="H256" s="128"/>
+      <c r="I256" s="129"/>
       <c r="J256" s="5">
         <v>0</v>
       </c>
@@ -10654,8 +10757,8 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A257" s="1"/>
-      <c r="B257" s="97"/>
-      <c r="C257" s="98"/>
+      <c r="B257" s="128"/>
+      <c r="C257" s="129"/>
       <c r="D257" s="5">
         <v>0.25</v>
       </c>
@@ -10666,8 +10769,8 @@
         <v>0.38</v>
       </c>
       <c r="G257" s="2"/>
-      <c r="H257" s="97"/>
-      <c r="I257" s="98"/>
+      <c r="H257" s="128"/>
+      <c r="I257" s="129"/>
       <c r="J257" s="5">
         <v>0.25</v>
       </c>
@@ -10680,8 +10783,8 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A258" s="1"/>
-      <c r="B258" s="97"/>
-      <c r="C258" s="98"/>
+      <c r="B258" s="128"/>
+      <c r="C258" s="129"/>
       <c r="D258" s="5">
         <v>0.5</v>
       </c>
@@ -10692,8 +10795,8 @@
         <v>0.85</v>
       </c>
       <c r="G258" s="2"/>
-      <c r="H258" s="97"/>
-      <c r="I258" s="98"/>
+      <c r="H258" s="128"/>
+      <c r="I258" s="129"/>
       <c r="J258" s="5">
         <v>0.5</v>
       </c>
@@ -10706,8 +10809,8 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A259" s="1"/>
-      <c r="B259" s="97"/>
-      <c r="C259" s="98"/>
+      <c r="B259" s="128"/>
+      <c r="C259" s="129"/>
       <c r="D259" s="5">
         <v>0.75</v>
       </c>
@@ -10718,8 +10821,8 @@
         <v>1.48</v>
       </c>
       <c r="G259" s="2"/>
-      <c r="H259" s="97"/>
-      <c r="I259" s="98"/>
+      <c r="H259" s="128"/>
+      <c r="I259" s="129"/>
       <c r="J259" s="5">
         <v>0.75</v>
       </c>
@@ -10732,8 +10835,8 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A260" s="1"/>
-      <c r="B260" s="97"/>
-      <c r="C260" s="98"/>
+      <c r="B260" s="128"/>
+      <c r="C260" s="129"/>
       <c r="D260" s="5">
         <v>1</v>
       </c>
@@ -10744,8 +10847,8 @@
         <v>2.14</v>
       </c>
       <c r="G260" s="2"/>
-      <c r="H260" s="97"/>
-      <c r="I260" s="98"/>
+      <c r="H260" s="128"/>
+      <c r="I260" s="129"/>
       <c r="J260" s="5">
         <v>1</v>
       </c>
@@ -10758,8 +10861,8 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A261" s="1"/>
-      <c r="B261" s="97"/>
-      <c r="C261" s="98"/>
+      <c r="B261" s="128"/>
+      <c r="C261" s="129"/>
       <c r="D261" s="5">
         <v>1.5</v>
       </c>
@@ -10770,8 +10873,8 @@
         <v>3.32</v>
       </c>
       <c r="G261" s="2"/>
-      <c r="H261" s="97"/>
-      <c r="I261" s="98"/>
+      <c r="H261" s="128"/>
+      <c r="I261" s="129"/>
       <c r="J261" s="5">
         <v>1.5</v>
       </c>
@@ -10784,8 +10887,8 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A262" s="1"/>
-      <c r="B262" s="97"/>
-      <c r="C262" s="98"/>
+      <c r="B262" s="128"/>
+      <c r="C262" s="129"/>
       <c r="D262" s="5">
         <v>2</v>
       </c>
@@ -10796,8 +10899,8 @@
         <v>4.42</v>
       </c>
       <c r="G262" s="2"/>
-      <c r="H262" s="97"/>
-      <c r="I262" s="98"/>
+      <c r="H262" s="128"/>
+      <c r="I262" s="129"/>
       <c r="J262" s="5">
         <v>2</v>
       </c>
@@ -10810,8 +10913,8 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A263" s="1"/>
-      <c r="B263" s="97"/>
-      <c r="C263" s="98"/>
+      <c r="B263" s="128"/>
+      <c r="C263" s="129"/>
       <c r="D263" s="5">
         <v>2.5</v>
       </c>
@@ -10822,8 +10925,8 @@
         <v>5.46</v>
       </c>
       <c r="G263" s="2"/>
-      <c r="H263" s="97"/>
-      <c r="I263" s="98"/>
+      <c r="H263" s="128"/>
+      <c r="I263" s="129"/>
       <c r="J263" s="5">
         <v>2.5</v>
       </c>
@@ -10836,8 +10939,8 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A264" s="1"/>
-      <c r="B264" s="97"/>
-      <c r="C264" s="98"/>
+      <c r="B264" s="128"/>
+      <c r="C264" s="129"/>
       <c r="D264" s="5">
         <v>3</v>
       </c>
@@ -10848,8 +10951,8 @@
         <v>6.46</v>
       </c>
       <c r="G264" s="2"/>
-      <c r="H264" s="97"/>
-      <c r="I264" s="98"/>
+      <c r="H264" s="128"/>
+      <c r="I264" s="129"/>
       <c r="J264" s="5">
         <v>3</v>
       </c>
@@ -10862,8 +10965,8 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A265" s="1"/>
-      <c r="B265" s="97"/>
-      <c r="C265" s="98"/>
+      <c r="B265" s="128"/>
+      <c r="C265" s="129"/>
       <c r="D265" s="5">
         <v>3.5</v>
       </c>
@@ -10874,8 +10977,8 @@
         <v>7.36</v>
       </c>
       <c r="G265" s="2"/>
-      <c r="H265" s="97"/>
-      <c r="I265" s="98"/>
+      <c r="H265" s="128"/>
+      <c r="I265" s="129"/>
       <c r="J265" s="5">
         <v>3.5</v>
       </c>
@@ -10888,8 +10991,8 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A266" s="1"/>
-      <c r="B266" s="97"/>
-      <c r="C266" s="98"/>
+      <c r="B266" s="128"/>
+      <c r="C266" s="129"/>
       <c r="D266" s="5">
         <v>4</v>
       </c>
@@ -10900,8 +11003,8 @@
         <v>8.18</v>
       </c>
       <c r="G266" s="2"/>
-      <c r="H266" s="97"/>
-      <c r="I266" s="98"/>
+      <c r="H266" s="128"/>
+      <c r="I266" s="129"/>
       <c r="J266" s="5">
         <v>4</v>
       </c>
@@ -10914,8 +11017,8 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A267" s="1"/>
-      <c r="B267" s="97"/>
-      <c r="C267" s="98"/>
+      <c r="B267" s="128"/>
+      <c r="C267" s="129"/>
       <c r="D267" s="5">
         <v>4.5</v>
       </c>
@@ -10926,8 +11029,8 @@
         <v>8.92</v>
       </c>
       <c r="G267" s="2"/>
-      <c r="H267" s="97"/>
-      <c r="I267" s="98"/>
+      <c r="H267" s="128"/>
+      <c r="I267" s="129"/>
       <c r="J267" s="5">
         <v>4.5</v>
       </c>
@@ -10940,8 +11043,8 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A268" s="1"/>
-      <c r="B268" s="97"/>
-      <c r="C268" s="98"/>
+      <c r="B268" s="128"/>
+      <c r="C268" s="129"/>
       <c r="D268" s="5">
         <v>5</v>
       </c>
@@ -10952,8 +11055,8 @@
         <v>9.5</v>
       </c>
       <c r="G268" s="2"/>
-      <c r="H268" s="97"/>
-      <c r="I268" s="98"/>
+      <c r="H268" s="128"/>
+      <c r="I268" s="129"/>
       <c r="J268" s="5">
         <v>5</v>
       </c>
@@ -10966,8 +11069,8 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A269" s="1"/>
-      <c r="B269" s="97"/>
-      <c r="C269" s="98"/>
+      <c r="B269" s="128"/>
+      <c r="C269" s="129"/>
       <c r="D269" s="5">
         <v>5.5</v>
       </c>
@@ -10978,8 +11081,8 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="G269" s="2"/>
-      <c r="H269" s="97"/>
-      <c r="I269" s="98"/>
+      <c r="H269" s="128"/>
+      <c r="I269" s="129"/>
       <c r="J269" s="5">
         <v>5.5</v>
       </c>
@@ -10992,8 +11095,8 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A270" s="1"/>
-      <c r="B270" s="97"/>
-      <c r="C270" s="98"/>
+      <c r="B270" s="128"/>
+      <c r="C270" s="129"/>
       <c r="D270" s="5">
         <v>6</v>
       </c>
@@ -11004,8 +11107,8 @@
         <v>10.32</v>
       </c>
       <c r="G270" s="2"/>
-      <c r="H270" s="97"/>
-      <c r="I270" s="98"/>
+      <c r="H270" s="128"/>
+      <c r="I270" s="129"/>
       <c r="J270" s="5">
         <v>6</v>
       </c>
@@ -11018,8 +11121,8 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A271" s="1"/>
-      <c r="B271" s="97"/>
-      <c r="C271" s="98"/>
+      <c r="B271" s="128"/>
+      <c r="C271" s="129"/>
       <c r="D271" s="5">
         <v>7</v>
       </c>
@@ -11030,8 +11133,8 @@
         <v>11.04</v>
       </c>
       <c r="G271" s="2"/>
-      <c r="H271" s="97"/>
-      <c r="I271" s="98"/>
+      <c r="H271" s="128"/>
+      <c r="I271" s="129"/>
       <c r="J271" s="5">
         <v>7</v>
       </c>
@@ -11044,8 +11147,8 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A272" s="1"/>
-      <c r="B272" s="97"/>
-      <c r="C272" s="98"/>
+      <c r="B272" s="128"/>
+      <c r="C272" s="129"/>
       <c r="D272" s="5">
         <v>8</v>
       </c>
@@ -11056,8 +11159,8 @@
         <v>11.76</v>
       </c>
       <c r="G272" s="2"/>
-      <c r="H272" s="97"/>
-      <c r="I272" s="98"/>
+      <c r="H272" s="128"/>
+      <c r="I272" s="129"/>
       <c r="J272" s="5">
         <v>8</v>
       </c>
@@ -11070,8 +11173,8 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A273" s="1"/>
-      <c r="B273" s="99"/>
-      <c r="C273" s="100"/>
+      <c r="B273" s="130"/>
+      <c r="C273" s="131"/>
       <c r="D273" s="5">
         <v>9</v>
       </c>
@@ -11082,8 +11185,8 @@
         <v>12.48</v>
       </c>
       <c r="G273" s="2"/>
-      <c r="H273" s="99"/>
-      <c r="I273" s="100"/>
+      <c r="H273" s="130"/>
+      <c r="I273" s="131"/>
       <c r="J273" s="5">
         <v>9</v>
       </c>
@@ -11096,10 +11199,10 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A274" s="1"/>
-      <c r="B274" s="101" t="s">
+      <c r="B274" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C274" s="102"/>
+      <c r="C274" s="125"/>
       <c r="D274" s="5">
         <v>10</v>
       </c>
@@ -11110,10 +11213,10 @@
         <v>13.2</v>
       </c>
       <c r="G274" s="2"/>
-      <c r="H274" s="101" t="s">
+      <c r="H274" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I274" s="102"/>
+      <c r="I274" s="125"/>
       <c r="J274" s="5">
         <v>10</v>
       </c>
@@ -11304,10 +11407,10 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A282" s="1"/>
-      <c r="B282" s="95" t="s">
+      <c r="B282" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="C282" s="96"/>
+      <c r="C282" s="127"/>
       <c r="D282" s="3" t="s">
         <v>1</v>
       </c>
@@ -11326,8 +11429,8 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A283" s="1"/>
-      <c r="B283" s="97"/>
-      <c r="C283" s="98"/>
+      <c r="B283" s="128"/>
+      <c r="C283" s="129"/>
       <c r="D283" s="4" t="s">
         <v>5</v>
       </c>
@@ -11346,8 +11449,8 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A284" s="1"/>
-      <c r="B284" s="97"/>
-      <c r="C284" s="98"/>
+      <c r="B284" s="128"/>
+      <c r="C284" s="129"/>
       <c r="D284" s="5">
         <v>0</v>
       </c>
@@ -11366,8 +11469,8 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A285" s="1"/>
-      <c r="B285" s="97"/>
-      <c r="C285" s="98"/>
+      <c r="B285" s="128"/>
+      <c r="C285" s="129"/>
       <c r="D285" s="5">
         <v>0.25</v>
       </c>
@@ -11386,8 +11489,8 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A286" s="1"/>
-      <c r="B286" s="97"/>
-      <c r="C286" s="98"/>
+      <c r="B286" s="128"/>
+      <c r="C286" s="129"/>
       <c r="D286" s="5">
         <v>0.5</v>
       </c>
@@ -11406,8 +11509,8 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A287" s="1"/>
-      <c r="B287" s="97"/>
-      <c r="C287" s="98"/>
+      <c r="B287" s="128"/>
+      <c r="C287" s="129"/>
       <c r="D287" s="5">
         <v>0.75</v>
       </c>
@@ -11426,8 +11529,8 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A288" s="1"/>
-      <c r="B288" s="97"/>
-      <c r="C288" s="98"/>
+      <c r="B288" s="128"/>
+      <c r="C288" s="129"/>
       <c r="D288" s="5">
         <v>1</v>
       </c>
@@ -11446,8 +11549,8 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A289" s="1"/>
-      <c r="B289" s="97"/>
-      <c r="C289" s="98"/>
+      <c r="B289" s="128"/>
+      <c r="C289" s="129"/>
       <c r="D289" s="5">
         <v>1.5</v>
       </c>
@@ -11466,8 +11569,8 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A290" s="1"/>
-      <c r="B290" s="97"/>
-      <c r="C290" s="98"/>
+      <c r="B290" s="128"/>
+      <c r="C290" s="129"/>
       <c r="D290" s="5">
         <v>2</v>
       </c>
@@ -11486,8 +11589,8 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A291" s="1"/>
-      <c r="B291" s="97"/>
-      <c r="C291" s="98"/>
+      <c r="B291" s="128"/>
+      <c r="C291" s="129"/>
       <c r="D291" s="5">
         <v>2.5</v>
       </c>
@@ -11506,8 +11609,8 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A292" s="1"/>
-      <c r="B292" s="97"/>
-      <c r="C292" s="98"/>
+      <c r="B292" s="128"/>
+      <c r="C292" s="129"/>
       <c r="D292" s="5">
         <v>3</v>
       </c>
@@ -11526,8 +11629,8 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A293" s="1"/>
-      <c r="B293" s="97"/>
-      <c r="C293" s="98"/>
+      <c r="B293" s="128"/>
+      <c r="C293" s="129"/>
       <c r="D293" s="5">
         <v>3.5</v>
       </c>
@@ -11546,8 +11649,8 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A294" s="1"/>
-      <c r="B294" s="97"/>
-      <c r="C294" s="98"/>
+      <c r="B294" s="128"/>
+      <c r="C294" s="129"/>
       <c r="D294" s="5">
         <v>4</v>
       </c>
@@ -11566,8 +11669,8 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A295" s="1"/>
-      <c r="B295" s="97"/>
-      <c r="C295" s="98"/>
+      <c r="B295" s="128"/>
+      <c r="C295" s="129"/>
       <c r="D295" s="5">
         <v>4.5</v>
       </c>
@@ -11586,8 +11689,8 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A296" s="1"/>
-      <c r="B296" s="97"/>
-      <c r="C296" s="98"/>
+      <c r="B296" s="128"/>
+      <c r="C296" s="129"/>
       <c r="D296" s="5">
         <v>5</v>
       </c>
@@ -11606,8 +11709,8 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A297" s="1"/>
-      <c r="B297" s="97"/>
-      <c r="C297" s="98"/>
+      <c r="B297" s="128"/>
+      <c r="C297" s="129"/>
       <c r="D297" s="5">
         <v>5.5</v>
       </c>
@@ -11626,8 +11729,8 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A298" s="1"/>
-      <c r="B298" s="97"/>
-      <c r="C298" s="98"/>
+      <c r="B298" s="128"/>
+      <c r="C298" s="129"/>
       <c r="D298" s="5">
         <v>6</v>
       </c>
@@ -11646,8 +11749,8 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A299" s="1"/>
-      <c r="B299" s="97"/>
-      <c r="C299" s="98"/>
+      <c r="B299" s="128"/>
+      <c r="C299" s="129"/>
       <c r="D299" s="5">
         <v>7</v>
       </c>
@@ -11666,8 +11769,8 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A300" s="1"/>
-      <c r="B300" s="97"/>
-      <c r="C300" s="98"/>
+      <c r="B300" s="128"/>
+      <c r="C300" s="129"/>
       <c r="D300" s="5">
         <v>8</v>
       </c>
@@ -11686,8 +11789,8 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A301" s="1"/>
-      <c r="B301" s="99"/>
-      <c r="C301" s="100"/>
+      <c r="B301" s="130"/>
+      <c r="C301" s="131"/>
       <c r="D301" s="5">
         <v>9</v>
       </c>
@@ -11706,10 +11809,10 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A302" s="1"/>
-      <c r="B302" s="101" t="s">
+      <c r="B302" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C302" s="102"/>
+      <c r="C302" s="125"/>
       <c r="D302" s="5">
         <v>10</v>
       </c>
@@ -11838,6 +11941,36 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B2:C21"/>
+    <mergeCell ref="H2:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B30:C49"/>
+    <mergeCell ref="H30:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B58:C77"/>
+    <mergeCell ref="H58:I77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="B86:C105"/>
+    <mergeCell ref="H86:I105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B114:C133"/>
+    <mergeCell ref="H114:I133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="B142:C161"/>
+    <mergeCell ref="H142:I161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="B170:C189"/>
+    <mergeCell ref="H170:I189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="B198:C217"/>
+    <mergeCell ref="H198:I217"/>
     <mergeCell ref="B302:C302"/>
     <mergeCell ref="B218:C218"/>
     <mergeCell ref="H218:I218"/>
@@ -11850,36 +11983,6 @@
     <mergeCell ref="B274:C274"/>
     <mergeCell ref="H274:I274"/>
     <mergeCell ref="B282:C301"/>
-    <mergeCell ref="B170:C189"/>
-    <mergeCell ref="H170:I189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="B198:C217"/>
-    <mergeCell ref="H198:I217"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="B142:C161"/>
-    <mergeCell ref="H142:I161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="B86:C105"/>
-    <mergeCell ref="H86:I105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B114:C133"/>
-    <mergeCell ref="H114:I133"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B58:C77"/>
-    <mergeCell ref="H58:I77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="B2:C21"/>
-    <mergeCell ref="H2:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B30:C49"/>
-    <mergeCell ref="H30:I49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11897,15 +12000,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="2" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
       <c r="J2" t="s">
         <v>167</v>
       </c>
@@ -21464,56 +21567,56 @@
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107" t="s">
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="109"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="138"/>
       <c r="T2" s="37"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113" t="s">
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116" t="s">
+      <c r="G3" s="143"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="117" t="s">
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="117" t="s">
+      <c r="N3" s="140"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="112"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="141"/>
       <c r="T3" s="40" t="s">
         <v>95</v>
       </c>
@@ -43390,13 +43493,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75519623-5105-47FA-8037-D4F40F6B4546}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -43405,550 +43509,721 @@
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107" t="s">
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="109"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="138"/>
       <c r="T1" s="37"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="121" t="s">
+      <c r="D2" s="151"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="119"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="123" t="s">
+      <c r="G2" s="151"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="124" t="s">
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="119"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="124" t="s">
+      <c r="N2" s="151"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="125" t="s">
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="82" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="39"/>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="129" t="s">
+      <c r="E3" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="130" t="s">
+      <c r="I3" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="131" t="s">
+      <c r="J3" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="131" t="s">
+      <c r="K3" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="132" t="s">
+      <c r="L3" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="133" t="s">
+      <c r="M3" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="N3" s="134" t="s">
+      <c r="N3" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="135" t="s">
+      <c r="O3" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="P3" s="133" t="s">
+      <c r="P3" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="Q3" s="134" t="s">
+      <c r="Q3" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="R3" s="134" t="s">
+      <c r="R3" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="S3" s="135" t="s">
+      <c r="S3" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="T3" s="136" t="s">
+      <c r="T3" s="93" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="38" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="137">
+      <c r="B4" s="94">
         <v>5</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="95">
         <v>28.855200212862179</v>
       </c>
-      <c r="D4" s="139">
+      <c r="D4" s="96">
         <v>3.7141540718065418</v>
       </c>
-      <c r="E4" s="140">
+      <c r="E4" s="97">
         <v>3.419286585860065</v>
       </c>
-      <c r="F4" s="138">
+      <c r="F4" s="95">
         <v>166.32430561601331</v>
       </c>
-      <c r="G4" s="139">
+      <c r="G4" s="96">
         <v>432.23486895720413</v>
       </c>
-      <c r="H4" s="140">
+      <c r="H4" s="97">
         <v>312.42030908916797</v>
       </c>
-      <c r="I4" s="138">
+      <c r="I4" s="95">
         <v>20.448897977743911</v>
       </c>
-      <c r="J4" s="139">
+      <c r="J4" s="96">
         <v>15.46842183127514</v>
       </c>
-      <c r="K4" s="139">
+      <c r="K4" s="96">
         <v>27.26519730365855</v>
       </c>
-      <c r="L4" s="140">
+      <c r="L4" s="97">
         <v>22.41800265402194</v>
       </c>
-      <c r="M4" s="138">
+      <c r="M4" s="95">
         <v>153.67843381983329</v>
       </c>
-      <c r="N4" s="139">
+      <c r="N4" s="96">
         <v>324.67557132394222</v>
       </c>
-      <c r="O4" s="140">
+      <c r="O4" s="97">
         <v>381.6532150041848</v>
       </c>
-      <c r="P4" s="138">
+      <c r="P4" s="95">
         <v>24.235003327948501</v>
       </c>
-      <c r="Q4" s="139">
+      <c r="Q4" s="96">
         <v>33.197312760242397</v>
       </c>
-      <c r="R4" s="139">
+      <c r="R4" s="96">
         <v>29.554882107254269</v>
       </c>
-      <c r="S4" s="140">
+      <c r="S4" s="97">
         <v>43.113393195119997</v>
       </c>
-      <c r="T4" s="141">
+      <c r="T4" s="98">
         <v>140.80995730342769</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="147" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="147"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="B8" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="145"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B8" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="142" t="s">
+      <c r="C8" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="94" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="94"/>
-      <c r="K8" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="L8" s="145"/>
+      <c r="F8" s="120" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="120"/>
+      <c r="K8" s="147" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="147"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B9" s="142">
+      <c r="B9" s="99">
         <v>2.5</v>
       </c>
-      <c r="C9" s="142">
+      <c r="C9" s="99">
         <v>1.96</v>
       </c>
-      <c r="F9" s="142" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="143">
+      <c r="F9" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="100">
         <f>G4/T4</f>
         <v>3.0696328387188734</v>
       </c>
-      <c r="K9" s="142" t="s">
-        <v>188</v>
-      </c>
-      <c r="L9" s="143">
+      <c r="K9" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="100">
         <f>N4/T4</f>
         <v>2.305771392461311</v>
       </c>
+      <c r="O9" s="159" t="s">
+        <v>201</v>
+      </c>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="159"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B10" s="142">
+      <c r="B10" s="99">
         <v>5</v>
       </c>
-      <c r="C10" s="142">
+      <c r="C10" s="99">
         <v>1.645</v>
       </c>
-      <c r="F10" s="142" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" s="143">
+      <c r="F10" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="100">
         <f>H4/T4</f>
         <v>2.218737332729543</v>
       </c>
-      <c r="K10" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="L10" s="143">
+      <c r="K10" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="100">
         <f>O4/T4</f>
         <v>2.7104135411515697</v>
       </c>
+      <c r="O10" s="160"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="160"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B11" s="146">
+      <c r="B11" s="102">
         <f>D4</f>
         <v>3.7141540718065418</v>
       </c>
-      <c r="C11" s="147">
+      <c r="C11" s="103">
         <f>((C9-C10)/(B10-B9))*(B11-B9)+C9</f>
         <v>2.1129834130476244</v>
       </c>
       <c r="F11" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="152">
-        <v>5.8588199999999997</v>
-      </c>
-      <c r="K11" s="142" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="143">
-        <v>22.4</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G11" s="106">
+        <v>5.8532171240909818</v>
+      </c>
+      <c r="K11" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="100">
+        <v>22.148729343453237</v>
+      </c>
+      <c r="O11" s="161" t="s">
+        <v>180</v>
+      </c>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="S11" s="161"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="F12" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="152">
-        <v>-0.420462</v>
-      </c>
-      <c r="K12" s="142" t="s">
-        <v>173</v>
-      </c>
-      <c r="L12" s="143">
-        <v>1.22786</v>
+        <v>172</v>
+      </c>
+      <c r="G12" s="106">
+        <v>-0.42398403280739483</v>
+      </c>
+      <c r="K12" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12" s="100">
+        <v>1.2115775471935275</v>
+      </c>
+      <c r="O12" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="P12" s="157">
+        <f>G11*(G9-G12)-I4</f>
+        <v>1.1968680624363515E-7</v>
+      </c>
+      <c r="R12" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="S12" s="158">
+        <f>L11*(L9-L12)-P4</f>
+        <v>1.5998580238374416E-10</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="151"/>
+      <c r="C13" s="149"/>
       <c r="F13" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="152">
-        <v>5.7058799999999996</v>
-      </c>
-      <c r="K13" s="142" t="s">
-        <v>175</v>
-      </c>
-      <c r="L13" s="143">
-        <v>33.9</v>
+        <v>174</v>
+      </c>
+      <c r="G13" s="106">
+        <v>5.696580385626568</v>
+      </c>
+      <c r="K13" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="100">
+        <v>33.507411750732771</v>
+      </c>
+      <c r="O13" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="P13" s="81">
+        <f>G11*(G10-G12)-J4</f>
+        <v>1.1968676716378468E-7</v>
+      </c>
+      <c r="R13" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="S13" s="73">
+        <f>L11*(L10-L12)-Q4</f>
+        <v>1.5999290781110176E-10</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B14" s="149" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="146">
+      <c r="B14" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="102">
         <f>C4+C11*E4</f>
         <v>36.080096053240737</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="156" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="157">
-        <v>-1.7092799999999999</v>
-      </c>
-      <c r="K14" s="142" t="s">
-        <v>176</v>
-      </c>
-      <c r="L14" s="143">
-        <v>1.43832</v>
+        <v>179</v>
+      </c>
+      <c r="F14" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="109">
+        <v>-1.7166065291055015</v>
+      </c>
+      <c r="K14" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="100">
+        <v>1.4237312537760172</v>
+      </c>
+      <c r="O14" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="P14" s="81">
+        <f>SUM(P12:P13)</f>
+        <v>2.3937357340741983E-7</v>
+      </c>
+      <c r="R14" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" s="73">
+        <f>SUM(S12:S13)</f>
+        <v>3.1997871019484592E-10</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B15" s="148" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="144">
+      <c r="B15" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="101">
         <f>0.9*C14</f>
         <v>32.472086447916666</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="155" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="106">
+        <f>((C14/G13)+G14)*T4</f>
+        <v>650.12445051986151</v>
+      </c>
+      <c r="H15" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="L15" s="100">
+        <f>((C14/L13)+L14)*T4</f>
+        <v>352.09682080499437</v>
+      </c>
+      <c r="M15" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="R15" s="67"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="F16" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="152">
-        <f>((C14/G13)+G14)*F4</f>
-        <v>767.42673474516937</v>
-      </c>
-      <c r="H15" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="K15" s="153" t="s">
+      <c r="G16" s="106">
+        <f>G15/T4</f>
+        <v>4.6170346399503934</v>
+      </c>
+      <c r="K16" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="L15" s="143">
-        <f>((C14/L13)+L14)*F4</f>
-        <v>416.24813344283751</v>
-      </c>
-      <c r="M15" s="81" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="F16" s="155" t="s">
+      <c r="L16" s="100">
+        <f>L15/T4</f>
+        <v>2.5005108129268878</v>
+      </c>
+      <c r="O16" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="P16" s="81">
+        <f>G13*(G9-G14)-K4</f>
+        <v>3.4887648325820919E-12</v>
+      </c>
+      <c r="R16" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="S16" s="73">
+        <f>L13*(L9-L14)-R4</f>
+        <v>3.4730973652585817E-10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="F17" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="152">
-        <f>G15/T4</f>
-        <v>5.4500885409080944</v>
-      </c>
-      <c r="K16" s="153" t="s">
+      <c r="G17" s="106">
+        <f>G11*(G16-G12)</f>
+        <v>29.506176818248282</v>
+      </c>
+      <c r="H17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="L16" s="143">
-        <f>L15/T4</f>
-        <v>2.9560987121519773</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="F17" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="152">
-        <f>G11*(G16-G12)</f>
-        <v>34.394498920083159</v>
-      </c>
-      <c r="H17" s="154" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" s="153" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" s="143">
+      <c r="L17" s="100">
         <f>L11*(L16-L12)</f>
-        <v>38.712547152204287</v>
-      </c>
-      <c r="M17" s="154" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.5">
+        <v>28.548234044501488</v>
+      </c>
+      <c r="M17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="P17" s="81">
+        <f>G13*(G10-G14)-L4</f>
+        <v>3.4852121189032914E-12</v>
+      </c>
+      <c r="R17" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="S17" s="73">
+        <f>L13*(L10-L14)-S4</f>
+        <v>3.4731328923953697E-10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="155" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="152">
-        <v>27.9556</v>
-      </c>
-      <c r="K18" s="155" t="s">
+      <c r="G18" s="106">
+        <v>4.476910367356929</v>
+      </c>
+      <c r="K18" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="L18" s="152">
-        <v>48.723300000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="F19" s="155" t="s">
+      <c r="L18" s="106">
+        <v>-0.12823784673036187</v>
+      </c>
+      <c r="O18" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="P18" s="81">
+        <f>SUM(P16:P17)</f>
+        <v>6.9739769514853833E-12</v>
+      </c>
+      <c r="R18" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="S18" s="73">
+        <f>SUM(S16:S17)</f>
+        <v>6.9462302576539514E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="F19" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="152">
-        <v>5.6140600000000003</v>
-      </c>
-      <c r="K19" s="155" t="s">
+      <c r="G19" s="106">
+        <v>21.838102614372215</v>
+      </c>
+      <c r="K19" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="L19" s="152">
-        <v>-8.7366700000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="F20" s="155" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="152">
+      <c r="L19" s="106">
+        <v>25.02030401364669</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="F20" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="106">
         <f>10^((C15-G18)/G19)</f>
-        <v>6.3752259058716563</v>
+        <v>19.139993123147892</v>
       </c>
       <c r="H20" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="153" t="s">
-        <v>191</v>
-      </c>
-      <c r="L20" s="152">
+      <c r="K20" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" s="106">
         <f>10^((C15-L18)/L19)</f>
-        <v>72.46283173861876</v>
+        <v>20.08883553842972</v>
       </c>
       <c r="M20" s="81" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="E23" s="158"/>
-      <c r="F23" s="159" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="O21" s="159" t="s">
+        <v>207</v>
+      </c>
+      <c r="P21" s="159"/>
+      <c r="Q21" s="159"/>
+      <c r="R21" s="159"/>
+      <c r="S21" s="159"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="O22" s="159"/>
+      <c r="P22" s="159"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="159"/>
+      <c r="S22" s="159"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="F23" s="120" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
       <c r="K23" s="67"/>
       <c r="L23" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M23" s="81" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.5">
+        <v>198</v>
+      </c>
+      <c r="O23" s="161" t="s">
+        <v>208</v>
+      </c>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="S23" s="161"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F24" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" s="94"/>
+        <v>211</v>
+      </c>
+      <c r="F24" s="120" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="120"/>
       <c r="H24" s="81">
         <v>100</v>
       </c>
       <c r="I24" s="81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K24" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="L24" s="152">
+        <v>197</v>
+      </c>
+      <c r="L24" s="163">
         <f>H24*G15</f>
-        <v>76742.673474516938</v>
-      </c>
-      <c r="M24" s="152">
+        <v>65012.445051986149</v>
+      </c>
+      <c r="M24" s="163">
         <f>H25*L15</f>
-        <v>58274.738681997253</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="F25" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="94"/>
+        <v>49293.554912699212</v>
+      </c>
+      <c r="O24" s="158" t="s">
+        <v>209</v>
+      </c>
+      <c r="P24" s="158">
+        <f>G18+G19*LOG10(14)-G17</f>
+        <v>-4.7985411342210682E-6</v>
+      </c>
+      <c r="R24" s="158" t="s">
+        <v>209</v>
+      </c>
+      <c r="S24" s="158">
+        <f>L18+L19*LOG10(14)-L17</f>
+        <v>1.3642420526593924E-12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="F25" s="120" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="120"/>
       <c r="H25" s="81">
         <v>140</v>
       </c>
       <c r="I25" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" s="163">
+        <f>G20*H26</f>
+        <v>7655.9972492591569</v>
+      </c>
+      <c r="M25" s="163">
+        <f>H26*L20</f>
+        <v>8035.5342153718884</v>
+      </c>
+      <c r="O25" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="P25" s="73">
+        <f>G18+G19*LOG10(28)-C14</f>
+        <v>-9.8219544497624156E-8</v>
+      </c>
+      <c r="R25" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="S25" s="73">
+        <f>L18+L19*LOG10(28)-C14</f>
+        <v>1.6697754290362354E-12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="F26" s="120" t="s">
         <v>194</v>
       </c>
-      <c r="K25" s="81" t="s">
-        <v>201</v>
-      </c>
-      <c r="L25" s="152">
-        <f>G20*H26</f>
-        <v>2550.0903623486624</v>
-      </c>
-      <c r="M25" s="152">
-        <f>H26*L20</f>
-        <v>28985.132695447504</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="F26" s="94" t="s">
-        <v>196</v>
-      </c>
-      <c r="G26" s="94"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="81">
         <v>400</v>
       </c>
       <c r="I26" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="K26" s="148" t="s">
-        <v>202</v>
-      </c>
-      <c r="L26" s="144">
+        <v>195</v>
+      </c>
+      <c r="K26" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" s="164">
         <f>SUM(L24:L25)</f>
-        <v>79292.763836865604</v>
-      </c>
-      <c r="M26" s="144">
+        <v>72668.442301245304</v>
+      </c>
+      <c r="M26" s="164">
         <f>SUM(M24:M25)</f>
-        <v>87259.871377444753</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B29" s="160" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
+        <v>57329.0891280711</v>
+      </c>
+      <c r="O26" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="P26" s="73">
+        <f>SUM(P24:P25)</f>
+        <v>-4.8967606787186924E-6</v>
+      </c>
+      <c r="R26" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="S26" s="73">
+        <f>SUM(S24:S25)</f>
+        <v>3.0340174816956278E-12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B29" s="110" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
+  <mergeCells count="21">
+    <mergeCell ref="O21:S22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:S23"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="F1:L1"/>
@@ -43958,6 +44233,15 @@
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:S2"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="O9:S10"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/tares_3.xlsx
+++ b/tares_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db108f0a9d2e271a/Escritorio/202520/Tecnología del Hormigón/TALLER_3_TH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1935" documentId="13_ncr:1_{1C5220AB-3361-6449-9B84-967C43BA207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{502F0DB3-15FD-46FF-AAFF-06B73A0333E7}"/>
+  <xr:revisionPtr revIDLastSave="1936" documentId="13_ncr:1_{1C5220AB-3361-6449-9B84-967C43BA207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC6E09F0-52AB-450C-A22D-2A9FFCD3CBCD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="5" xr2:uid="{0E2A80D9-1365-9241-B0C7-2E437C7772EE}"/>
   </bookViews>
@@ -789,7 +789,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -2095,6 +2095,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2125,21 +2145,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2157,6 +2162,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2195,6 +2206,12 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2225,25 +2242,8 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2515,6 +2515,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2848,21 +2852,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="K2" s="116" t="s">
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="K2" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
     </row>
     <row r="3" spans="2:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="69" t="s">
@@ -2883,10 +2887,10 @@
       <c r="G3" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="112" t="s">
+      <c r="H3" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="113"/>
+      <c r="I3" s="121"/>
       <c r="K3" s="68" t="s">
         <v>15</v>
       </c>
@@ -3264,16 +3268,16 @@
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
-      <c r="K13" s="114" t="s">
+      <c r="K13" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="L13" s="114"/>
-      <c r="M13" s="111" t="s">
+      <c r="L13" s="122"/>
+      <c r="M13" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
       <c r="Q13" s="74"/>
       <c r="R13" s="74"/>
       <c r="S13" s="74"/>
@@ -3316,10 +3320,10 @@
         <f>M10+(L7-L10)*((M11-M10)/(L11-L10))</f>
         <v>9.4891304347826093</v>
       </c>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
       <c r="Q14" s="74"/>
       <c r="R14" s="74"/>
       <c r="S14" s="74"/>
@@ -3386,11 +3390,11 @@
         <f t="shared" si="1"/>
         <v>3024</v>
       </c>
-      <c r="K16" s="123" t="s">
+      <c r="K16" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
     </row>
     <row r="17" spans="2:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="68">
@@ -3422,9 +3426,9 @@
         <f t="shared" si="1"/>
         <v>3360</v>
       </c>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
     </row>
     <row r="18" spans="2:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B18" s="68">
@@ -3799,19 +3803,19 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="119"/>
+      <c r="C29" s="127"/>
       <c r="K29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="113"/>
+      <c r="C30" s="121"/>
       <c r="K30" cm="1">
         <f t="array" ref="K30:L31">MINVERSE(K26:L27)</f>
         <v>4.4065621092005989</v>
@@ -3849,10 +3853,10 @@
       <c r="C33" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="114" t="s">
+      <c r="K33" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="L33" s="114"/>
+      <c r="L33" s="122"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B34" s="68" t="s">
@@ -3884,14 +3888,14 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="K37" s="120" t="s">
+      <c r="C37" s="123"/>
+      <c r="K37" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="L37" s="120"/>
+      <c r="L37" s="128"/>
       <c r="M37" s="73"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.5">
@@ -3940,10 +3944,10 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B41" s="122" t="s">
+      <c r="B41" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="122"/>
+      <c r="C41" s="117"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.5">
       <c r="L42" t="s">
@@ -4004,16 +4008,16 @@
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="K46" s="121" t="s">
+      <c r="K46" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="L46" s="121"/>
+      <c r="L46" s="116"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B47" s="121" t="s">
+      <c r="B47" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="121"/>
+      <c r="C47" s="116"/>
       <c r="K47" s="73" t="s">
         <v>125</v>
       </c>
@@ -4032,18 +4036,13 @@
       </c>
     </row>
     <row r="49" spans="11:12" x14ac:dyDescent="0.5">
-      <c r="K49" s="122" t="s">
+      <c r="K49" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="L49" s="122"/>
+      <c r="L49" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="K16:M17"/>
     <mergeCell ref="M13:P14"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K33:L33"/>
@@ -4054,6 +4053,11 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="K16:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4087,10 +4091,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4101,10 +4105,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="126" t="s">
+      <c r="H2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="127"/>
+      <c r="I2" s="130"/>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4117,8 +4121,8 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="129"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4129,8 +4133,8 @@
         <v>7</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="129"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="132"/>
       <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4143,8 +4147,8 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="129"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="5">
         <v>0</v>
       </c>
@@ -4155,8 +4159,8 @@
         <v>0</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="129"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="132"/>
       <c r="J4" s="5">
         <v>0</v>
       </c>
@@ -4169,8 +4173,8 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="5">
         <v>0.25</v>
       </c>
@@ -4181,8 +4185,8 @@
         <v>0.45</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="129"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="132"/>
       <c r="J5" s="5">
         <v>0.25</v>
       </c>
@@ -4195,8 +4199,8 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="5">
         <v>0.5</v>
       </c>
@@ -4207,8 +4211,8 @@
         <v>1.03</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="129"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="5">
         <v>0.5</v>
       </c>
@@ -4221,8 +4225,8 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="129"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="5">
         <v>0.75</v>
       </c>
@@ -4233,8 +4237,8 @@
         <v>1.66</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="129"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="5">
         <v>0.75</v>
       </c>
@@ -4247,8 +4251,8 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="5">
         <v>1</v>
       </c>
@@ -4259,8 +4263,8 @@
         <v>2.36</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="129"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="5">
         <v>1</v>
       </c>
@@ -4273,8 +4277,8 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="5">
         <v>1.5</v>
       </c>
@@ -4285,8 +4289,8 @@
         <v>3.86</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="129"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="5">
         <v>1.5</v>
       </c>
@@ -4299,8 +4303,8 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="5">
         <v>2</v>
       </c>
@@ -4311,8 +4315,8 @@
         <v>5.24</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="129"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="5">
         <v>2</v>
       </c>
@@ -4325,8 +4329,8 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="5">
         <v>2.5</v>
       </c>
@@ -4337,8 +4341,8 @@
         <v>6.39</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="129"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="5">
         <v>2.5</v>
       </c>
@@ -4351,8 +4355,8 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="5">
         <v>3</v>
       </c>
@@ -4363,8 +4367,8 @@
         <v>7.41</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="129"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
       <c r="J12" s="5">
         <v>3</v>
       </c>
@@ -4377,8 +4381,8 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="5">
         <v>3.5</v>
       </c>
@@ -4389,8 +4393,8 @@
         <v>8.31</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="5">
         <v>3.5</v>
       </c>
@@ -4403,8 +4407,8 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="5">
         <v>4</v>
       </c>
@@ -4415,8 +4419,8 @@
         <v>9.09</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="129"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="5">
         <v>4</v>
       </c>
@@ -4429,8 +4433,8 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="5">
         <v>4.5</v>
       </c>
@@ -4441,8 +4445,8 @@
         <v>9.76</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="129"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="5">
         <v>4.5</v>
       </c>
@@ -4455,8 +4459,8 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="5">
         <v>5</v>
       </c>
@@ -4467,8 +4471,8 @@
         <v>10.31</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="129"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="5">
         <v>5</v>
       </c>
@@ -4481,8 +4485,8 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="5">
         <v>5.5</v>
       </c>
@@ -4493,8 +4497,8 @@
         <v>10.84</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="5">
         <v>5.5</v>
       </c>
@@ -4507,8 +4511,8 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="5">
         <v>6</v>
       </c>
@@ -4519,8 +4523,8 @@
         <v>11.34</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="129"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
       <c r="J18" s="5">
         <v>6</v>
       </c>
@@ -4533,8 +4537,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
       <c r="D19" s="5">
         <v>7</v>
       </c>
@@ -4545,8 +4549,8 @@
         <v>12.34</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="129"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="5">
         <v>7</v>
       </c>
@@ -4559,8 +4563,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="129"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="132"/>
       <c r="D20" s="5">
         <v>8</v>
       </c>
@@ -4571,8 +4575,8 @@
         <v>13.34</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="129"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
       <c r="J20" s="5">
         <v>8</v>
       </c>
@@ -4585,8 +4589,8 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="5">
         <v>9</v>
       </c>
@@ -4597,8 +4601,8 @@
         <v>14.34</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="134"/>
       <c r="J21" s="5">
         <v>9</v>
       </c>
@@ -4611,10 +4615,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="125"/>
+      <c r="C22" s="136"/>
       <c r="D22" s="5">
         <v>10</v>
       </c>
@@ -4625,10 +4629,10 @@
         <v>15.34</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="124" t="s">
+      <c r="H22" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="125"/>
+      <c r="I22" s="136"/>
       <c r="J22" s="5">
         <v>10</v>
       </c>
@@ -4819,10 +4823,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="127"/>
+      <c r="C30" s="130"/>
       <c r="D30" s="3" t="s">
         <v>1</v>
       </c>
@@ -4833,10 +4837,10 @@
         <v>3</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="126" t="s">
+      <c r="H30" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="127"/>
+      <c r="I30" s="130"/>
       <c r="J30" s="3" t="s">
         <v>1</v>
       </c>
@@ -4849,8 +4853,8 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="1"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="129"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="132"/>
       <c r="D31" s="4" t="s">
         <v>5</v>
       </c>
@@ -4861,8 +4865,8 @@
         <v>7</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="129"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
       <c r="J31" s="4" t="s">
         <v>5</v>
       </c>
@@ -4875,8 +4879,8 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="129"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="132"/>
       <c r="D32" s="5">
         <v>0</v>
       </c>
@@ -4887,8 +4891,8 @@
         <v>0</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="129"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
       <c r="J32" s="5">
         <v>0</v>
       </c>
@@ -4901,8 +4905,8 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="129"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="132"/>
       <c r="D33" s="5">
         <v>0.25</v>
       </c>
@@ -4913,8 +4917,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="129"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
       <c r="J33" s="5">
         <v>0.25</v>
       </c>
@@ -4927,8 +4931,8 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="129"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="132"/>
       <c r="D34" s="5">
         <v>0.5</v>
       </c>
@@ -4939,8 +4943,8 @@
         <v>1.29</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="129"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="132"/>
       <c r="J34" s="5">
         <v>0.5</v>
       </c>
@@ -4953,8 +4957,8 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="129"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="5">
         <v>0.75</v>
       </c>
@@ -4965,8 +4969,8 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="129"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="132"/>
       <c r="J35" s="5">
         <v>0.75</v>
       </c>
@@ -4979,8 +4983,8 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="129"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="132"/>
       <c r="D36" s="5">
         <v>1</v>
       </c>
@@ -4991,8 +4995,8 @@
         <v>2.94</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="129"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="132"/>
       <c r="J36" s="5">
         <v>1</v>
       </c>
@@ -5005,8 +5009,8 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
-      <c r="B37" s="128"/>
-      <c r="C37" s="129"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="132"/>
       <c r="D37" s="5">
         <v>1.5</v>
       </c>
@@ -5017,8 +5021,8 @@
         <v>4.83</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="129"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="132"/>
       <c r="J37" s="5">
         <v>1.5</v>
       </c>
@@ -5031,8 +5035,8 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="129"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="132"/>
       <c r="D38" s="5">
         <v>2</v>
       </c>
@@ -5043,8 +5047,8 @@
         <v>6.51</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="129"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="132"/>
       <c r="J38" s="5">
         <v>2</v>
       </c>
@@ -5057,8 +5061,8 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="129"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="132"/>
       <c r="D39" s="5">
         <v>2.5</v>
       </c>
@@ -5069,8 +5073,8 @@
         <v>7.96</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="129"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="132"/>
       <c r="J39" s="5">
         <v>2.5</v>
       </c>
@@ -5083,8 +5087,8 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="129"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="132"/>
       <c r="D40" s="5">
         <v>3</v>
       </c>
@@ -5095,8 +5099,8 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="129"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="132"/>
       <c r="J40" s="5">
         <v>3</v>
       </c>
@@ -5109,8 +5113,8 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="129"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="132"/>
       <c r="D41" s="5">
         <v>3.5</v>
       </c>
@@ -5121,8 +5125,8 @@
         <v>10.34</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="129"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="132"/>
       <c r="J41" s="5">
         <v>3.5</v>
       </c>
@@ -5135,8 +5139,8 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="129"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="132"/>
       <c r="D42" s="5">
         <v>4</v>
       </c>
@@ -5147,8 +5151,8 @@
         <v>11.3</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="129"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="132"/>
       <c r="J42" s="5">
         <v>4</v>
       </c>
@@ -5161,8 +5165,8 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="129"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="132"/>
       <c r="D43" s="5">
         <v>4.5</v>
       </c>
@@ -5173,8 +5177,8 @@
         <v>12.11</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="129"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="132"/>
       <c r="J43" s="5">
         <v>4.5</v>
       </c>
@@ -5187,8 +5191,8 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
-      <c r="B44" s="128"/>
-      <c r="C44" s="129"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="132"/>
       <c r="D44" s="5">
         <v>5</v>
       </c>
@@ -5199,8 +5203,8 @@
         <v>12.86</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="129"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="132"/>
       <c r="J44" s="5">
         <v>5</v>
       </c>
@@ -5213,8 +5217,8 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
-      <c r="B45" s="128"/>
-      <c r="C45" s="129"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="132"/>
       <c r="D45" s="5">
         <v>5.5</v>
       </c>
@@ -5225,8 +5229,8 @@
         <v>13.56</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="129"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="132"/>
       <c r="J45" s="5">
         <v>5.5</v>
       </c>
@@ -5239,8 +5243,8 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="129"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="132"/>
       <c r="D46" s="5">
         <v>6</v>
       </c>
@@ -5251,8 +5255,8 @@
         <v>14.22</v>
       </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="129"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="132"/>
       <c r="J46" s="5">
         <v>6</v>
       </c>
@@ -5265,8 +5269,8 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
-      <c r="B47" s="128"/>
-      <c r="C47" s="129"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="132"/>
       <c r="D47" s="5">
         <v>7</v>
       </c>
@@ -5277,8 +5281,8 @@
         <v>15.56</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="129"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="132"/>
       <c r="J47" s="5">
         <v>7</v>
       </c>
@@ -5291,8 +5295,8 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
-      <c r="B48" s="128"/>
-      <c r="C48" s="129"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="132"/>
       <c r="D48" s="5">
         <v>8</v>
       </c>
@@ -5303,8 +5307,8 @@
         <v>16.89</v>
       </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="129"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="132"/>
       <c r="J48" s="5">
         <v>8</v>
       </c>
@@ -5317,8 +5321,8 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="131"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="5">
         <v>9</v>
       </c>
@@ -5329,8 +5333,8 @@
         <v>18.23</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="131"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="134"/>
       <c r="J49" s="5">
         <v>9</v>
       </c>
@@ -5343,10 +5347,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
-      <c r="B50" s="124" t="s">
+      <c r="B50" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="125"/>
+      <c r="C50" s="136"/>
       <c r="D50" s="5">
         <v>10</v>
       </c>
@@ -5357,10 +5361,10 @@
         <v>19.559999999999999</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="124" t="s">
+      <c r="H50" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="125"/>
+      <c r="I50" s="136"/>
       <c r="J50" s="5">
         <v>10</v>
       </c>
@@ -5551,10 +5555,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
-      <c r="B58" s="126" t="s">
+      <c r="B58" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="127"/>
+      <c r="C58" s="130"/>
       <c r="D58" s="3" t="s">
         <v>1</v>
       </c>
@@ -5565,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="126" t="s">
+      <c r="H58" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I58" s="127"/>
+      <c r="I58" s="130"/>
       <c r="J58" s="3" t="s">
         <v>1</v>
       </c>
@@ -5581,8 +5585,8 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
-      <c r="B59" s="128"/>
-      <c r="C59" s="129"/>
+      <c r="B59" s="131"/>
+      <c r="C59" s="132"/>
       <c r="D59" s="4" t="s">
         <v>5</v>
       </c>
@@ -5593,8 +5597,8 @@
         <v>7</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="128"/>
-      <c r="I59" s="129"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="132"/>
       <c r="J59" s="4" t="s">
         <v>5</v>
       </c>
@@ -5607,8 +5611,8 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
-      <c r="B60" s="128"/>
-      <c r="C60" s="129"/>
+      <c r="B60" s="131"/>
+      <c r="C60" s="132"/>
       <c r="D60" s="5">
         <v>0</v>
       </c>
@@ -5619,8 +5623,8 @@
         <v>0</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="128"/>
-      <c r="I60" s="129"/>
+      <c r="H60" s="131"/>
+      <c r="I60" s="132"/>
       <c r="J60" s="5">
         <v>0</v>
       </c>
@@ -5633,8 +5637,8 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
-      <c r="B61" s="128"/>
-      <c r="C61" s="129"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="132"/>
       <c r="D61" s="5">
         <v>0.25</v>
       </c>
@@ -5645,8 +5649,8 @@
         <v>0.39</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="128"/>
-      <c r="I61" s="129"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="132"/>
       <c r="J61" s="5">
         <v>0.25</v>
       </c>
@@ -5659,8 +5663,8 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
-      <c r="B62" s="128"/>
-      <c r="C62" s="129"/>
+      <c r="B62" s="131"/>
+      <c r="C62" s="132"/>
       <c r="D62" s="5">
         <v>0.5</v>
       </c>
@@ -5671,8 +5675,8 @@
         <v>0.88</v>
       </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="128"/>
-      <c r="I62" s="129"/>
+      <c r="H62" s="131"/>
+      <c r="I62" s="132"/>
       <c r="J62" s="5">
         <v>0.5</v>
       </c>
@@ -5685,8 +5689,8 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
-      <c r="B63" s="128"/>
-      <c r="C63" s="129"/>
+      <c r="B63" s="131"/>
+      <c r="C63" s="132"/>
       <c r="D63" s="5">
         <v>0.75</v>
       </c>
@@ -5697,8 +5701,8 @@
         <v>1.42</v>
       </c>
       <c r="G63" s="2"/>
-      <c r="H63" s="128"/>
-      <c r="I63" s="129"/>
+      <c r="H63" s="131"/>
+      <c r="I63" s="132"/>
       <c r="J63" s="5">
         <v>0.75</v>
       </c>
@@ -5711,8 +5715,8 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
-      <c r="B64" s="128"/>
-      <c r="C64" s="129"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="132"/>
       <c r="D64" s="5">
         <v>1</v>
       </c>
@@ -5723,8 +5727,8 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="128"/>
-      <c r="I64" s="129"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="132"/>
       <c r="J64" s="5">
         <v>1</v>
       </c>
@@ -5737,8 +5741,8 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
-      <c r="B65" s="128"/>
-      <c r="C65" s="129"/>
+      <c r="B65" s="131"/>
+      <c r="C65" s="132"/>
       <c r="D65" s="5">
         <v>1.5</v>
       </c>
@@ -5749,8 +5753,8 @@
         <v>3.29</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="128"/>
-      <c r="I65" s="129"/>
+      <c r="H65" s="131"/>
+      <c r="I65" s="132"/>
       <c r="J65" s="5">
         <v>1.5</v>
       </c>
@@ -5763,8 +5767,8 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
-      <c r="B66" s="128"/>
-      <c r="C66" s="129"/>
+      <c r="B66" s="131"/>
+      <c r="C66" s="132"/>
       <c r="D66" s="5">
         <v>2</v>
       </c>
@@ -5775,8 +5779,8 @@
         <v>4.47</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="128"/>
-      <c r="I66" s="129"/>
+      <c r="H66" s="131"/>
+      <c r="I66" s="132"/>
       <c r="J66" s="5">
         <v>2</v>
       </c>
@@ -5789,8 +5793,8 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
-      <c r="B67" s="128"/>
-      <c r="C67" s="129"/>
+      <c r="B67" s="131"/>
+      <c r="C67" s="132"/>
       <c r="D67" s="5">
         <v>2.5</v>
       </c>
@@ -5801,8 +5805,8 @@
         <v>5.43</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="128"/>
-      <c r="I67" s="129"/>
+      <c r="H67" s="131"/>
+      <c r="I67" s="132"/>
       <c r="J67" s="5">
         <v>2.5</v>
       </c>
@@ -5815,8 +5819,8 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
-      <c r="B68" s="128"/>
-      <c r="C68" s="129"/>
+      <c r="B68" s="131"/>
+      <c r="C68" s="132"/>
       <c r="D68" s="5">
         <v>3</v>
       </c>
@@ -5827,8 +5831,8 @@
         <v>6.31</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="128"/>
-      <c r="I68" s="129"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="132"/>
       <c r="J68" s="5">
         <v>3</v>
       </c>
@@ -5841,8 +5845,8 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
-      <c r="B69" s="128"/>
-      <c r="C69" s="129"/>
+      <c r="B69" s="131"/>
+      <c r="C69" s="132"/>
       <c r="D69" s="5">
         <v>3.5</v>
       </c>
@@ -5853,8 +5857,8 @@
         <v>7.09</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="128"/>
-      <c r="I69" s="129"/>
+      <c r="H69" s="131"/>
+      <c r="I69" s="132"/>
       <c r="J69" s="5">
         <v>3.5</v>
       </c>
@@ -5867,8 +5871,8 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
-      <c r="B70" s="128"/>
-      <c r="C70" s="129"/>
+      <c r="B70" s="131"/>
+      <c r="C70" s="132"/>
       <c r="D70" s="5">
         <v>4</v>
       </c>
@@ -5879,8 +5883,8 @@
         <v>7.77</v>
       </c>
       <c r="G70" s="2"/>
-      <c r="H70" s="128"/>
-      <c r="I70" s="129"/>
+      <c r="H70" s="131"/>
+      <c r="I70" s="132"/>
       <c r="J70" s="5">
         <v>4</v>
       </c>
@@ -5893,8 +5897,8 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
-      <c r="B71" s="128"/>
-      <c r="C71" s="129"/>
+      <c r="B71" s="131"/>
+      <c r="C71" s="132"/>
       <c r="D71" s="5">
         <v>4.5</v>
       </c>
@@ -5905,8 +5909,8 @@
         <v>8.35</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="128"/>
-      <c r="I71" s="129"/>
+      <c r="H71" s="131"/>
+      <c r="I71" s="132"/>
       <c r="J71" s="5">
         <v>4.5</v>
       </c>
@@ -5919,8 +5923,8 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
-      <c r="B72" s="128"/>
-      <c r="C72" s="129"/>
+      <c r="B72" s="131"/>
+      <c r="C72" s="132"/>
       <c r="D72" s="5">
         <v>5</v>
       </c>
@@ -5931,8 +5935,8 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="129"/>
+      <c r="H72" s="131"/>
+      <c r="I72" s="132"/>
       <c r="J72" s="5">
         <v>5</v>
       </c>
@@ -5945,8 +5949,8 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
-      <c r="B73" s="128"/>
-      <c r="C73" s="129"/>
+      <c r="B73" s="131"/>
+      <c r="C73" s="132"/>
       <c r="D73" s="5">
         <v>5.5</v>
       </c>
@@ -5957,8 +5961,8 @@
         <v>9.39</v>
       </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="128"/>
-      <c r="I73" s="129"/>
+      <c r="H73" s="131"/>
+      <c r="I73" s="132"/>
       <c r="J73" s="5">
         <v>5.5</v>
       </c>
@@ -5971,8 +5975,8 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
-      <c r="B74" s="128"/>
-      <c r="C74" s="129"/>
+      <c r="B74" s="131"/>
+      <c r="C74" s="132"/>
       <c r="D74" s="5">
         <v>6</v>
       </c>
@@ -5983,8 +5987,8 @@
         <v>9.85</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="128"/>
-      <c r="I74" s="129"/>
+      <c r="H74" s="131"/>
+      <c r="I74" s="132"/>
       <c r="J74" s="5">
         <v>6</v>
       </c>
@@ -5997,8 +6001,8 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
-      <c r="B75" s="128"/>
-      <c r="C75" s="129"/>
+      <c r="B75" s="131"/>
+      <c r="C75" s="132"/>
       <c r="D75" s="5">
         <v>7</v>
       </c>
@@ -6009,8 +6013,8 @@
         <v>10.77</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="128"/>
-      <c r="I75" s="129"/>
+      <c r="H75" s="131"/>
+      <c r="I75" s="132"/>
       <c r="J75" s="5">
         <v>7</v>
       </c>
@@ -6023,8 +6027,8 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
-      <c r="B76" s="128"/>
-      <c r="C76" s="129"/>
+      <c r="B76" s="131"/>
+      <c r="C76" s="132"/>
       <c r="D76" s="5">
         <v>8</v>
       </c>
@@ -6035,8 +6039,8 @@
         <v>11.69</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="128"/>
-      <c r="I76" s="129"/>
+      <c r="H76" s="131"/>
+      <c r="I76" s="132"/>
       <c r="J76" s="5">
         <v>8</v>
       </c>
@@ -6049,8 +6053,8 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
-      <c r="B77" s="130"/>
-      <c r="C77" s="131"/>
+      <c r="B77" s="133"/>
+      <c r="C77" s="134"/>
       <c r="D77" s="5">
         <v>9</v>
       </c>
@@ -6061,8 +6065,8 @@
         <v>12.61</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="130"/>
-      <c r="I77" s="131"/>
+      <c r="H77" s="133"/>
+      <c r="I77" s="134"/>
       <c r="J77" s="5">
         <v>9</v>
       </c>
@@ -6075,10 +6079,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
-      <c r="B78" s="124" t="s">
+      <c r="B78" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="125"/>
+      <c r="C78" s="136"/>
       <c r="D78" s="5">
         <v>10</v>
       </c>
@@ -6089,10 +6093,10 @@
         <v>13.53</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="H78" s="124" t="s">
+      <c r="H78" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="I78" s="125"/>
+      <c r="I78" s="136"/>
       <c r="J78" s="5">
         <v>10</v>
       </c>
@@ -6283,10 +6287,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
-      <c r="B86" s="126" t="s">
+      <c r="B86" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="127"/>
+      <c r="C86" s="130"/>
       <c r="D86" s="3" t="s">
         <v>1</v>
       </c>
@@ -6297,10 +6301,10 @@
         <v>3</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="126" t="s">
+      <c r="H86" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="I86" s="127"/>
+      <c r="I86" s="130"/>
       <c r="J86" s="3" t="s">
         <v>1</v>
       </c>
@@ -6313,8 +6317,8 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
-      <c r="B87" s="128"/>
-      <c r="C87" s="129"/>
+      <c r="B87" s="131"/>
+      <c r="C87" s="132"/>
       <c r="D87" s="4" t="s">
         <v>5</v>
       </c>
@@ -6325,8 +6329,8 @@
         <v>7</v>
       </c>
       <c r="G87" s="2"/>
-      <c r="H87" s="128"/>
-      <c r="I87" s="129"/>
+      <c r="H87" s="131"/>
+      <c r="I87" s="132"/>
       <c r="J87" s="4" t="s">
         <v>5</v>
       </c>
@@ -6339,8 +6343,8 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
-      <c r="B88" s="128"/>
-      <c r="C88" s="129"/>
+      <c r="B88" s="131"/>
+      <c r="C88" s="132"/>
       <c r="D88" s="5">
         <v>0</v>
       </c>
@@ -6351,8 +6355,8 @@
         <v>0</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="128"/>
-      <c r="I88" s="129"/>
+      <c r="H88" s="131"/>
+      <c r="I88" s="132"/>
       <c r="J88" s="5">
         <v>0</v>
       </c>
@@ -6365,8 +6369,8 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
-      <c r="B89" s="128"/>
-      <c r="C89" s="129"/>
+      <c r="B89" s="131"/>
+      <c r="C89" s="132"/>
       <c r="D89" s="5">
         <v>0.25</v>
       </c>
@@ -6377,8 +6381,8 @@
         <v>1.07</v>
       </c>
       <c r="G89" s="2"/>
-      <c r="H89" s="128"/>
-      <c r="I89" s="129"/>
+      <c r="H89" s="131"/>
+      <c r="I89" s="132"/>
       <c r="J89" s="5">
         <v>0.25</v>
       </c>
@@ -6391,8 +6395,8 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
-      <c r="B90" s="128"/>
-      <c r="C90" s="129"/>
+      <c r="B90" s="131"/>
+      <c r="C90" s="132"/>
       <c r="D90" s="5">
         <v>0.5</v>
       </c>
@@ -6403,8 +6407,8 @@
         <v>2.42</v>
       </c>
       <c r="G90" s="2"/>
-      <c r="H90" s="128"/>
-      <c r="I90" s="129"/>
+      <c r="H90" s="131"/>
+      <c r="I90" s="132"/>
       <c r="J90" s="5">
         <v>0.5</v>
       </c>
@@ -6417,8 +6421,8 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
-      <c r="B91" s="128"/>
-      <c r="C91" s="129"/>
+      <c r="B91" s="131"/>
+      <c r="C91" s="132"/>
       <c r="D91" s="5">
         <v>0.75</v>
       </c>
@@ -6429,8 +6433,8 @@
         <v>3.93</v>
       </c>
       <c r="G91" s="2"/>
-      <c r="H91" s="128"/>
-      <c r="I91" s="129"/>
+      <c r="H91" s="131"/>
+      <c r="I91" s="132"/>
       <c r="J91" s="5">
         <v>0.75</v>
       </c>
@@ -6443,8 +6447,8 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
-      <c r="B92" s="128"/>
-      <c r="C92" s="129"/>
+      <c r="B92" s="131"/>
+      <c r="C92" s="132"/>
       <c r="D92" s="5">
         <v>1</v>
       </c>
@@ -6455,8 +6459,8 @@
         <v>5.58</v>
       </c>
       <c r="G92" s="2"/>
-      <c r="H92" s="128"/>
-      <c r="I92" s="129"/>
+      <c r="H92" s="131"/>
+      <c r="I92" s="132"/>
       <c r="J92" s="5">
         <v>1</v>
       </c>
@@ -6469,8 +6473,8 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
-      <c r="B93" s="128"/>
-      <c r="C93" s="129"/>
+      <c r="B93" s="131"/>
+      <c r="C93" s="132"/>
       <c r="D93" s="5">
         <v>1.5</v>
       </c>
@@ -6481,8 +6485,8 @@
         <v>9.1</v>
       </c>
       <c r="G93" s="2"/>
-      <c r="H93" s="128"/>
-      <c r="I93" s="129"/>
+      <c r="H93" s="131"/>
+      <c r="I93" s="132"/>
       <c r="J93" s="5">
         <v>1.5</v>
       </c>
@@ -6495,8 +6499,8 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
-      <c r="B94" s="128"/>
-      <c r="C94" s="129"/>
+      <c r="B94" s="131"/>
+      <c r="C94" s="132"/>
       <c r="D94" s="5">
         <v>2</v>
       </c>
@@ -6507,8 +6511,8 @@
         <v>12.4</v>
       </c>
       <c r="G94" s="2"/>
-      <c r="H94" s="128"/>
-      <c r="I94" s="129"/>
+      <c r="H94" s="131"/>
+      <c r="I94" s="132"/>
       <c r="J94" s="5">
         <v>2</v>
       </c>
@@ -6521,8 +6525,8 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
-      <c r="B95" s="128"/>
-      <c r="C95" s="129"/>
+      <c r="B95" s="131"/>
+      <c r="C95" s="132"/>
       <c r="D95" s="5">
         <v>2.5</v>
       </c>
@@ -6533,8 +6537,8 @@
         <v>15.04</v>
       </c>
       <c r="G95" s="2"/>
-      <c r="H95" s="128"/>
-      <c r="I95" s="129"/>
+      <c r="H95" s="131"/>
+      <c r="I95" s="132"/>
       <c r="J95" s="5">
         <v>2.5</v>
       </c>
@@ -6547,8 +6551,8 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
-      <c r="B96" s="128"/>
-      <c r="C96" s="129"/>
+      <c r="B96" s="131"/>
+      <c r="C96" s="132"/>
       <c r="D96" s="5">
         <v>3</v>
       </c>
@@ -6559,8 +6563,8 @@
         <v>17.41</v>
       </c>
       <c r="G96" s="2"/>
-      <c r="H96" s="128"/>
-      <c r="I96" s="129"/>
+      <c r="H96" s="131"/>
+      <c r="I96" s="132"/>
       <c r="J96" s="5">
         <v>3</v>
       </c>
@@ -6573,8 +6577,8 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
-      <c r="B97" s="128"/>
-      <c r="C97" s="129"/>
+      <c r="B97" s="131"/>
+      <c r="C97" s="132"/>
       <c r="D97" s="5">
         <v>3.5</v>
       </c>
@@ -6585,8 +6589,8 @@
         <v>19.55</v>
       </c>
       <c r="G97" s="2"/>
-      <c r="H97" s="128"/>
-      <c r="I97" s="129"/>
+      <c r="H97" s="131"/>
+      <c r="I97" s="132"/>
       <c r="J97" s="5">
         <v>3.5</v>
       </c>
@@ -6599,8 +6603,8 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
-      <c r="B98" s="128"/>
-      <c r="C98" s="129"/>
+      <c r="B98" s="131"/>
+      <c r="C98" s="132"/>
       <c r="D98" s="5">
         <v>4</v>
       </c>
@@ -6611,8 +6615,8 @@
         <v>21.37</v>
       </c>
       <c r="G98" s="2"/>
-      <c r="H98" s="128"/>
-      <c r="I98" s="129"/>
+      <c r="H98" s="131"/>
+      <c r="I98" s="132"/>
       <c r="J98" s="5">
         <v>4</v>
       </c>
@@ -6625,8 +6629,8 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
-      <c r="B99" s="128"/>
-      <c r="C99" s="129"/>
+      <c r="B99" s="131"/>
+      <c r="C99" s="132"/>
       <c r="D99" s="5">
         <v>4.5</v>
       </c>
@@ -6637,8 +6641,8 @@
         <v>23.02</v>
       </c>
       <c r="G99" s="2"/>
-      <c r="H99" s="128"/>
-      <c r="I99" s="129"/>
+      <c r="H99" s="131"/>
+      <c r="I99" s="132"/>
       <c r="J99" s="5">
         <v>4.5</v>
       </c>
@@ -6651,8 +6655,8 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
-      <c r="B100" s="128"/>
-      <c r="C100" s="129"/>
+      <c r="B100" s="131"/>
+      <c r="C100" s="132"/>
       <c r="D100" s="5">
         <v>5</v>
       </c>
@@ -6663,8 +6667,8 @@
         <v>24.45</v>
       </c>
       <c r="G100" s="2"/>
-      <c r="H100" s="128"/>
-      <c r="I100" s="129"/>
+      <c r="H100" s="131"/>
+      <c r="I100" s="132"/>
       <c r="J100" s="5">
         <v>5</v>
       </c>
@@ -6677,8 +6681,8 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
-      <c r="B101" s="128"/>
-      <c r="C101" s="129"/>
+      <c r="B101" s="131"/>
+      <c r="C101" s="132"/>
       <c r="D101" s="5">
         <v>5.5</v>
       </c>
@@ -6689,8 +6693,8 @@
         <v>25.77</v>
       </c>
       <c r="G101" s="2"/>
-      <c r="H101" s="128"/>
-      <c r="I101" s="129"/>
+      <c r="H101" s="131"/>
+      <c r="I101" s="132"/>
       <c r="J101" s="5">
         <v>5.5</v>
       </c>
@@ -6703,8 +6707,8 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
-      <c r="B102" s="128"/>
-      <c r="C102" s="129"/>
+      <c r="B102" s="131"/>
+      <c r="C102" s="132"/>
       <c r="D102" s="5">
         <v>6</v>
       </c>
@@ -6715,8 +6719,8 @@
         <v>27.03</v>
       </c>
       <c r="G102" s="2"/>
-      <c r="H102" s="128"/>
-      <c r="I102" s="129"/>
+      <c r="H102" s="131"/>
+      <c r="I102" s="132"/>
       <c r="J102" s="5">
         <v>6</v>
       </c>
@@ -6729,8 +6733,8 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
-      <c r="B103" s="128"/>
-      <c r="C103" s="129"/>
+      <c r="B103" s="131"/>
+      <c r="C103" s="132"/>
       <c r="D103" s="5">
         <v>7</v>
       </c>
@@ -6741,8 +6745,8 @@
         <v>29.56</v>
       </c>
       <c r="G103" s="2"/>
-      <c r="H103" s="128"/>
-      <c r="I103" s="129"/>
+      <c r="H103" s="131"/>
+      <c r="I103" s="132"/>
       <c r="J103" s="5">
         <v>7</v>
       </c>
@@ -6755,8 +6759,8 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
-      <c r="B104" s="128"/>
-      <c r="C104" s="129"/>
+      <c r="B104" s="131"/>
+      <c r="C104" s="132"/>
       <c r="D104" s="5">
         <v>8</v>
       </c>
@@ -6767,8 +6771,8 @@
         <v>32.090000000000003</v>
       </c>
       <c r="G104" s="2"/>
-      <c r="H104" s="128"/>
-      <c r="I104" s="129"/>
+      <c r="H104" s="131"/>
+      <c r="I104" s="132"/>
       <c r="J104" s="5">
         <v>8</v>
       </c>
@@ -6781,8 +6785,8 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
-      <c r="B105" s="130"/>
-      <c r="C105" s="131"/>
+      <c r="B105" s="133"/>
+      <c r="C105" s="134"/>
       <c r="D105" s="5">
         <v>9</v>
       </c>
@@ -6793,8 +6797,8 @@
         <v>34.619999999999997</v>
       </c>
       <c r="G105" s="2"/>
-      <c r="H105" s="130"/>
-      <c r="I105" s="131"/>
+      <c r="H105" s="133"/>
+      <c r="I105" s="134"/>
       <c r="J105" s="5">
         <v>9</v>
       </c>
@@ -6807,10 +6811,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
-      <c r="B106" s="124" t="s">
+      <c r="B106" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="125"/>
+      <c r="C106" s="136"/>
       <c r="D106" s="5">
         <v>10</v>
       </c>
@@ -6821,10 +6825,10 @@
         <v>37.15</v>
       </c>
       <c r="G106" s="2"/>
-      <c r="H106" s="124" t="s">
+      <c r="H106" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="I106" s="125"/>
+      <c r="I106" s="136"/>
       <c r="J106" s="5">
         <v>10</v>
       </c>
@@ -7015,10 +7019,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
-      <c r="B114" s="126" t="s">
+      <c r="B114" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="C114" s="127"/>
+      <c r="C114" s="130"/>
       <c r="D114" s="3" t="s">
         <v>1</v>
       </c>
@@ -7029,10 +7033,10 @@
         <v>3</v>
       </c>
       <c r="G114" s="2"/>
-      <c r="H114" s="126" t="s">
+      <c r="H114" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="I114" s="127"/>
+      <c r="I114" s="130"/>
       <c r="J114" s="3" t="s">
         <v>1</v>
       </c>
@@ -7045,8 +7049,8 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
-      <c r="B115" s="128"/>
-      <c r="C115" s="129"/>
+      <c r="B115" s="131"/>
+      <c r="C115" s="132"/>
       <c r="D115" s="4" t="s">
         <v>5</v>
       </c>
@@ -7057,8 +7061,8 @@
         <v>7</v>
       </c>
       <c r="G115" s="2"/>
-      <c r="H115" s="128"/>
-      <c r="I115" s="129"/>
+      <c r="H115" s="131"/>
+      <c r="I115" s="132"/>
       <c r="J115" s="4" t="s">
         <v>5</v>
       </c>
@@ -7071,8 +7075,8 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
-      <c r="B116" s="128"/>
-      <c r="C116" s="129"/>
+      <c r="B116" s="131"/>
+      <c r="C116" s="132"/>
       <c r="D116" s="5">
         <v>0</v>
       </c>
@@ -7083,8 +7087,8 @@
         <v>0</v>
       </c>
       <c r="G116" s="2"/>
-      <c r="H116" s="128"/>
-      <c r="I116" s="129"/>
+      <c r="H116" s="131"/>
+      <c r="I116" s="132"/>
       <c r="J116" s="5">
         <v>0</v>
       </c>
@@ -7097,8 +7101,8 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
-      <c r="B117" s="128"/>
-      <c r="C117" s="129"/>
+      <c r="B117" s="131"/>
+      <c r="C117" s="132"/>
       <c r="D117" s="5">
         <v>0.25</v>
       </c>
@@ -7109,8 +7113,8 @@
         <v>0.92</v>
       </c>
       <c r="G117" s="2"/>
-      <c r="H117" s="128"/>
-      <c r="I117" s="129"/>
+      <c r="H117" s="131"/>
+      <c r="I117" s="132"/>
       <c r="J117" s="5">
         <v>0.25</v>
       </c>
@@ -7123,8 +7127,8 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
-      <c r="B118" s="128"/>
-      <c r="C118" s="129"/>
+      <c r="B118" s="131"/>
+      <c r="C118" s="132"/>
       <c r="D118" s="5">
         <v>0.5</v>
       </c>
@@ -7135,8 +7139,8 @@
         <v>2.09</v>
       </c>
       <c r="G118" s="2"/>
-      <c r="H118" s="128"/>
-      <c r="I118" s="129"/>
+      <c r="H118" s="131"/>
+      <c r="I118" s="132"/>
       <c r="J118" s="5">
         <v>0.5</v>
       </c>
@@ -7149,8 +7153,8 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
-      <c r="B119" s="128"/>
-      <c r="C119" s="129"/>
+      <c r="B119" s="131"/>
+      <c r="C119" s="132"/>
       <c r="D119" s="5">
         <v>0.75</v>
       </c>
@@ -7161,8 +7165,8 @@
         <v>3.4</v>
       </c>
       <c r="G119" s="2"/>
-      <c r="H119" s="128"/>
-      <c r="I119" s="129"/>
+      <c r="H119" s="131"/>
+      <c r="I119" s="132"/>
       <c r="J119" s="5">
         <v>0.75</v>
       </c>
@@ -7175,8 +7179,8 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
-      <c r="B120" s="128"/>
-      <c r="C120" s="129"/>
+      <c r="B120" s="131"/>
+      <c r="C120" s="132"/>
       <c r="D120" s="5">
         <v>1</v>
       </c>
@@ -7187,8 +7191,8 @@
         <v>4.79</v>
       </c>
       <c r="G120" s="2"/>
-      <c r="H120" s="128"/>
-      <c r="I120" s="129"/>
+      <c r="H120" s="131"/>
+      <c r="I120" s="132"/>
       <c r="J120" s="5">
         <v>1</v>
       </c>
@@ -7201,8 +7205,8 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
-      <c r="B121" s="128"/>
-      <c r="C121" s="129"/>
+      <c r="B121" s="131"/>
+      <c r="C121" s="132"/>
       <c r="D121" s="5">
         <v>1.5</v>
       </c>
@@ -7213,8 +7217,8 @@
         <v>7.81</v>
       </c>
       <c r="G121" s="2"/>
-      <c r="H121" s="128"/>
-      <c r="I121" s="129"/>
+      <c r="H121" s="131"/>
+      <c r="I121" s="132"/>
       <c r="J121" s="5">
         <v>1.5</v>
       </c>
@@ -7227,8 +7231,8 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
-      <c r="B122" s="128"/>
-      <c r="C122" s="129"/>
+      <c r="B122" s="131"/>
+      <c r="C122" s="132"/>
       <c r="D122" s="5">
         <v>2</v>
       </c>
@@ -7239,8 +7243,8 @@
         <v>10.6</v>
       </c>
       <c r="G122" s="2"/>
-      <c r="H122" s="128"/>
-      <c r="I122" s="129"/>
+      <c r="H122" s="131"/>
+      <c r="I122" s="132"/>
       <c r="J122" s="5">
         <v>2</v>
       </c>
@@ -7253,8 +7257,8 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
-      <c r="B123" s="128"/>
-      <c r="C123" s="129"/>
+      <c r="B123" s="131"/>
+      <c r="C123" s="132"/>
       <c r="D123" s="5">
         <v>2.5</v>
       </c>
@@ -7265,8 +7269,8 @@
         <v>12.89</v>
       </c>
       <c r="G123" s="2"/>
-      <c r="H123" s="128"/>
-      <c r="I123" s="129"/>
+      <c r="H123" s="131"/>
+      <c r="I123" s="132"/>
       <c r="J123" s="5">
         <v>2.5</v>
       </c>
@@ -7279,8 +7283,8 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
-      <c r="B124" s="128"/>
-      <c r="C124" s="129"/>
+      <c r="B124" s="131"/>
+      <c r="C124" s="132"/>
       <c r="D124" s="5">
         <v>3</v>
       </c>
@@ -7291,8 +7295,8 @@
         <v>15.05</v>
       </c>
       <c r="G124" s="2"/>
-      <c r="H124" s="128"/>
-      <c r="I124" s="129"/>
+      <c r="H124" s="131"/>
+      <c r="I124" s="132"/>
       <c r="J124" s="5">
         <v>3</v>
       </c>
@@ -7305,8 +7309,8 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
-      <c r="B125" s="128"/>
-      <c r="C125" s="129"/>
+      <c r="B125" s="131"/>
+      <c r="C125" s="132"/>
       <c r="D125" s="5">
         <v>3.5</v>
       </c>
@@ -7317,8 +7321,8 @@
         <v>16.899999999999999</v>
       </c>
       <c r="G125" s="2"/>
-      <c r="H125" s="128"/>
-      <c r="I125" s="129"/>
+      <c r="H125" s="131"/>
+      <c r="I125" s="132"/>
       <c r="J125" s="5">
         <v>3.5</v>
       </c>
@@ -7331,8 +7335,8 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
-      <c r="B126" s="128"/>
-      <c r="C126" s="129"/>
+      <c r="B126" s="131"/>
+      <c r="C126" s="132"/>
       <c r="D126" s="5">
         <v>4</v>
       </c>
@@ -7343,8 +7347,8 @@
         <v>18.559999999999999</v>
       </c>
       <c r="G126" s="2"/>
-      <c r="H126" s="128"/>
-      <c r="I126" s="129"/>
+      <c r="H126" s="131"/>
+      <c r="I126" s="132"/>
       <c r="J126" s="5">
         <v>4</v>
       </c>
@@ -7357,8 +7361,8 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
-      <c r="B127" s="128"/>
-      <c r="C127" s="129"/>
+      <c r="B127" s="131"/>
+      <c r="C127" s="132"/>
       <c r="D127" s="5">
         <v>4.5</v>
       </c>
@@ -7369,8 +7373,8 @@
         <v>20.05</v>
       </c>
       <c r="G127" s="2"/>
-      <c r="H127" s="128"/>
-      <c r="I127" s="129"/>
+      <c r="H127" s="131"/>
+      <c r="I127" s="132"/>
       <c r="J127" s="5">
         <v>4.5</v>
       </c>
@@ -7383,8 +7387,8 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
-      <c r="B128" s="128"/>
-      <c r="C128" s="129"/>
+      <c r="B128" s="131"/>
+      <c r="C128" s="132"/>
       <c r="D128" s="5">
         <v>5</v>
       </c>
@@ -7395,8 +7399,8 @@
         <v>21.4</v>
       </c>
       <c r="G128" s="2"/>
-      <c r="H128" s="128"/>
-      <c r="I128" s="129"/>
+      <c r="H128" s="131"/>
+      <c r="I128" s="132"/>
       <c r="J128" s="5">
         <v>5</v>
       </c>
@@ -7409,8 +7413,8 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
-      <c r="B129" s="128"/>
-      <c r="C129" s="129"/>
+      <c r="B129" s="131"/>
+      <c r="C129" s="132"/>
       <c r="D129" s="5">
         <v>5.5</v>
       </c>
@@ -7421,8 +7425,8 @@
         <v>22.7</v>
       </c>
       <c r="G129" s="2"/>
-      <c r="H129" s="128"/>
-      <c r="I129" s="129"/>
+      <c r="H129" s="131"/>
+      <c r="I129" s="132"/>
       <c r="J129" s="5">
         <v>5.5</v>
       </c>
@@ -7435,8 +7439,8 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
-      <c r="B130" s="128"/>
-      <c r="C130" s="129"/>
+      <c r="B130" s="131"/>
+      <c r="C130" s="132"/>
       <c r="D130" s="5">
         <v>6</v>
       </c>
@@ -7447,8 +7451,8 @@
         <v>23.87</v>
       </c>
       <c r="G130" s="2"/>
-      <c r="H130" s="128"/>
-      <c r="I130" s="129"/>
+      <c r="H130" s="131"/>
+      <c r="I130" s="132"/>
       <c r="J130" s="5">
         <v>6</v>
       </c>
@@ -7461,8 +7465,8 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
-      <c r="B131" s="128"/>
-      <c r="C131" s="129"/>
+      <c r="B131" s="131"/>
+      <c r="C131" s="132"/>
       <c r="D131" s="5">
         <v>7</v>
       </c>
@@ -7473,8 +7477,8 @@
         <v>26.21</v>
       </c>
       <c r="G131" s="2"/>
-      <c r="H131" s="128"/>
-      <c r="I131" s="129"/>
+      <c r="H131" s="131"/>
+      <c r="I131" s="132"/>
       <c r="J131" s="5">
         <v>7</v>
       </c>
@@ -7487,8 +7491,8 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
-      <c r="B132" s="128"/>
-      <c r="C132" s="129"/>
+      <c r="B132" s="131"/>
+      <c r="C132" s="132"/>
       <c r="D132" s="5">
         <v>8</v>
       </c>
@@ -7499,8 +7503,8 @@
         <v>28.55</v>
       </c>
       <c r="G132" s="2"/>
-      <c r="H132" s="128"/>
-      <c r="I132" s="129"/>
+      <c r="H132" s="131"/>
+      <c r="I132" s="132"/>
       <c r="J132" s="5">
         <v>8</v>
       </c>
@@ -7513,8 +7517,8 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
-      <c r="B133" s="130"/>
-      <c r="C133" s="131"/>
+      <c r="B133" s="133"/>
+      <c r="C133" s="134"/>
       <c r="D133" s="5">
         <v>9</v>
       </c>
@@ -7525,8 +7529,8 @@
         <v>30.89</v>
       </c>
       <c r="G133" s="2"/>
-      <c r="H133" s="130"/>
-      <c r="I133" s="131"/>
+      <c r="H133" s="133"/>
+      <c r="I133" s="134"/>
       <c r="J133" s="5">
         <v>9</v>
       </c>
@@ -7539,10 +7543,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
-      <c r="B134" s="124" t="s">
+      <c r="B134" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C134" s="125"/>
+      <c r="C134" s="136"/>
       <c r="D134" s="5">
         <v>10</v>
       </c>
@@ -7553,10 +7557,10 @@
         <v>33.229999999999997</v>
       </c>
       <c r="G134" s="2"/>
-      <c r="H134" s="124" t="s">
+      <c r="H134" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="I134" s="125"/>
+      <c r="I134" s="136"/>
       <c r="J134" s="5">
         <v>10</v>
       </c>
@@ -7747,10 +7751,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A142" s="1"/>
-      <c r="B142" s="126" t="s">
+      <c r="B142" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="C142" s="127"/>
+      <c r="C142" s="130"/>
       <c r="D142" s="3" t="s">
         <v>1</v>
       </c>
@@ -7761,10 +7765,10 @@
         <v>3</v>
       </c>
       <c r="G142" s="2"/>
-      <c r="H142" s="126" t="s">
+      <c r="H142" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="I142" s="127"/>
+      <c r="I142" s="130"/>
       <c r="J142" s="3" t="s">
         <v>1</v>
       </c>
@@ -7777,8 +7781,8 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A143" s="1"/>
-      <c r="B143" s="128"/>
-      <c r="C143" s="129"/>
+      <c r="B143" s="131"/>
+      <c r="C143" s="132"/>
       <c r="D143" s="4" t="s">
         <v>5</v>
       </c>
@@ -7789,8 +7793,8 @@
         <v>7</v>
       </c>
       <c r="G143" s="2"/>
-      <c r="H143" s="128"/>
-      <c r="I143" s="129"/>
+      <c r="H143" s="131"/>
+      <c r="I143" s="132"/>
       <c r="J143" s="4" t="s">
         <v>5</v>
       </c>
@@ -7803,8 +7807,8 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A144" s="1"/>
-      <c r="B144" s="128"/>
-      <c r="C144" s="129"/>
+      <c r="B144" s="131"/>
+      <c r="C144" s="132"/>
       <c r="D144" s="5">
         <v>0</v>
       </c>
@@ -7815,8 +7819,8 @@
         <v>0</v>
       </c>
       <c r="G144" s="2"/>
-      <c r="H144" s="128"/>
-      <c r="I144" s="129"/>
+      <c r="H144" s="131"/>
+      <c r="I144" s="132"/>
       <c r="J144" s="5">
         <v>0</v>
       </c>
@@ -7829,8 +7833,8 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A145" s="1"/>
-      <c r="B145" s="128"/>
-      <c r="C145" s="129"/>
+      <c r="B145" s="131"/>
+      <c r="C145" s="132"/>
       <c r="D145" s="5">
         <v>0.25</v>
       </c>
@@ -7841,8 +7845,8 @@
         <v>0.48</v>
       </c>
       <c r="G145" s="2"/>
-      <c r="H145" s="128"/>
-      <c r="I145" s="129"/>
+      <c r="H145" s="131"/>
+      <c r="I145" s="132"/>
       <c r="J145" s="5">
         <v>0.25</v>
       </c>
@@ -7855,8 +7859,8 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A146" s="1"/>
-      <c r="B146" s="128"/>
-      <c r="C146" s="129"/>
+      <c r="B146" s="131"/>
+      <c r="C146" s="132"/>
       <c r="D146" s="5">
         <v>0.5</v>
       </c>
@@ -7867,8 +7871,8 @@
         <v>1.08</v>
       </c>
       <c r="G146" s="2"/>
-      <c r="H146" s="128"/>
-      <c r="I146" s="129"/>
+      <c r="H146" s="131"/>
+      <c r="I146" s="132"/>
       <c r="J146" s="5">
         <v>0.5</v>
       </c>
@@ -7881,8 +7885,8 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A147" s="1"/>
-      <c r="B147" s="128"/>
-      <c r="C147" s="129"/>
+      <c r="B147" s="131"/>
+      <c r="C147" s="132"/>
       <c r="D147" s="5">
         <v>0.75</v>
       </c>
@@ -7893,8 +7897,8 @@
         <v>1.73</v>
       </c>
       <c r="G147" s="2"/>
-      <c r="H147" s="128"/>
-      <c r="I147" s="129"/>
+      <c r="H147" s="131"/>
+      <c r="I147" s="132"/>
       <c r="J147" s="5">
         <v>0.75</v>
       </c>
@@ -7907,8 +7911,8 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A148" s="1"/>
-      <c r="B148" s="128"/>
-      <c r="C148" s="129"/>
+      <c r="B148" s="131"/>
+      <c r="C148" s="132"/>
       <c r="D148" s="5">
         <v>1</v>
       </c>
@@ -7919,8 +7923,8 @@
         <v>2.46</v>
       </c>
       <c r="G148" s="2"/>
-      <c r="H148" s="128"/>
-      <c r="I148" s="129"/>
+      <c r="H148" s="131"/>
+      <c r="I148" s="132"/>
       <c r="J148" s="5">
         <v>1</v>
       </c>
@@ -7933,8 +7937,8 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A149" s="1"/>
-      <c r="B149" s="128"/>
-      <c r="C149" s="129"/>
+      <c r="B149" s="131"/>
+      <c r="C149" s="132"/>
       <c r="D149" s="5">
         <v>1.5</v>
       </c>
@@ -7945,8 +7949,8 @@
         <v>4.04</v>
       </c>
       <c r="G149" s="2"/>
-      <c r="H149" s="128"/>
-      <c r="I149" s="129"/>
+      <c r="H149" s="131"/>
+      <c r="I149" s="132"/>
       <c r="J149" s="5">
         <v>1.5</v>
       </c>
@@ -7959,8 +7963,8 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A150" s="1"/>
-      <c r="B150" s="128"/>
-      <c r="C150" s="129"/>
+      <c r="B150" s="131"/>
+      <c r="C150" s="132"/>
       <c r="D150" s="5">
         <v>2</v>
       </c>
@@ -7971,8 +7975,8 @@
         <v>5.51</v>
       </c>
       <c r="G150" s="2"/>
-      <c r="H150" s="128"/>
-      <c r="I150" s="129"/>
+      <c r="H150" s="131"/>
+      <c r="I150" s="132"/>
       <c r="J150" s="5">
         <v>2</v>
       </c>
@@ -7985,8 +7989,8 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A151" s="1"/>
-      <c r="B151" s="128"/>
-      <c r="C151" s="129"/>
+      <c r="B151" s="131"/>
+      <c r="C151" s="132"/>
       <c r="D151" s="5">
         <v>2.5</v>
       </c>
@@ -7997,8 +8001,8 @@
         <v>6.71</v>
       </c>
       <c r="G151" s="2"/>
-      <c r="H151" s="128"/>
-      <c r="I151" s="129"/>
+      <c r="H151" s="131"/>
+      <c r="I151" s="132"/>
       <c r="J151" s="5">
         <v>2.5</v>
       </c>
@@ -8011,8 +8015,8 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A152" s="1"/>
-      <c r="B152" s="128"/>
-      <c r="C152" s="129"/>
+      <c r="B152" s="131"/>
+      <c r="C152" s="132"/>
       <c r="D152" s="5">
         <v>3</v>
       </c>
@@ -8023,8 +8027,8 @@
         <v>7.81</v>
       </c>
       <c r="G152" s="2"/>
-      <c r="H152" s="128"/>
-      <c r="I152" s="129"/>
+      <c r="H152" s="131"/>
+      <c r="I152" s="132"/>
       <c r="J152" s="5">
         <v>3</v>
       </c>
@@ -8037,8 +8041,8 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A153" s="1"/>
-      <c r="B153" s="128"/>
-      <c r="C153" s="129"/>
+      <c r="B153" s="131"/>
+      <c r="C153" s="132"/>
       <c r="D153" s="5">
         <v>3.5</v>
       </c>
@@ -8049,8 +8053,8 @@
         <v>8.76</v>
       </c>
       <c r="G153" s="2"/>
-      <c r="H153" s="128"/>
-      <c r="I153" s="129"/>
+      <c r="H153" s="131"/>
+      <c r="I153" s="132"/>
       <c r="J153" s="5">
         <v>3.5</v>
       </c>
@@ -8063,8 +8067,8 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A154" s="1"/>
-      <c r="B154" s="128"/>
-      <c r="C154" s="129"/>
+      <c r="B154" s="131"/>
+      <c r="C154" s="132"/>
       <c r="D154" s="5">
         <v>4</v>
       </c>
@@ -8075,8 +8079,8 @@
         <v>9.61</v>
       </c>
       <c r="G154" s="2"/>
-      <c r="H154" s="128"/>
-      <c r="I154" s="129"/>
+      <c r="H154" s="131"/>
+      <c r="I154" s="132"/>
       <c r="J154" s="5">
         <v>4</v>
       </c>
@@ -8089,8 +8093,8 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A155" s="1"/>
-      <c r="B155" s="128"/>
-      <c r="C155" s="129"/>
+      <c r="B155" s="131"/>
+      <c r="C155" s="132"/>
       <c r="D155" s="5">
         <v>4.5</v>
       </c>
@@ -8101,8 +8105,8 @@
         <v>10.29</v>
       </c>
       <c r="G155" s="2"/>
-      <c r="H155" s="128"/>
-      <c r="I155" s="129"/>
+      <c r="H155" s="131"/>
+      <c r="I155" s="132"/>
       <c r="J155" s="5">
         <v>4.5</v>
       </c>
@@ -8115,8 +8119,8 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A156" s="1"/>
-      <c r="B156" s="128"/>
-      <c r="C156" s="129"/>
+      <c r="B156" s="131"/>
+      <c r="C156" s="132"/>
       <c r="D156" s="5">
         <v>5</v>
       </c>
@@ -8127,8 +8131,8 @@
         <v>10.91</v>
       </c>
       <c r="G156" s="2"/>
-      <c r="H156" s="128"/>
-      <c r="I156" s="129"/>
+      <c r="H156" s="131"/>
+      <c r="I156" s="132"/>
       <c r="J156" s="5">
         <v>5</v>
       </c>
@@ -8141,8 +8145,8 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A157" s="1"/>
-      <c r="B157" s="128"/>
-      <c r="C157" s="129"/>
+      <c r="B157" s="131"/>
+      <c r="C157" s="132"/>
       <c r="D157" s="5">
         <v>5.5</v>
       </c>
@@ -8153,8 +8157,8 @@
         <v>11.51</v>
       </c>
       <c r="G157" s="2"/>
-      <c r="H157" s="128"/>
-      <c r="I157" s="129"/>
+      <c r="H157" s="131"/>
+      <c r="I157" s="132"/>
       <c r="J157" s="5">
         <v>5.5</v>
       </c>
@@ -8167,8 +8171,8 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A158" s="1"/>
-      <c r="B158" s="128"/>
-      <c r="C158" s="129"/>
+      <c r="B158" s="131"/>
+      <c r="C158" s="132"/>
       <c r="D158" s="5">
         <v>6</v>
       </c>
@@ -8179,8 +8183,8 @@
         <v>12.06</v>
       </c>
       <c r="G158" s="2"/>
-      <c r="H158" s="128"/>
-      <c r="I158" s="129"/>
+      <c r="H158" s="131"/>
+      <c r="I158" s="132"/>
       <c r="J158" s="5">
         <v>6</v>
       </c>
@@ -8193,8 +8197,8 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A159" s="1"/>
-      <c r="B159" s="128"/>
-      <c r="C159" s="129"/>
+      <c r="B159" s="131"/>
+      <c r="C159" s="132"/>
       <c r="D159" s="5">
         <v>7</v>
       </c>
@@ -8205,8 +8209,8 @@
         <v>13.16</v>
       </c>
       <c r="G159" s="2"/>
-      <c r="H159" s="128"/>
-      <c r="I159" s="129"/>
+      <c r="H159" s="131"/>
+      <c r="I159" s="132"/>
       <c r="J159" s="5">
         <v>7</v>
       </c>
@@ -8219,8 +8223,8 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A160" s="1"/>
-      <c r="B160" s="128"/>
-      <c r="C160" s="129"/>
+      <c r="B160" s="131"/>
+      <c r="C160" s="132"/>
       <c r="D160" s="5">
         <v>8</v>
       </c>
@@ -8231,8 +8235,8 @@
         <v>14.26</v>
       </c>
       <c r="G160" s="2"/>
-      <c r="H160" s="128"/>
-      <c r="I160" s="129"/>
+      <c r="H160" s="131"/>
+      <c r="I160" s="132"/>
       <c r="J160" s="5">
         <v>8</v>
       </c>
@@ -8245,8 +8249,8 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A161" s="1"/>
-      <c r="B161" s="130"/>
-      <c r="C161" s="131"/>
+      <c r="B161" s="133"/>
+      <c r="C161" s="134"/>
       <c r="D161" s="5">
         <v>9</v>
       </c>
@@ -8257,8 +8261,8 @@
         <v>15.36</v>
       </c>
       <c r="G161" s="2"/>
-      <c r="H161" s="130"/>
-      <c r="I161" s="131"/>
+      <c r="H161" s="133"/>
+      <c r="I161" s="134"/>
       <c r="J161" s="5">
         <v>9</v>
       </c>
@@ -8271,10 +8275,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A162" s="1"/>
-      <c r="B162" s="124" t="s">
+      <c r="B162" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="125"/>
+      <c r="C162" s="136"/>
       <c r="D162" s="5">
         <v>10</v>
       </c>
@@ -8285,10 +8289,10 @@
         <v>16.46</v>
       </c>
       <c r="G162" s="2"/>
-      <c r="H162" s="124" t="s">
+      <c r="H162" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="I162" s="125"/>
+      <c r="I162" s="136"/>
       <c r="J162" s="5">
         <v>10</v>
       </c>
@@ -8479,10 +8483,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A170" s="1"/>
-      <c r="B170" s="126" t="s">
+      <c r="B170" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="C170" s="127"/>
+      <c r="C170" s="130"/>
       <c r="D170" s="3" t="s">
         <v>1</v>
       </c>
@@ -8493,10 +8497,10 @@
         <v>3</v>
       </c>
       <c r="G170" s="2"/>
-      <c r="H170" s="126" t="s">
+      <c r="H170" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="I170" s="127"/>
+      <c r="I170" s="130"/>
       <c r="J170" s="3" t="s">
         <v>1</v>
       </c>
@@ -8509,8 +8513,8 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A171" s="1"/>
-      <c r="B171" s="128"/>
-      <c r="C171" s="129"/>
+      <c r="B171" s="131"/>
+      <c r="C171" s="132"/>
       <c r="D171" s="4" t="s">
         <v>5</v>
       </c>
@@ -8521,8 +8525,8 @@
         <v>7</v>
       </c>
       <c r="G171" s="2"/>
-      <c r="H171" s="128"/>
-      <c r="I171" s="129"/>
+      <c r="H171" s="131"/>
+      <c r="I171" s="132"/>
       <c r="J171" s="4" t="s">
         <v>5</v>
       </c>
@@ -8535,8 +8539,8 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A172" s="1"/>
-      <c r="B172" s="128"/>
-      <c r="C172" s="129"/>
+      <c r="B172" s="131"/>
+      <c r="C172" s="132"/>
       <c r="D172" s="5">
         <v>0</v>
       </c>
@@ -8547,8 +8551,8 @@
         <v>0</v>
       </c>
       <c r="G172" s="2"/>
-      <c r="H172" s="128"/>
-      <c r="I172" s="129"/>
+      <c r="H172" s="131"/>
+      <c r="I172" s="132"/>
       <c r="J172" s="5">
         <v>0</v>
       </c>
@@ -8561,8 +8565,8 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A173" s="1"/>
-      <c r="B173" s="128"/>
-      <c r="C173" s="129"/>
+      <c r="B173" s="131"/>
+      <c r="C173" s="132"/>
       <c r="D173" s="5">
         <v>0.25</v>
       </c>
@@ -8573,8 +8577,8 @@
         <v>0.38</v>
       </c>
       <c r="G173" s="2"/>
-      <c r="H173" s="128"/>
-      <c r="I173" s="129"/>
+      <c r="H173" s="131"/>
+      <c r="I173" s="132"/>
       <c r="J173" s="5">
         <v>0.25</v>
       </c>
@@ -8587,8 +8591,8 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A174" s="1"/>
-      <c r="B174" s="128"/>
-      <c r="C174" s="129"/>
+      <c r="B174" s="131"/>
+      <c r="C174" s="132"/>
       <c r="D174" s="5">
         <v>0.5</v>
       </c>
@@ -8599,8 +8603,8 @@
         <v>0.81</v>
       </c>
       <c r="G174" s="2"/>
-      <c r="H174" s="128"/>
-      <c r="I174" s="129"/>
+      <c r="H174" s="131"/>
+      <c r="I174" s="132"/>
       <c r="J174" s="5">
         <v>0.5</v>
       </c>
@@ -8613,8 +8617,8 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A175" s="1"/>
-      <c r="B175" s="128"/>
-      <c r="C175" s="129"/>
+      <c r="B175" s="131"/>
+      <c r="C175" s="132"/>
       <c r="D175" s="5">
         <v>0.75</v>
       </c>
@@ -8625,8 +8629,8 @@
         <v>1.37</v>
       </c>
       <c r="G175" s="2"/>
-      <c r="H175" s="128"/>
-      <c r="I175" s="129"/>
+      <c r="H175" s="131"/>
+      <c r="I175" s="132"/>
       <c r="J175" s="5">
         <v>0.75</v>
       </c>
@@ -8639,8 +8643,8 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A176" s="1"/>
-      <c r="B176" s="128"/>
-      <c r="C176" s="129"/>
+      <c r="B176" s="131"/>
+      <c r="C176" s="132"/>
       <c r="D176" s="5">
         <v>1</v>
       </c>
@@ -8651,8 +8655,8 @@
         <v>1.91</v>
       </c>
       <c r="G176" s="2"/>
-      <c r="H176" s="128"/>
-      <c r="I176" s="129"/>
+      <c r="H176" s="131"/>
+      <c r="I176" s="132"/>
       <c r="J176" s="5">
         <v>1</v>
       </c>
@@ -8665,8 +8669,8 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A177" s="1"/>
-      <c r="B177" s="128"/>
-      <c r="C177" s="129"/>
+      <c r="B177" s="131"/>
+      <c r="C177" s="132"/>
       <c r="D177" s="5">
         <v>1.5</v>
       </c>
@@ -8677,8 +8681,8 @@
         <v>3.05</v>
       </c>
       <c r="G177" s="2"/>
-      <c r="H177" s="128"/>
-      <c r="I177" s="129"/>
+      <c r="H177" s="131"/>
+      <c r="I177" s="132"/>
       <c r="J177" s="5">
         <v>1.5</v>
       </c>
@@ -8691,8 +8695,8 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A178" s="1"/>
-      <c r="B178" s="128"/>
-      <c r="C178" s="129"/>
+      <c r="B178" s="131"/>
+      <c r="C178" s="132"/>
       <c r="D178" s="5">
         <v>2</v>
       </c>
@@ -8703,8 +8707,8 @@
         <v>4.17</v>
       </c>
       <c r="G178" s="2"/>
-      <c r="H178" s="128"/>
-      <c r="I178" s="129"/>
+      <c r="H178" s="131"/>
+      <c r="I178" s="132"/>
       <c r="J178" s="5">
         <v>2</v>
       </c>
@@ -8717,8 +8721,8 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A179" s="1"/>
-      <c r="B179" s="128"/>
-      <c r="C179" s="129"/>
+      <c r="B179" s="131"/>
+      <c r="C179" s="132"/>
       <c r="D179" s="5">
         <v>2.5</v>
       </c>
@@ -8729,8 +8733,8 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="G179" s="2"/>
-      <c r="H179" s="128"/>
-      <c r="I179" s="129"/>
+      <c r="H179" s="131"/>
+      <c r="I179" s="132"/>
       <c r="J179" s="5">
         <v>2.5</v>
       </c>
@@ -8743,8 +8747,8 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A180" s="1"/>
-      <c r="B180" s="128"/>
-      <c r="C180" s="129"/>
+      <c r="B180" s="131"/>
+      <c r="C180" s="132"/>
       <c r="D180" s="5">
         <v>3</v>
       </c>
@@ -8755,8 +8759,8 @@
         <v>6.03</v>
       </c>
       <c r="G180" s="2"/>
-      <c r="H180" s="128"/>
-      <c r="I180" s="129"/>
+      <c r="H180" s="131"/>
+      <c r="I180" s="132"/>
       <c r="J180" s="5">
         <v>3</v>
       </c>
@@ -8769,8 +8773,8 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A181" s="1"/>
-      <c r="B181" s="128"/>
-      <c r="C181" s="129"/>
+      <c r="B181" s="131"/>
+      <c r="C181" s="132"/>
       <c r="D181" s="5">
         <v>3.5</v>
       </c>
@@ -8781,8 +8785,8 @@
         <v>6.79</v>
       </c>
       <c r="G181" s="2"/>
-      <c r="H181" s="128"/>
-      <c r="I181" s="129"/>
+      <c r="H181" s="131"/>
+      <c r="I181" s="132"/>
       <c r="J181" s="5">
         <v>3.5</v>
       </c>
@@ -8795,8 +8799,8 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A182" s="1"/>
-      <c r="B182" s="128"/>
-      <c r="C182" s="129"/>
+      <c r="B182" s="131"/>
+      <c r="C182" s="132"/>
       <c r="D182" s="5">
         <v>4</v>
       </c>
@@ -8807,8 +8811,8 @@
         <v>7.45</v>
       </c>
       <c r="G182" s="2"/>
-      <c r="H182" s="128"/>
-      <c r="I182" s="129"/>
+      <c r="H182" s="131"/>
+      <c r="I182" s="132"/>
       <c r="J182" s="5">
         <v>4</v>
       </c>
@@ -8821,8 +8825,8 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A183" s="1"/>
-      <c r="B183" s="128"/>
-      <c r="C183" s="129"/>
+      <c r="B183" s="131"/>
+      <c r="C183" s="132"/>
       <c r="D183" s="5">
         <v>4.5</v>
       </c>
@@ -8833,8 +8837,8 @@
         <v>8.09</v>
       </c>
       <c r="G183" s="2"/>
-      <c r="H183" s="128"/>
-      <c r="I183" s="129"/>
+      <c r="H183" s="131"/>
+      <c r="I183" s="132"/>
       <c r="J183" s="5">
         <v>4.5</v>
       </c>
@@ -8847,8 +8851,8 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A184" s="1"/>
-      <c r="B184" s="128"/>
-      <c r="C184" s="129"/>
+      <c r="B184" s="131"/>
+      <c r="C184" s="132"/>
       <c r="D184" s="5">
         <v>5</v>
       </c>
@@ -8859,8 +8863,8 @@
         <v>8.49</v>
       </c>
       <c r="G184" s="2"/>
-      <c r="H184" s="128"/>
-      <c r="I184" s="129"/>
+      <c r="H184" s="131"/>
+      <c r="I184" s="132"/>
       <c r="J184" s="5">
         <v>5</v>
       </c>
@@ -8873,8 +8877,8 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A185" s="1"/>
-      <c r="B185" s="128"/>
-      <c r="C185" s="129"/>
+      <c r="B185" s="131"/>
+      <c r="C185" s="132"/>
       <c r="D185" s="5">
         <v>5.5</v>
       </c>
@@ -8885,8 +8889,8 @@
         <v>8.91</v>
       </c>
       <c r="G185" s="2"/>
-      <c r="H185" s="128"/>
-      <c r="I185" s="129"/>
+      <c r="H185" s="131"/>
+      <c r="I185" s="132"/>
       <c r="J185" s="5">
         <v>5.5</v>
       </c>
@@ -8899,8 +8903,8 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A186" s="1"/>
-      <c r="B186" s="128"/>
-      <c r="C186" s="129"/>
+      <c r="B186" s="131"/>
+      <c r="C186" s="132"/>
       <c r="D186" s="5">
         <v>6</v>
       </c>
@@ -8911,8 +8915,8 @@
         <v>9.25</v>
       </c>
       <c r="G186" s="2"/>
-      <c r="H186" s="128"/>
-      <c r="I186" s="129"/>
+      <c r="H186" s="131"/>
+      <c r="I186" s="132"/>
       <c r="J186" s="5">
         <v>6</v>
       </c>
@@ -8925,8 +8929,8 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A187" s="1"/>
-      <c r="B187" s="128"/>
-      <c r="C187" s="129"/>
+      <c r="B187" s="131"/>
+      <c r="C187" s="132"/>
       <c r="D187" s="5">
         <v>7</v>
       </c>
@@ -8937,8 +8941,8 @@
         <v>9.93</v>
       </c>
       <c r="G187" s="2"/>
-      <c r="H187" s="128"/>
-      <c r="I187" s="129"/>
+      <c r="H187" s="131"/>
+      <c r="I187" s="132"/>
       <c r="J187" s="5">
         <v>7</v>
       </c>
@@ -8951,8 +8955,8 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A188" s="1"/>
-      <c r="B188" s="128"/>
-      <c r="C188" s="129"/>
+      <c r="B188" s="131"/>
+      <c r="C188" s="132"/>
       <c r="D188" s="5">
         <v>8</v>
       </c>
@@ -8963,8 +8967,8 @@
         <v>10.61</v>
       </c>
       <c r="G188" s="2"/>
-      <c r="H188" s="128"/>
-      <c r="I188" s="129"/>
+      <c r="H188" s="131"/>
+      <c r="I188" s="132"/>
       <c r="J188" s="5">
         <v>8</v>
       </c>
@@ -8977,8 +8981,8 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A189" s="1"/>
-      <c r="B189" s="130"/>
-      <c r="C189" s="131"/>
+      <c r="B189" s="133"/>
+      <c r="C189" s="134"/>
       <c r="D189" s="5">
         <v>9</v>
       </c>
@@ -8989,8 +8993,8 @@
         <v>11.29</v>
       </c>
       <c r="G189" s="2"/>
-      <c r="H189" s="130"/>
-      <c r="I189" s="131"/>
+      <c r="H189" s="133"/>
+      <c r="I189" s="134"/>
       <c r="J189" s="5">
         <v>9</v>
       </c>
@@ -9003,10 +9007,10 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A190" s="1"/>
-      <c r="B190" s="124" t="s">
+      <c r="B190" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C190" s="125"/>
+      <c r="C190" s="136"/>
       <c r="D190" s="5">
         <v>10</v>
       </c>
@@ -9017,10 +9021,10 @@
         <v>11.97</v>
       </c>
       <c r="G190" s="2"/>
-      <c r="H190" s="124" t="s">
+      <c r="H190" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="I190" s="125"/>
+      <c r="I190" s="136"/>
       <c r="J190" s="5">
         <v>10</v>
       </c>
@@ -9211,10 +9215,10 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A198" s="1"/>
-      <c r="B198" s="126" t="s">
+      <c r="B198" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="C198" s="127"/>
+      <c r="C198" s="130"/>
       <c r="D198" s="3" t="s">
         <v>1</v>
       </c>
@@ -9225,10 +9229,10 @@
         <v>3</v>
       </c>
       <c r="G198" s="2"/>
-      <c r="H198" s="126" t="s">
+      <c r="H198" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="I198" s="127"/>
+      <c r="I198" s="130"/>
       <c r="J198" s="3" t="s">
         <v>1</v>
       </c>
@@ -9241,8 +9245,8 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A199" s="1"/>
-      <c r="B199" s="128"/>
-      <c r="C199" s="129"/>
+      <c r="B199" s="131"/>
+      <c r="C199" s="132"/>
       <c r="D199" s="4" t="s">
         <v>5</v>
       </c>
@@ -9253,8 +9257,8 @@
         <v>7</v>
       </c>
       <c r="G199" s="2"/>
-      <c r="H199" s="128"/>
-      <c r="I199" s="129"/>
+      <c r="H199" s="131"/>
+      <c r="I199" s="132"/>
       <c r="J199" s="4" t="s">
         <v>5</v>
       </c>
@@ -9267,8 +9271,8 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A200" s="1"/>
-      <c r="B200" s="128"/>
-      <c r="C200" s="129"/>
+      <c r="B200" s="131"/>
+      <c r="C200" s="132"/>
       <c r="D200" s="5">
         <v>0</v>
       </c>
@@ -9279,8 +9283,8 @@
         <v>0</v>
       </c>
       <c r="G200" s="2"/>
-      <c r="H200" s="128"/>
-      <c r="I200" s="129"/>
+      <c r="H200" s="131"/>
+      <c r="I200" s="132"/>
       <c r="J200" s="5">
         <v>0</v>
       </c>
@@ -9293,8 +9297,8 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A201" s="1"/>
-      <c r="B201" s="128"/>
-      <c r="C201" s="129"/>
+      <c r="B201" s="131"/>
+      <c r="C201" s="132"/>
       <c r="D201" s="5">
         <v>0.25</v>
       </c>
@@ -9305,8 +9309,8 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G201" s="2"/>
-      <c r="H201" s="128"/>
-      <c r="I201" s="129"/>
+      <c r="H201" s="131"/>
+      <c r="I201" s="132"/>
       <c r="J201" s="5">
         <v>0.25</v>
       </c>
@@ -9319,8 +9323,8 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A202" s="1"/>
-      <c r="B202" s="128"/>
-      <c r="C202" s="129"/>
+      <c r="B202" s="131"/>
+      <c r="C202" s="132"/>
       <c r="D202" s="5">
         <v>0.5</v>
       </c>
@@ -9331,8 +9335,8 @@
         <v>1.23</v>
       </c>
       <c r="G202" s="2"/>
-      <c r="H202" s="128"/>
-      <c r="I202" s="129"/>
+      <c r="H202" s="131"/>
+      <c r="I202" s="132"/>
       <c r="J202" s="5">
         <v>0.5</v>
       </c>
@@ -9345,8 +9349,8 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A203" s="1"/>
-      <c r="B203" s="128"/>
-      <c r="C203" s="129"/>
+      <c r="B203" s="131"/>
+      <c r="C203" s="132"/>
       <c r="D203" s="5">
         <v>0.75</v>
       </c>
@@ -9357,8 +9361,8 @@
         <v>1.98</v>
       </c>
       <c r="G203" s="2"/>
-      <c r="H203" s="128"/>
-      <c r="I203" s="129"/>
+      <c r="H203" s="131"/>
+      <c r="I203" s="132"/>
       <c r="J203" s="5">
         <v>0.75</v>
       </c>
@@ -9371,8 +9375,8 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A204" s="1"/>
-      <c r="B204" s="128"/>
-      <c r="C204" s="129"/>
+      <c r="B204" s="131"/>
+      <c r="C204" s="132"/>
       <c r="D204" s="5">
         <v>1</v>
       </c>
@@ -9383,8 +9387,8 @@
         <v>2.75</v>
       </c>
       <c r="G204" s="2"/>
-      <c r="H204" s="128"/>
-      <c r="I204" s="129"/>
+      <c r="H204" s="131"/>
+      <c r="I204" s="132"/>
       <c r="J204" s="5">
         <v>1</v>
       </c>
@@ -9397,8 +9401,8 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A205" s="1"/>
-      <c r="B205" s="128"/>
-      <c r="C205" s="129"/>
+      <c r="B205" s="131"/>
+      <c r="C205" s="132"/>
       <c r="D205" s="5">
         <v>1.5</v>
       </c>
@@ -9409,8 +9413,8 @@
         <v>4.28</v>
       </c>
       <c r="G205" s="2"/>
-      <c r="H205" s="128"/>
-      <c r="I205" s="129"/>
+      <c r="H205" s="131"/>
+      <c r="I205" s="132"/>
       <c r="J205" s="5">
         <v>1.5</v>
       </c>
@@ -9423,8 +9427,8 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A206" s="1"/>
-      <c r="B206" s="128"/>
-      <c r="C206" s="129"/>
+      <c r="B206" s="131"/>
+      <c r="C206" s="132"/>
       <c r="D206" s="5">
         <v>2</v>
       </c>
@@ -9435,8 +9439,8 @@
         <v>5.63</v>
       </c>
       <c r="G206" s="2"/>
-      <c r="H206" s="128"/>
-      <c r="I206" s="129"/>
+      <c r="H206" s="131"/>
+      <c r="I206" s="132"/>
       <c r="J206" s="5">
         <v>2</v>
       </c>
@@ -9449,8 +9453,8 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A207" s="1"/>
-      <c r="B207" s="128"/>
-      <c r="C207" s="129"/>
+      <c r="B207" s="131"/>
+      <c r="C207" s="132"/>
       <c r="D207" s="5">
         <v>2.5</v>
       </c>
@@ -9461,8 +9465,8 @@
         <v>6.93</v>
       </c>
       <c r="G207" s="2"/>
-      <c r="H207" s="128"/>
-      <c r="I207" s="129"/>
+      <c r="H207" s="131"/>
+      <c r="I207" s="132"/>
       <c r="J207" s="5">
         <v>2.5</v>
       </c>
@@ -9475,8 +9479,8 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A208" s="1"/>
-      <c r="B208" s="128"/>
-      <c r="C208" s="129"/>
+      <c r="B208" s="131"/>
+      <c r="C208" s="132"/>
       <c r="D208" s="5">
         <v>3</v>
       </c>
@@ -9487,8 +9491,8 @@
         <v>8.18</v>
       </c>
       <c r="G208" s="2"/>
-      <c r="H208" s="128"/>
-      <c r="I208" s="129"/>
+      <c r="H208" s="131"/>
+      <c r="I208" s="132"/>
       <c r="J208" s="5">
         <v>3</v>
       </c>
@@ -9501,8 +9505,8 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A209" s="1"/>
-      <c r="B209" s="128"/>
-      <c r="C209" s="129"/>
+      <c r="B209" s="131"/>
+      <c r="C209" s="132"/>
       <c r="D209" s="5">
         <v>3.5</v>
       </c>
@@ -9513,8 +9517,8 @@
         <v>9.35</v>
       </c>
       <c r="G209" s="2"/>
-      <c r="H209" s="128"/>
-      <c r="I209" s="129"/>
+      <c r="H209" s="131"/>
+      <c r="I209" s="132"/>
       <c r="J209" s="5">
         <v>3.5</v>
       </c>
@@ -9527,8 +9531,8 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A210" s="1"/>
-      <c r="B210" s="128"/>
-      <c r="C210" s="129"/>
+      <c r="B210" s="131"/>
+      <c r="C210" s="132"/>
       <c r="D210" s="5">
         <v>4</v>
       </c>
@@ -9539,8 +9543,8 @@
         <v>10.35</v>
       </c>
       <c r="G210" s="2"/>
-      <c r="H210" s="128"/>
-      <c r="I210" s="129"/>
+      <c r="H210" s="131"/>
+      <c r="I210" s="132"/>
       <c r="J210" s="5">
         <v>4</v>
       </c>
@@ -9553,8 +9557,8 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A211" s="1"/>
-      <c r="B211" s="128"/>
-      <c r="C211" s="129"/>
+      <c r="B211" s="131"/>
+      <c r="C211" s="132"/>
       <c r="D211" s="5">
         <v>4.5</v>
       </c>
@@ -9565,8 +9569,8 @@
         <v>11.23</v>
       </c>
       <c r="G211" s="2"/>
-      <c r="H211" s="128"/>
-      <c r="I211" s="129"/>
+      <c r="H211" s="131"/>
+      <c r="I211" s="132"/>
       <c r="J211" s="5">
         <v>4.5</v>
       </c>
@@ -9579,8 +9583,8 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A212" s="1"/>
-      <c r="B212" s="128"/>
-      <c r="C212" s="129"/>
+      <c r="B212" s="131"/>
+      <c r="C212" s="132"/>
       <c r="D212" s="5">
         <v>5</v>
       </c>
@@ -9591,8 +9595,8 @@
         <v>11.98</v>
       </c>
       <c r="G212" s="2"/>
-      <c r="H212" s="128"/>
-      <c r="I212" s="129"/>
+      <c r="H212" s="131"/>
+      <c r="I212" s="132"/>
       <c r="J212" s="5">
         <v>5</v>
       </c>
@@ -9605,8 +9609,8 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A213" s="1"/>
-      <c r="B213" s="128"/>
-      <c r="C213" s="129"/>
+      <c r="B213" s="131"/>
+      <c r="C213" s="132"/>
       <c r="D213" s="5">
         <v>5.5</v>
       </c>
@@ -9617,8 +9621,8 @@
         <v>12.58</v>
       </c>
       <c r="G213" s="2"/>
-      <c r="H213" s="128"/>
-      <c r="I213" s="129"/>
+      <c r="H213" s="131"/>
+      <c r="I213" s="132"/>
       <c r="J213" s="5">
         <v>5.5</v>
       </c>
@@ -9631,8 +9635,8 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
-      <c r="B214" s="128"/>
-      <c r="C214" s="129"/>
+      <c r="B214" s="131"/>
+      <c r="C214" s="132"/>
       <c r="D214" s="5">
         <v>6</v>
       </c>
@@ -9643,8 +9647,8 @@
         <v>13.08</v>
       </c>
       <c r="G214" s="2"/>
-      <c r="H214" s="128"/>
-      <c r="I214" s="129"/>
+      <c r="H214" s="131"/>
+      <c r="I214" s="132"/>
       <c r="J214" s="5">
         <v>6</v>
       </c>
@@ -9657,8 +9661,8 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
-      <c r="B215" s="128"/>
-      <c r="C215" s="129"/>
+      <c r="B215" s="131"/>
+      <c r="C215" s="132"/>
       <c r="D215" s="5">
         <v>7</v>
       </c>
@@ -9669,8 +9673,8 @@
         <v>14.08</v>
       </c>
       <c r="G215" s="2"/>
-      <c r="H215" s="128"/>
-      <c r="I215" s="129"/>
+      <c r="H215" s="131"/>
+      <c r="I215" s="132"/>
       <c r="J215" s="5">
         <v>7</v>
       </c>
@@ -9683,8 +9687,8 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
-      <c r="B216" s="128"/>
-      <c r="C216" s="129"/>
+      <c r="B216" s="131"/>
+      <c r="C216" s="132"/>
       <c r="D216" s="5">
         <v>8</v>
       </c>
@@ -9695,8 +9699,8 @@
         <v>15.08</v>
       </c>
       <c r="G216" s="2"/>
-      <c r="H216" s="128"/>
-      <c r="I216" s="129"/>
+      <c r="H216" s="131"/>
+      <c r="I216" s="132"/>
       <c r="J216" s="5">
         <v>8</v>
       </c>
@@ -9709,8 +9713,8 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
-      <c r="B217" s="130"/>
-      <c r="C217" s="131"/>
+      <c r="B217" s="133"/>
+      <c r="C217" s="134"/>
       <c r="D217" s="5">
         <v>9</v>
       </c>
@@ -9721,8 +9725,8 @@
         <v>16.079999999999998</v>
       </c>
       <c r="G217" s="2"/>
-      <c r="H217" s="130"/>
-      <c r="I217" s="131"/>
+      <c r="H217" s="133"/>
+      <c r="I217" s="134"/>
       <c r="J217" s="5">
         <v>9</v>
       </c>
@@ -9735,10 +9739,10 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
-      <c r="B218" s="124" t="s">
+      <c r="B218" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C218" s="125"/>
+      <c r="C218" s="136"/>
       <c r="D218" s="5">
         <v>10</v>
       </c>
@@ -9749,10 +9753,10 @@
         <v>17.079999999999998</v>
       </c>
       <c r="G218" s="2"/>
-      <c r="H218" s="124" t="s">
+      <c r="H218" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="I218" s="125"/>
+      <c r="I218" s="136"/>
       <c r="J218" s="5">
         <v>10</v>
       </c>
@@ -9943,10 +9947,10 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
-      <c r="B226" s="126" t="s">
+      <c r="B226" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="C226" s="127"/>
+      <c r="C226" s="130"/>
       <c r="D226" s="3" t="s">
         <v>1</v>
       </c>
@@ -9957,10 +9961,10 @@
         <v>3</v>
       </c>
       <c r="G226" s="2"/>
-      <c r="H226" s="126" t="s">
+      <c r="H226" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="I226" s="127"/>
+      <c r="I226" s="130"/>
       <c r="J226" s="3" t="s">
         <v>1</v>
       </c>
@@ -9973,8 +9977,8 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
-      <c r="B227" s="128"/>
-      <c r="C227" s="129"/>
+      <c r="B227" s="131"/>
+      <c r="C227" s="132"/>
       <c r="D227" s="4" t="s">
         <v>5</v>
       </c>
@@ -9985,8 +9989,8 @@
         <v>7</v>
       </c>
       <c r="G227" s="2"/>
-      <c r="H227" s="128"/>
-      <c r="I227" s="129"/>
+      <c r="H227" s="131"/>
+      <c r="I227" s="132"/>
       <c r="J227" s="4" t="s">
         <v>5</v>
       </c>
@@ -9999,8 +10003,8 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
-      <c r="B228" s="128"/>
-      <c r="C228" s="129"/>
+      <c r="B228" s="131"/>
+      <c r="C228" s="132"/>
       <c r="D228" s="5">
         <v>0</v>
       </c>
@@ -10011,8 +10015,8 @@
         <v>0</v>
       </c>
       <c r="G228" s="2"/>
-      <c r="H228" s="128"/>
-      <c r="I228" s="129"/>
+      <c r="H228" s="131"/>
+      <c r="I228" s="132"/>
       <c r="J228" s="5">
         <v>0</v>
       </c>
@@ -10025,8 +10029,8 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
-      <c r="B229" s="128"/>
-      <c r="C229" s="129"/>
+      <c r="B229" s="131"/>
+      <c r="C229" s="132"/>
       <c r="D229" s="5">
         <v>0.25</v>
       </c>
@@ -10037,8 +10041,8 @@
         <v>0.39</v>
       </c>
       <c r="G229" s="2"/>
-      <c r="H229" s="128"/>
-      <c r="I229" s="129"/>
+      <c r="H229" s="131"/>
+      <c r="I229" s="132"/>
       <c r="J229" s="5">
         <v>0.25</v>
       </c>
@@ -10051,8 +10055,8 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
-      <c r="B230" s="128"/>
-      <c r="C230" s="129"/>
+      <c r="B230" s="131"/>
+      <c r="C230" s="132"/>
       <c r="D230" s="5">
         <v>0.5</v>
       </c>
@@ -10063,8 +10067,8 @@
         <v>0.84</v>
       </c>
       <c r="G230" s="2"/>
-      <c r="H230" s="128"/>
-      <c r="I230" s="129"/>
+      <c r="H230" s="131"/>
+      <c r="I230" s="132"/>
       <c r="J230" s="5">
         <v>0.5</v>
       </c>
@@ -10077,8 +10081,8 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
-      <c r="B231" s="128"/>
-      <c r="C231" s="129"/>
+      <c r="B231" s="131"/>
+      <c r="C231" s="132"/>
       <c r="D231" s="5">
         <v>0.75</v>
       </c>
@@ -10089,8 +10093,8 @@
         <v>1.39</v>
       </c>
       <c r="G231" s="2"/>
-      <c r="H231" s="128"/>
-      <c r="I231" s="129"/>
+      <c r="H231" s="131"/>
+      <c r="I231" s="132"/>
       <c r="J231" s="5">
         <v>0.75</v>
       </c>
@@ -10103,8 +10107,8 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
-      <c r="B232" s="128"/>
-      <c r="C232" s="129"/>
+      <c r="B232" s="131"/>
+      <c r="C232" s="132"/>
       <c r="D232" s="5">
         <v>1</v>
       </c>
@@ -10115,8 +10119,8 @@
         <v>1.96</v>
       </c>
       <c r="G232" s="2"/>
-      <c r="H232" s="128"/>
-      <c r="I232" s="129"/>
+      <c r="H232" s="131"/>
+      <c r="I232" s="132"/>
       <c r="J232" s="5">
         <v>1</v>
       </c>
@@ -10129,8 +10133,8 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
-      <c r="B233" s="128"/>
-      <c r="C233" s="129"/>
+      <c r="B233" s="131"/>
+      <c r="C233" s="132"/>
       <c r="D233" s="5">
         <v>1.5</v>
       </c>
@@ -10141,8 +10145,8 @@
         <v>3.2</v>
       </c>
       <c r="G233" s="2"/>
-      <c r="H233" s="128"/>
-      <c r="I233" s="129"/>
+      <c r="H233" s="131"/>
+      <c r="I233" s="132"/>
       <c r="J233" s="5">
         <v>1.5</v>
       </c>
@@ -10155,8 +10159,8 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
-      <c r="B234" s="128"/>
-      <c r="C234" s="129"/>
+      <c r="B234" s="131"/>
+      <c r="C234" s="132"/>
       <c r="D234" s="5">
         <v>2</v>
       </c>
@@ -10167,8 +10171,8 @@
         <v>4.38</v>
       </c>
       <c r="G234" s="2"/>
-      <c r="H234" s="128"/>
-      <c r="I234" s="129"/>
+      <c r="H234" s="131"/>
+      <c r="I234" s="132"/>
       <c r="J234" s="5">
         <v>2</v>
       </c>
@@ -10181,8 +10185,8 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
-      <c r="B235" s="128"/>
-      <c r="C235" s="129"/>
+      <c r="B235" s="131"/>
+      <c r="C235" s="132"/>
       <c r="D235" s="5">
         <v>2.5</v>
       </c>
@@ -10193,8 +10197,8 @@
         <v>5.54</v>
       </c>
       <c r="G235" s="2"/>
-      <c r="H235" s="128"/>
-      <c r="I235" s="129"/>
+      <c r="H235" s="131"/>
+      <c r="I235" s="132"/>
       <c r="J235" s="5">
         <v>2.5</v>
       </c>
@@ -10207,8 +10211,8 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
-      <c r="B236" s="128"/>
-      <c r="C236" s="129"/>
+      <c r="B236" s="131"/>
+      <c r="C236" s="132"/>
       <c r="D236" s="5">
         <v>3</v>
       </c>
@@ -10219,8 +10223,8 @@
         <v>6.48</v>
       </c>
       <c r="G236" s="2"/>
-      <c r="H236" s="128"/>
-      <c r="I236" s="129"/>
+      <c r="H236" s="131"/>
+      <c r="I236" s="132"/>
       <c r="J236" s="5">
         <v>3</v>
       </c>
@@ -10233,8 +10237,8 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
-      <c r="B237" s="128"/>
-      <c r="C237" s="129"/>
+      <c r="B237" s="131"/>
+      <c r="C237" s="132"/>
       <c r="D237" s="5">
         <v>3.5</v>
       </c>
@@ -10245,8 +10249,8 @@
         <v>7.1</v>
       </c>
       <c r="G237" s="2"/>
-      <c r="H237" s="128"/>
-      <c r="I237" s="129"/>
+      <c r="H237" s="131"/>
+      <c r="I237" s="132"/>
       <c r="J237" s="5">
         <v>3.5</v>
       </c>
@@ -10259,8 +10263,8 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
-      <c r="B238" s="128"/>
-      <c r="C238" s="129"/>
+      <c r="B238" s="131"/>
+      <c r="C238" s="132"/>
       <c r="D238" s="5">
         <v>4</v>
       </c>
@@ -10271,8 +10275,8 @@
         <v>7.7</v>
       </c>
       <c r="G238" s="2"/>
-      <c r="H238" s="128"/>
-      <c r="I238" s="129"/>
+      <c r="H238" s="131"/>
+      <c r="I238" s="132"/>
       <c r="J238" s="5">
         <v>4</v>
       </c>
@@ -10285,8 +10289,8 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A239" s="1"/>
-      <c r="B239" s="128"/>
-      <c r="C239" s="129"/>
+      <c r="B239" s="131"/>
+      <c r="C239" s="132"/>
       <c r="D239" s="5">
         <v>4.5</v>
       </c>
@@ -10297,8 +10301,8 @@
         <v>8.26</v>
       </c>
       <c r="G239" s="2"/>
-      <c r="H239" s="128"/>
-      <c r="I239" s="129"/>
+      <c r="H239" s="131"/>
+      <c r="I239" s="132"/>
       <c r="J239" s="5">
         <v>4.5</v>
       </c>
@@ -10311,8 +10315,8 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A240" s="1"/>
-      <c r="B240" s="128"/>
-      <c r="C240" s="129"/>
+      <c r="B240" s="131"/>
+      <c r="C240" s="132"/>
       <c r="D240" s="5">
         <v>5</v>
       </c>
@@ -10323,8 +10327,8 @@
         <v>8.82</v>
       </c>
       <c r="G240" s="2"/>
-      <c r="H240" s="128"/>
-      <c r="I240" s="129"/>
+      <c r="H240" s="131"/>
+      <c r="I240" s="132"/>
       <c r="J240" s="5">
         <v>5</v>
       </c>
@@ -10337,8 +10341,8 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A241" s="1"/>
-      <c r="B241" s="128"/>
-      <c r="C241" s="129"/>
+      <c r="B241" s="131"/>
+      <c r="C241" s="132"/>
       <c r="D241" s="5">
         <v>5.5</v>
       </c>
@@ -10349,8 +10353,8 @@
         <v>9.36</v>
       </c>
       <c r="G241" s="2"/>
-      <c r="H241" s="128"/>
-      <c r="I241" s="129"/>
+      <c r="H241" s="131"/>
+      <c r="I241" s="132"/>
       <c r="J241" s="5">
         <v>5.5</v>
       </c>
@@ -10363,8 +10367,8 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A242" s="1"/>
-      <c r="B242" s="128"/>
-      <c r="C242" s="129"/>
+      <c r="B242" s="131"/>
+      <c r="C242" s="132"/>
       <c r="D242" s="5">
         <v>6</v>
       </c>
@@ -10375,8 +10379,8 @@
         <v>9.76</v>
       </c>
       <c r="G242" s="2"/>
-      <c r="H242" s="128"/>
-      <c r="I242" s="129"/>
+      <c r="H242" s="131"/>
+      <c r="I242" s="132"/>
       <c r="J242" s="5">
         <v>6</v>
       </c>
@@ -10389,8 +10393,8 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A243" s="1"/>
-      <c r="B243" s="128"/>
-      <c r="C243" s="129"/>
+      <c r="B243" s="131"/>
+      <c r="C243" s="132"/>
       <c r="D243" s="5">
         <v>7</v>
       </c>
@@ -10401,8 +10405,8 @@
         <v>10.56</v>
       </c>
       <c r="G243" s="2"/>
-      <c r="H243" s="128"/>
-      <c r="I243" s="129"/>
+      <c r="H243" s="131"/>
+      <c r="I243" s="132"/>
       <c r="J243" s="5">
         <v>7</v>
       </c>
@@ -10415,8 +10419,8 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A244" s="1"/>
-      <c r="B244" s="128"/>
-      <c r="C244" s="129"/>
+      <c r="B244" s="131"/>
+      <c r="C244" s="132"/>
       <c r="D244" s="5">
         <v>8</v>
       </c>
@@ -10427,8 +10431,8 @@
         <v>11.36</v>
       </c>
       <c r="G244" s="2"/>
-      <c r="H244" s="128"/>
-      <c r="I244" s="129"/>
+      <c r="H244" s="131"/>
+      <c r="I244" s="132"/>
       <c r="J244" s="5">
         <v>8</v>
       </c>
@@ -10441,8 +10445,8 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A245" s="1"/>
-      <c r="B245" s="130"/>
-      <c r="C245" s="131"/>
+      <c r="B245" s="133"/>
+      <c r="C245" s="134"/>
       <c r="D245" s="5">
         <v>9</v>
       </c>
@@ -10453,8 +10457,8 @@
         <v>12.16</v>
       </c>
       <c r="G245" s="2"/>
-      <c r="H245" s="130"/>
-      <c r="I245" s="131"/>
+      <c r="H245" s="133"/>
+      <c r="I245" s="134"/>
       <c r="J245" s="5">
         <v>9</v>
       </c>
@@ -10467,10 +10471,10 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A246" s="1"/>
-      <c r="B246" s="124" t="s">
+      <c r="B246" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C246" s="125"/>
+      <c r="C246" s="136"/>
       <c r="D246" s="5">
         <v>10</v>
       </c>
@@ -10481,10 +10485,10 @@
         <v>12.96</v>
       </c>
       <c r="G246" s="2"/>
-      <c r="H246" s="124" t="s">
+      <c r="H246" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="I246" s="125"/>
+      <c r="I246" s="136"/>
       <c r="J246" s="5">
         <v>10</v>
       </c>
@@ -10675,10 +10679,10 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A254" s="1"/>
-      <c r="B254" s="126" t="s">
+      <c r="B254" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="C254" s="127"/>
+      <c r="C254" s="130"/>
       <c r="D254" s="3" t="s">
         <v>1</v>
       </c>
@@ -10689,10 +10693,10 @@
         <v>3</v>
       </c>
       <c r="G254" s="2"/>
-      <c r="H254" s="126" t="s">
+      <c r="H254" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="I254" s="127"/>
+      <c r="I254" s="130"/>
       <c r="J254" s="3" t="s">
         <v>1</v>
       </c>
@@ -10705,8 +10709,8 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A255" s="1"/>
-      <c r="B255" s="128"/>
-      <c r="C255" s="129"/>
+      <c r="B255" s="131"/>
+      <c r="C255" s="132"/>
       <c r="D255" s="4" t="s">
         <v>5</v>
       </c>
@@ -10717,8 +10721,8 @@
         <v>7</v>
       </c>
       <c r="G255" s="2"/>
-      <c r="H255" s="128"/>
-      <c r="I255" s="129"/>
+      <c r="H255" s="131"/>
+      <c r="I255" s="132"/>
       <c r="J255" s="4" t="s">
         <v>5</v>
       </c>
@@ -10731,8 +10735,8 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A256" s="1"/>
-      <c r="B256" s="128"/>
-      <c r="C256" s="129"/>
+      <c r="B256" s="131"/>
+      <c r="C256" s="132"/>
       <c r="D256" s="5">
         <v>0</v>
       </c>
@@ -10743,8 +10747,8 @@
         <v>0</v>
       </c>
       <c r="G256" s="2"/>
-      <c r="H256" s="128"/>
-      <c r="I256" s="129"/>
+      <c r="H256" s="131"/>
+      <c r="I256" s="132"/>
       <c r="J256" s="5">
         <v>0</v>
       </c>
@@ -10757,8 +10761,8 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A257" s="1"/>
-      <c r="B257" s="128"/>
-      <c r="C257" s="129"/>
+      <c r="B257" s="131"/>
+      <c r="C257" s="132"/>
       <c r="D257" s="5">
         <v>0.25</v>
       </c>
@@ -10769,8 +10773,8 @@
         <v>0.38</v>
       </c>
       <c r="G257" s="2"/>
-      <c r="H257" s="128"/>
-      <c r="I257" s="129"/>
+      <c r="H257" s="131"/>
+      <c r="I257" s="132"/>
       <c r="J257" s="5">
         <v>0.25</v>
       </c>
@@ -10783,8 +10787,8 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A258" s="1"/>
-      <c r="B258" s="128"/>
-      <c r="C258" s="129"/>
+      <c r="B258" s="131"/>
+      <c r="C258" s="132"/>
       <c r="D258" s="5">
         <v>0.5</v>
       </c>
@@ -10795,8 +10799,8 @@
         <v>0.85</v>
       </c>
       <c r="G258" s="2"/>
-      <c r="H258" s="128"/>
-      <c r="I258" s="129"/>
+      <c r="H258" s="131"/>
+      <c r="I258" s="132"/>
       <c r="J258" s="5">
         <v>0.5</v>
       </c>
@@ -10809,8 +10813,8 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A259" s="1"/>
-      <c r="B259" s="128"/>
-      <c r="C259" s="129"/>
+      <c r="B259" s="131"/>
+      <c r="C259" s="132"/>
       <c r="D259" s="5">
         <v>0.75</v>
       </c>
@@ -10821,8 +10825,8 @@
         <v>1.48</v>
       </c>
       <c r="G259" s="2"/>
-      <c r="H259" s="128"/>
-      <c r="I259" s="129"/>
+      <c r="H259" s="131"/>
+      <c r="I259" s="132"/>
       <c r="J259" s="5">
         <v>0.75</v>
       </c>
@@ -10835,8 +10839,8 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A260" s="1"/>
-      <c r="B260" s="128"/>
-      <c r="C260" s="129"/>
+      <c r="B260" s="131"/>
+      <c r="C260" s="132"/>
       <c r="D260" s="5">
         <v>1</v>
       </c>
@@ -10847,8 +10851,8 @@
         <v>2.14</v>
       </c>
       <c r="G260" s="2"/>
-      <c r="H260" s="128"/>
-      <c r="I260" s="129"/>
+      <c r="H260" s="131"/>
+      <c r="I260" s="132"/>
       <c r="J260" s="5">
         <v>1</v>
       </c>
@@ -10861,8 +10865,8 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A261" s="1"/>
-      <c r="B261" s="128"/>
-      <c r="C261" s="129"/>
+      <c r="B261" s="131"/>
+      <c r="C261" s="132"/>
       <c r="D261" s="5">
         <v>1.5</v>
       </c>
@@ -10873,8 +10877,8 @@
         <v>3.32</v>
       </c>
       <c r="G261" s="2"/>
-      <c r="H261" s="128"/>
-      <c r="I261" s="129"/>
+      <c r="H261" s="131"/>
+      <c r="I261" s="132"/>
       <c r="J261" s="5">
         <v>1.5</v>
       </c>
@@ -10887,8 +10891,8 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A262" s="1"/>
-      <c r="B262" s="128"/>
-      <c r="C262" s="129"/>
+      <c r="B262" s="131"/>
+      <c r="C262" s="132"/>
       <c r="D262" s="5">
         <v>2</v>
       </c>
@@ -10899,8 +10903,8 @@
         <v>4.42</v>
       </c>
       <c r="G262" s="2"/>
-      <c r="H262" s="128"/>
-      <c r="I262" s="129"/>
+      <c r="H262" s="131"/>
+      <c r="I262" s="132"/>
       <c r="J262" s="5">
         <v>2</v>
       </c>
@@ -10913,8 +10917,8 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A263" s="1"/>
-      <c r="B263" s="128"/>
-      <c r="C263" s="129"/>
+      <c r="B263" s="131"/>
+      <c r="C263" s="132"/>
       <c r="D263" s="5">
         <v>2.5</v>
       </c>
@@ -10925,8 +10929,8 @@
         <v>5.46</v>
       </c>
       <c r="G263" s="2"/>
-      <c r="H263" s="128"/>
-      <c r="I263" s="129"/>
+      <c r="H263" s="131"/>
+      <c r="I263" s="132"/>
       <c r="J263" s="5">
         <v>2.5</v>
       </c>
@@ -10939,8 +10943,8 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A264" s="1"/>
-      <c r="B264" s="128"/>
-      <c r="C264" s="129"/>
+      <c r="B264" s="131"/>
+      <c r="C264" s="132"/>
       <c r="D264" s="5">
         <v>3</v>
       </c>
@@ -10951,8 +10955,8 @@
         <v>6.46</v>
       </c>
       <c r="G264" s="2"/>
-      <c r="H264" s="128"/>
-      <c r="I264" s="129"/>
+      <c r="H264" s="131"/>
+      <c r="I264" s="132"/>
       <c r="J264" s="5">
         <v>3</v>
       </c>
@@ -10965,8 +10969,8 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A265" s="1"/>
-      <c r="B265" s="128"/>
-      <c r="C265" s="129"/>
+      <c r="B265" s="131"/>
+      <c r="C265" s="132"/>
       <c r="D265" s="5">
         <v>3.5</v>
       </c>
@@ -10977,8 +10981,8 @@
         <v>7.36</v>
       </c>
       <c r="G265" s="2"/>
-      <c r="H265" s="128"/>
-      <c r="I265" s="129"/>
+      <c r="H265" s="131"/>
+      <c r="I265" s="132"/>
       <c r="J265" s="5">
         <v>3.5</v>
       </c>
@@ -10991,8 +10995,8 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A266" s="1"/>
-      <c r="B266" s="128"/>
-      <c r="C266" s="129"/>
+      <c r="B266" s="131"/>
+      <c r="C266" s="132"/>
       <c r="D266" s="5">
         <v>4</v>
       </c>
@@ -11003,8 +11007,8 @@
         <v>8.18</v>
       </c>
       <c r="G266" s="2"/>
-      <c r="H266" s="128"/>
-      <c r="I266" s="129"/>
+      <c r="H266" s="131"/>
+      <c r="I266" s="132"/>
       <c r="J266" s="5">
         <v>4</v>
       </c>
@@ -11017,8 +11021,8 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A267" s="1"/>
-      <c r="B267" s="128"/>
-      <c r="C267" s="129"/>
+      <c r="B267" s="131"/>
+      <c r="C267" s="132"/>
       <c r="D267" s="5">
         <v>4.5</v>
       </c>
@@ -11029,8 +11033,8 @@
         <v>8.92</v>
       </c>
       <c r="G267" s="2"/>
-      <c r="H267" s="128"/>
-      <c r="I267" s="129"/>
+      <c r="H267" s="131"/>
+      <c r="I267" s="132"/>
       <c r="J267" s="5">
         <v>4.5</v>
       </c>
@@ -11043,8 +11047,8 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A268" s="1"/>
-      <c r="B268" s="128"/>
-      <c r="C268" s="129"/>
+      <c r="B268" s="131"/>
+      <c r="C268" s="132"/>
       <c r="D268" s="5">
         <v>5</v>
       </c>
@@ -11055,8 +11059,8 @@
         <v>9.5</v>
       </c>
       <c r="G268" s="2"/>
-      <c r="H268" s="128"/>
-      <c r="I268" s="129"/>
+      <c r="H268" s="131"/>
+      <c r="I268" s="132"/>
       <c r="J268" s="5">
         <v>5</v>
       </c>
@@ -11069,8 +11073,8 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A269" s="1"/>
-      <c r="B269" s="128"/>
-      <c r="C269" s="129"/>
+      <c r="B269" s="131"/>
+      <c r="C269" s="132"/>
       <c r="D269" s="5">
         <v>5.5</v>
       </c>
@@ -11081,8 +11085,8 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="G269" s="2"/>
-      <c r="H269" s="128"/>
-      <c r="I269" s="129"/>
+      <c r="H269" s="131"/>
+      <c r="I269" s="132"/>
       <c r="J269" s="5">
         <v>5.5</v>
       </c>
@@ -11095,8 +11099,8 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A270" s="1"/>
-      <c r="B270" s="128"/>
-      <c r="C270" s="129"/>
+      <c r="B270" s="131"/>
+      <c r="C270" s="132"/>
       <c r="D270" s="5">
         <v>6</v>
       </c>
@@ -11107,8 +11111,8 @@
         <v>10.32</v>
       </c>
       <c r="G270" s="2"/>
-      <c r="H270" s="128"/>
-      <c r="I270" s="129"/>
+      <c r="H270" s="131"/>
+      <c r="I270" s="132"/>
       <c r="J270" s="5">
         <v>6</v>
       </c>
@@ -11121,8 +11125,8 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A271" s="1"/>
-      <c r="B271" s="128"/>
-      <c r="C271" s="129"/>
+      <c r="B271" s="131"/>
+      <c r="C271" s="132"/>
       <c r="D271" s="5">
         <v>7</v>
       </c>
@@ -11133,8 +11137,8 @@
         <v>11.04</v>
       </c>
       <c r="G271" s="2"/>
-      <c r="H271" s="128"/>
-      <c r="I271" s="129"/>
+      <c r="H271" s="131"/>
+      <c r="I271" s="132"/>
       <c r="J271" s="5">
         <v>7</v>
       </c>
@@ -11147,8 +11151,8 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A272" s="1"/>
-      <c r="B272" s="128"/>
-      <c r="C272" s="129"/>
+      <c r="B272" s="131"/>
+      <c r="C272" s="132"/>
       <c r="D272" s="5">
         <v>8</v>
       </c>
@@ -11159,8 +11163,8 @@
         <v>11.76</v>
       </c>
       <c r="G272" s="2"/>
-      <c r="H272" s="128"/>
-      <c r="I272" s="129"/>
+      <c r="H272" s="131"/>
+      <c r="I272" s="132"/>
       <c r="J272" s="5">
         <v>8</v>
       </c>
@@ -11173,8 +11177,8 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A273" s="1"/>
-      <c r="B273" s="130"/>
-      <c r="C273" s="131"/>
+      <c r="B273" s="133"/>
+      <c r="C273" s="134"/>
       <c r="D273" s="5">
         <v>9</v>
       </c>
@@ -11185,8 +11189,8 @@
         <v>12.48</v>
       </c>
       <c r="G273" s="2"/>
-      <c r="H273" s="130"/>
-      <c r="I273" s="131"/>
+      <c r="H273" s="133"/>
+      <c r="I273" s="134"/>
       <c r="J273" s="5">
         <v>9</v>
       </c>
@@ -11199,10 +11203,10 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A274" s="1"/>
-      <c r="B274" s="124" t="s">
+      <c r="B274" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C274" s="125"/>
+      <c r="C274" s="136"/>
       <c r="D274" s="5">
         <v>10</v>
       </c>
@@ -11213,10 +11217,10 @@
         <v>13.2</v>
       </c>
       <c r="G274" s="2"/>
-      <c r="H274" s="124" t="s">
+      <c r="H274" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="I274" s="125"/>
+      <c r="I274" s="136"/>
       <c r="J274" s="5">
         <v>10</v>
       </c>
@@ -11407,10 +11411,10 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A282" s="1"/>
-      <c r="B282" s="126" t="s">
+      <c r="B282" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="C282" s="127"/>
+      <c r="C282" s="130"/>
       <c r="D282" s="3" t="s">
         <v>1</v>
       </c>
@@ -11429,8 +11433,8 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A283" s="1"/>
-      <c r="B283" s="128"/>
-      <c r="C283" s="129"/>
+      <c r="B283" s="131"/>
+      <c r="C283" s="132"/>
       <c r="D283" s="4" t="s">
         <v>5</v>
       </c>
@@ -11449,8 +11453,8 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A284" s="1"/>
-      <c r="B284" s="128"/>
-      <c r="C284" s="129"/>
+      <c r="B284" s="131"/>
+      <c r="C284" s="132"/>
       <c r="D284" s="5">
         <v>0</v>
       </c>
@@ -11469,8 +11473,8 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A285" s="1"/>
-      <c r="B285" s="128"/>
-      <c r="C285" s="129"/>
+      <c r="B285" s="131"/>
+      <c r="C285" s="132"/>
       <c r="D285" s="5">
         <v>0.25</v>
       </c>
@@ -11489,8 +11493,8 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A286" s="1"/>
-      <c r="B286" s="128"/>
-      <c r="C286" s="129"/>
+      <c r="B286" s="131"/>
+      <c r="C286" s="132"/>
       <c r="D286" s="5">
         <v>0.5</v>
       </c>
@@ -11509,8 +11513,8 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A287" s="1"/>
-      <c r="B287" s="128"/>
-      <c r="C287" s="129"/>
+      <c r="B287" s="131"/>
+      <c r="C287" s="132"/>
       <c r="D287" s="5">
         <v>0.75</v>
       </c>
@@ -11529,8 +11533,8 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A288" s="1"/>
-      <c r="B288" s="128"/>
-      <c r="C288" s="129"/>
+      <c r="B288" s="131"/>
+      <c r="C288" s="132"/>
       <c r="D288" s="5">
         <v>1</v>
       </c>
@@ -11549,8 +11553,8 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A289" s="1"/>
-      <c r="B289" s="128"/>
-      <c r="C289" s="129"/>
+      <c r="B289" s="131"/>
+      <c r="C289" s="132"/>
       <c r="D289" s="5">
         <v>1.5</v>
       </c>
@@ -11569,8 +11573,8 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A290" s="1"/>
-      <c r="B290" s="128"/>
-      <c r="C290" s="129"/>
+      <c r="B290" s="131"/>
+      <c r="C290" s="132"/>
       <c r="D290" s="5">
         <v>2</v>
       </c>
@@ -11589,8 +11593,8 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A291" s="1"/>
-      <c r="B291" s="128"/>
-      <c r="C291" s="129"/>
+      <c r="B291" s="131"/>
+      <c r="C291" s="132"/>
       <c r="D291" s="5">
         <v>2.5</v>
       </c>
@@ -11609,8 +11613,8 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A292" s="1"/>
-      <c r="B292" s="128"/>
-      <c r="C292" s="129"/>
+      <c r="B292" s="131"/>
+      <c r="C292" s="132"/>
       <c r="D292" s="5">
         <v>3</v>
       </c>
@@ -11629,8 +11633,8 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A293" s="1"/>
-      <c r="B293" s="128"/>
-      <c r="C293" s="129"/>
+      <c r="B293" s="131"/>
+      <c r="C293" s="132"/>
       <c r="D293" s="5">
         <v>3.5</v>
       </c>
@@ -11649,8 +11653,8 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A294" s="1"/>
-      <c r="B294" s="128"/>
-      <c r="C294" s="129"/>
+      <c r="B294" s="131"/>
+      <c r="C294" s="132"/>
       <c r="D294" s="5">
         <v>4</v>
       </c>
@@ -11669,8 +11673,8 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A295" s="1"/>
-      <c r="B295" s="128"/>
-      <c r="C295" s="129"/>
+      <c r="B295" s="131"/>
+      <c r="C295" s="132"/>
       <c r="D295" s="5">
         <v>4.5</v>
       </c>
@@ -11689,8 +11693,8 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A296" s="1"/>
-      <c r="B296" s="128"/>
-      <c r="C296" s="129"/>
+      <c r="B296" s="131"/>
+      <c r="C296" s="132"/>
       <c r="D296" s="5">
         <v>5</v>
       </c>
@@ -11709,8 +11713,8 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A297" s="1"/>
-      <c r="B297" s="128"/>
-      <c r="C297" s="129"/>
+      <c r="B297" s="131"/>
+      <c r="C297" s="132"/>
       <c r="D297" s="5">
         <v>5.5</v>
       </c>
@@ -11729,8 +11733,8 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A298" s="1"/>
-      <c r="B298" s="128"/>
-      <c r="C298" s="129"/>
+      <c r="B298" s="131"/>
+      <c r="C298" s="132"/>
       <c r="D298" s="5">
         <v>6</v>
       </c>
@@ -11749,8 +11753,8 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A299" s="1"/>
-      <c r="B299" s="128"/>
-      <c r="C299" s="129"/>
+      <c r="B299" s="131"/>
+      <c r="C299" s="132"/>
       <c r="D299" s="5">
         <v>7</v>
       </c>
@@ -11769,8 +11773,8 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A300" s="1"/>
-      <c r="B300" s="128"/>
-      <c r="C300" s="129"/>
+      <c r="B300" s="131"/>
+      <c r="C300" s="132"/>
       <c r="D300" s="5">
         <v>8</v>
       </c>
@@ -11789,8 +11793,8 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A301" s="1"/>
-      <c r="B301" s="130"/>
-      <c r="C301" s="131"/>
+      <c r="B301" s="133"/>
+      <c r="C301" s="134"/>
       <c r="D301" s="5">
         <v>9</v>
       </c>
@@ -11809,10 +11813,10 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A302" s="1"/>
-      <c r="B302" s="124" t="s">
+      <c r="B302" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C302" s="125"/>
+      <c r="C302" s="136"/>
       <c r="D302" s="5">
         <v>10</v>
       </c>
@@ -11941,36 +11945,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B2:C21"/>
-    <mergeCell ref="H2:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B30:C49"/>
-    <mergeCell ref="H30:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B58:C77"/>
-    <mergeCell ref="H58:I77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="B86:C105"/>
-    <mergeCell ref="H86:I105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B114:C133"/>
-    <mergeCell ref="H114:I133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="B142:C161"/>
-    <mergeCell ref="H142:I161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="B170:C189"/>
-    <mergeCell ref="H170:I189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="B198:C217"/>
-    <mergeCell ref="H198:I217"/>
     <mergeCell ref="B302:C302"/>
     <mergeCell ref="B218:C218"/>
     <mergeCell ref="H218:I218"/>
@@ -11983,6 +11957,36 @@
     <mergeCell ref="B274:C274"/>
     <mergeCell ref="H274:I274"/>
     <mergeCell ref="B282:C301"/>
+    <mergeCell ref="B170:C189"/>
+    <mergeCell ref="H170:I189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="B198:C217"/>
+    <mergeCell ref="H198:I217"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="B142:C161"/>
+    <mergeCell ref="H142:I161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="B86:C105"/>
+    <mergeCell ref="H86:I105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B114:C133"/>
+    <mergeCell ref="H114:I133"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B58:C77"/>
+    <mergeCell ref="H58:I77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="B2:C21"/>
+    <mergeCell ref="H2:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B30:C49"/>
+    <mergeCell ref="H30:I49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12000,15 +12004,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="2" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
       <c r="J2" t="s">
         <v>167</v>
       </c>
@@ -21567,56 +21571,56 @@
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
-      <c r="F2" s="133" t="s">
+      <c r="F2" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="136" t="s">
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="138"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="143"/>
       <c r="T2" s="37"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="145" t="s">
+      <c r="G3" s="148"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="146" t="s">
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="140"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="146" t="s">
+      <c r="N3" s="145"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="141"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="146"/>
       <c r="T3" s="40" t="s">
         <v>95</v>
       </c>
@@ -43493,8 +43497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75519623-5105-47FA-8037-D4F40F6B4546}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -43509,56 +43513,56 @@
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
-      <c r="F1" s="133" t="s">
+      <c r="F1" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136" t="s">
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="138"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="143"/>
       <c r="T1" s="37"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="151"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="153" t="s">
+      <c r="D2" s="158"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="151"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="155" t="s">
+      <c r="G2" s="158"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="156" t="s">
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="151"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="156" t="s">
+      <c r="N2" s="158"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="152"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="159"/>
       <c r="T2" s="82" t="s">
         <v>95</v>
       </c>
@@ -43683,10 +43687,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="154" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="147"/>
+      <c r="C7" s="154"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="B8" s="99" t="s">
@@ -43695,14 +43699,14 @@
       <c r="C8" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="128" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="120"/>
-      <c r="K8" s="147" t="s">
+      <c r="G8" s="128"/>
+      <c r="K8" s="154" t="s">
         <v>185</v>
       </c>
-      <c r="L8" s="147"/>
+      <c r="L8" s="154"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="B9" s="99">
@@ -43725,13 +43729,13 @@
         <f>N4/T4</f>
         <v>2.305771392461311</v>
       </c>
-      <c r="O9" s="159" t="s">
+      <c r="O9" s="152" t="s">
         <v>201</v>
       </c>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="159"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="B10" s="99">
@@ -43754,11 +43758,11 @@
         <f>O4/T4</f>
         <v>2.7104135411515697</v>
       </c>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="160"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="B11" s="102">
@@ -43781,15 +43785,15 @@
       <c r="L11" s="100">
         <v>22.148729343453237</v>
       </c>
-      <c r="O11" s="161" t="s">
+      <c r="O11" s="153" t="s">
         <v>180</v>
       </c>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="161" t="s">
+      <c r="P11" s="153"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="S11" s="161"/>
+      <c r="S11" s="153"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="F12" s="81" t="s">
@@ -43804,26 +43808,26 @@
       <c r="L12" s="100">
         <v>1.2115775471935275</v>
       </c>
-      <c r="O12" s="157" t="s">
+      <c r="O12" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="P12" s="157">
+      <c r="P12" s="111">
         <f>G11*(G9-G12)-I4</f>
         <v>1.1968680624363515E-7</v>
       </c>
-      <c r="R12" s="157" t="s">
+      <c r="R12" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="S12" s="158">
+      <c r="S12" s="112">
         <f>L11*(L9-L12)-P4</f>
         <v>1.5998580238374416E-10</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="149"/>
+      <c r="C13" s="156"/>
       <c r="F13" s="81" t="s">
         <v>174</v>
       </c>
@@ -44058,28 +44062,28 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="O21" s="159" t="s">
+      <c r="O21" s="152" t="s">
         <v>207</v>
       </c>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="159"/>
-      <c r="S21" s="159"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="152"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="O22" s="159"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="159"/>
-      <c r="R22" s="159"/>
-      <c r="S22" s="159"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
+      <c r="S22" s="152"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="F23" s="120" t="s">
+      <c r="F23" s="128" t="s">
         <v>190</v>
       </c>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
       <c r="K23" s="67"/>
       <c r="L23" s="81" t="s">
         <v>173</v>
@@ -44087,24 +44091,24 @@
       <c r="M23" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="O23" s="161" t="s">
+      <c r="O23" s="153" t="s">
         <v>208</v>
       </c>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="161" t="s">
+      <c r="P23" s="153"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="S23" s="161"/>
+      <c r="S23" s="153"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="120" t="s">
+      <c r="F24" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="120"/>
+      <c r="G24" s="128"/>
       <c r="H24" s="81">
         <v>100</v>
       </c>
@@ -44114,34 +44118,34 @@
       <c r="K24" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="L24" s="163">
+      <c r="L24" s="114">
         <f>H24*G15</f>
         <v>65012.445051986149</v>
       </c>
-      <c r="M24" s="163">
+      <c r="M24" s="114">
         <f>H25*L15</f>
         <v>49293.554912699212</v>
       </c>
-      <c r="O24" s="158" t="s">
+      <c r="O24" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="P24" s="158">
+      <c r="P24" s="112">
         <f>G18+G19*LOG10(14)-G17</f>
         <v>-4.7985411342210682E-6</v>
       </c>
-      <c r="R24" s="158" t="s">
+      <c r="R24" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="S24" s="158">
+      <c r="S24" s="112">
         <f>L18+L19*LOG10(14)-L17</f>
         <v>1.3642420526593924E-12</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="F25" s="120" t="s">
+      <c r="F25" s="128" t="s">
         <v>193</v>
       </c>
-      <c r="G25" s="120"/>
+      <c r="G25" s="128"/>
       <c r="H25" s="81">
         <v>140</v>
       </c>
@@ -44151,11 +44155,11 @@
       <c r="K25" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="L25" s="163">
+      <c r="L25" s="114">
         <f>G20*H26</f>
         <v>7655.9972492591569</v>
       </c>
-      <c r="M25" s="163">
+      <c r="M25" s="114">
         <f>H26*L20</f>
         <v>8035.5342153718884</v>
       </c>
@@ -44175,10 +44179,10 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="F26" s="120" t="s">
+      <c r="F26" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="120"/>
+      <c r="G26" s="128"/>
       <c r="H26" s="81">
         <v>400</v>
       </c>
@@ -44188,11 +44192,11 @@
       <c r="K26" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="L26" s="164">
+      <c r="L26" s="115">
         <f>SUM(L24:L25)</f>
         <v>72668.442301245304</v>
       </c>
-      <c r="M26" s="164">
+      <c r="M26" s="115">
         <f>SUM(M24:M25)</f>
         <v>57329.0891280711</v>
       </c>
@@ -44221,11 +44225,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O21:S22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="C2:E2"/>
@@ -44233,15 +44238,14 @@
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:S2"/>
+    <mergeCell ref="O21:S22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="O9:S10"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/tares_3.xlsx
+++ b/tares_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db108f0a9d2e271a/Escritorio/202520/Tecnología del Hormigón/TALLER_3_TH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1936" documentId="13_ncr:1_{1C5220AB-3361-6449-9B84-967C43BA207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC6E09F0-52AB-450C-A22D-2A9FFCD3CBCD}"/>
+  <xr:revisionPtr revIDLastSave="3657" documentId="13_ncr:1_{1C5220AB-3361-6449-9B84-967C43BA207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3A0FD85-33C1-4D74-A077-25B122410E0A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="5" xr2:uid="{0E2A80D9-1365-9241-B0C7-2E437C7772EE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="2" activeTab="5" xr2:uid="{0E2A80D9-1365-9241-B0C7-2E437C7772EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Desarrollo Madurez" sheetId="4" r:id="rId1"/>
@@ -21,15 +21,15 @@
     <sheet name="Bolomey y Venaut" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'Bolomey y Venaut'!$L$18:$L$19</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Bolomey y Venaut'!$L$44:$L$45</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Bolomey y Venaut'!$S$24</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Bolomey y Venaut'!$S$25</definedName>
-    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Bolomey y Venaut'!$P$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Bolomey y Venaut'!$S$49</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Bolomey y Venaut'!$S$50</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Bolomey y Venaut'!$P$42</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
@@ -38,7 +38,7 @@
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'Bolomey y Venaut'!$S$26</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Bolomey y Venaut'!$S$51</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="216">
   <si>
     <t>DATOS GRUPO 1</t>
   </si>
@@ -780,6 +780,15 @@
   <si>
     <t>Interpolación defectuosos</t>
   </si>
+  <si>
+    <t>Discusión P10: +-5%</t>
+  </si>
+  <si>
+    <t>Desarrollo Discusión P10</t>
+  </si>
+  <si>
+    <t>No hay solucion</t>
+  </si>
 </sst>
 </file>
 
@@ -791,7 +800,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -893,8 +902,14 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -979,8 +994,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="65">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -1772,6 +1793,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1779,7 +1940,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2106,15 +2267,6 @@
     <xf numFmtId="166" fontId="0" fillId="12" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2145,6 +2297,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2162,12 +2329,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2206,19 +2367,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2243,7 +2392,77 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="68" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="69" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="70" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="68" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="69" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="70" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2435,9 +2654,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>290080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>55016</xdr:rowOff>
+      <xdr:rowOff>55018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2479,7 +2698,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
+      <xdr:colOff>185306</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>47750</xdr:rowOff>
     </xdr:to>
@@ -2852,21 +3071,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="122" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="K2" s="124" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="K2" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
     </row>
     <row r="3" spans="2:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="69" t="s">
@@ -2887,10 +3106,10 @@
       <c r="G3" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="120" t="s">
+      <c r="H3" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="121"/>
+      <c r="I3" s="118"/>
       <c r="K3" s="68" t="s">
         <v>15</v>
       </c>
@@ -3268,16 +3487,16 @@
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
-      <c r="K13" s="122" t="s">
+      <c r="K13" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="L13" s="122"/>
-      <c r="M13" s="119" t="s">
+      <c r="L13" s="119"/>
+      <c r="M13" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
       <c r="Q13" s="74"/>
       <c r="R13" s="74"/>
       <c r="S13" s="74"/>
@@ -3320,10 +3539,10 @@
         <f>M10+(L7-L10)*((M11-M10)/(L11-L10))</f>
         <v>9.4891304347826093</v>
       </c>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
       <c r="Q14" s="74"/>
       <c r="R14" s="74"/>
       <c r="S14" s="74"/>
@@ -3390,11 +3609,11 @@
         <f t="shared" si="1"/>
         <v>3024</v>
       </c>
-      <c r="K16" s="118" t="s">
+      <c r="K16" s="128" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
     </row>
     <row r="17" spans="2:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="68">
@@ -3426,9 +3645,9 @@
         <f t="shared" si="1"/>
         <v>3360</v>
       </c>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
     </row>
     <row r="18" spans="2:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B18" s="68">
@@ -3803,19 +4022,19 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="127"/>
+      <c r="C29" s="124"/>
       <c r="K29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="121"/>
+      <c r="C30" s="118"/>
       <c r="K30" cm="1">
         <f t="array" ref="K30:L31">MINVERSE(K26:L27)</f>
         <v>4.4065621092005989</v>
@@ -3853,10 +4072,10 @@
       <c r="C33" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="122" t="s">
+      <c r="K33" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="L33" s="122"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B34" s="68" t="s">
@@ -3888,14 +4107,14 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="K37" s="128" t="s">
+      <c r="C37" s="120"/>
+      <c r="K37" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="L37" s="128"/>
+      <c r="L37" s="125"/>
       <c r="M37" s="73"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.5">
@@ -3944,10 +4163,10 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B41" s="117" t="s">
+      <c r="B41" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="117"/>
+      <c r="C41" s="127"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.5">
       <c r="L42" t="s">
@@ -4008,16 +4227,16 @@
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="K46" s="116" t="s">
+      <c r="K46" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="L46" s="116"/>
+      <c r="L46" s="126"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="116"/>
+      <c r="C47" s="126"/>
       <c r="K47" s="73" t="s">
         <v>125</v>
       </c>
@@ -4036,13 +4255,18 @@
       </c>
     </row>
     <row r="49" spans="11:12" x14ac:dyDescent="0.5">
-      <c r="K49" s="117" t="s">
+      <c r="K49" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="L49" s="117"/>
+      <c r="L49" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="K16:M17"/>
     <mergeCell ref="M13:P14"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K33:L33"/>
@@ -4053,11 +4277,6 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="K16:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4091,10 +4310,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="130"/>
+      <c r="C2" s="132"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4105,10 +4324,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="130"/>
+      <c r="I2" s="132"/>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4121,8 +4340,8 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4133,8 +4352,8 @@
         <v>7</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="134"/>
       <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4147,8 +4366,8 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="5">
         <v>0</v>
       </c>
@@ -4159,8 +4378,8 @@
         <v>0</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="132"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="134"/>
       <c r="J4" s="5">
         <v>0</v>
       </c>
@@ -4173,8 +4392,8 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="5">
         <v>0.25</v>
       </c>
@@ -4185,8 +4404,8 @@
         <v>0.45</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="132"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="134"/>
       <c r="J5" s="5">
         <v>0.25</v>
       </c>
@@ -4199,8 +4418,8 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="134"/>
       <c r="D6" s="5">
         <v>0.5</v>
       </c>
@@ -4211,8 +4430,8 @@
         <v>1.03</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="134"/>
       <c r="J6" s="5">
         <v>0.5</v>
       </c>
@@ -4225,8 +4444,8 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="5">
         <v>0.75</v>
       </c>
@@ -4237,8 +4456,8 @@
         <v>1.66</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
       <c r="J7" s="5">
         <v>0.75</v>
       </c>
@@ -4251,8 +4470,8 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="5">
         <v>1</v>
       </c>
@@ -4263,8 +4482,8 @@
         <v>2.36</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
       <c r="J8" s="5">
         <v>1</v>
       </c>
@@ -4277,8 +4496,8 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="5">
         <v>1.5</v>
       </c>
@@ -4289,8 +4508,8 @@
         <v>3.86</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="5">
         <v>1.5</v>
       </c>
@@ -4303,8 +4522,8 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="5">
         <v>2</v>
       </c>
@@ -4315,8 +4534,8 @@
         <v>5.24</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="5">
         <v>2</v>
       </c>
@@ -4329,8 +4548,8 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="5">
         <v>2.5</v>
       </c>
@@ -4341,8 +4560,8 @@
         <v>6.39</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="132"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="134"/>
       <c r="J11" s="5">
         <v>2.5</v>
       </c>
@@ -4355,8 +4574,8 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="132"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="5">
         <v>3</v>
       </c>
@@ -4367,8 +4586,8 @@
         <v>7.41</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="132"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="134"/>
       <c r="J12" s="5">
         <v>3</v>
       </c>
@@ -4381,8 +4600,8 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="132"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="5">
         <v>3.5</v>
       </c>
@@ -4393,8 +4612,8 @@
         <v>8.31</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="132"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="134"/>
       <c r="J13" s="5">
         <v>3.5</v>
       </c>
@@ -4407,8 +4626,8 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="5">
         <v>4</v>
       </c>
@@ -4419,8 +4638,8 @@
         <v>9.09</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="134"/>
       <c r="J14" s="5">
         <v>4</v>
       </c>
@@ -4433,8 +4652,8 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="134"/>
       <c r="D15" s="5">
         <v>4.5</v>
       </c>
@@ -4445,8 +4664,8 @@
         <v>9.76</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="132"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="134"/>
       <c r="J15" s="5">
         <v>4.5</v>
       </c>
@@ -4459,8 +4678,8 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="5">
         <v>5</v>
       </c>
@@ -4471,8 +4690,8 @@
         <v>10.31</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="134"/>
       <c r="J16" s="5">
         <v>5</v>
       </c>
@@ -4485,8 +4704,8 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="132"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="5">
         <v>5.5</v>
       </c>
@@ -4497,8 +4716,8 @@
         <v>10.84</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="134"/>
       <c r="J17" s="5">
         <v>5.5</v>
       </c>
@@ -4511,8 +4730,8 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="132"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="5">
         <v>6</v>
       </c>
@@ -4523,8 +4742,8 @@
         <v>11.34</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="134"/>
       <c r="J18" s="5">
         <v>6</v>
       </c>
@@ -4537,8 +4756,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="5">
         <v>7</v>
       </c>
@@ -4549,8 +4768,8 @@
         <v>12.34</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="134"/>
       <c r="J19" s="5">
         <v>7</v>
       </c>
@@ -4563,8 +4782,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="132"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="5">
         <v>8</v>
       </c>
@@ -4575,8 +4794,8 @@
         <v>13.34</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="132"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="134"/>
       <c r="J20" s="5">
         <v>8</v>
       </c>
@@ -4589,8 +4808,8 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="134"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="136"/>
       <c r="D21" s="5">
         <v>9</v>
       </c>
@@ -4601,8 +4820,8 @@
         <v>14.34</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="134"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="136"/>
       <c r="J21" s="5">
         <v>9</v>
       </c>
@@ -4615,10 +4834,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="136"/>
+      <c r="C22" s="130"/>
       <c r="D22" s="5">
         <v>10</v>
       </c>
@@ -4629,10 +4848,10 @@
         <v>15.34</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="135" t="s">
+      <c r="H22" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="136"/>
+      <c r="I22" s="130"/>
       <c r="J22" s="5">
         <v>10</v>
       </c>
@@ -4823,10 +5042,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="130"/>
+      <c r="C30" s="132"/>
       <c r="D30" s="3" t="s">
         <v>1</v>
       </c>
@@ -4837,10 +5056,10 @@
         <v>3</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="129" t="s">
+      <c r="H30" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="130"/>
+      <c r="I30" s="132"/>
       <c r="J30" s="3" t="s">
         <v>1</v>
       </c>
@@ -4853,8 +5072,8 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="1"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="132"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="4" t="s">
         <v>5</v>
       </c>
@@ -4865,8 +5084,8 @@
         <v>7</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="132"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="134"/>
       <c r="J31" s="4" t="s">
         <v>5</v>
       </c>
@@ -4879,8 +5098,8 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="132"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="134"/>
       <c r="D32" s="5">
         <v>0</v>
       </c>
@@ -4891,8 +5110,8 @@
         <v>0</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="132"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="134"/>
       <c r="J32" s="5">
         <v>0</v>
       </c>
@@ -4905,8 +5124,8 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="132"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="5">
         <v>0.25</v>
       </c>
@@ -4917,8 +5136,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="132"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="134"/>
       <c r="J33" s="5">
         <v>0.25</v>
       </c>
@@ -4931,8 +5150,8 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="132"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="134"/>
       <c r="D34" s="5">
         <v>0.5</v>
       </c>
@@ -4943,8 +5162,8 @@
         <v>1.29</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="132"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="134"/>
       <c r="J34" s="5">
         <v>0.5</v>
       </c>
@@ -4957,8 +5176,8 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="132"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="5">
         <v>0.75</v>
       </c>
@@ -4969,8 +5188,8 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="132"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="134"/>
       <c r="J35" s="5">
         <v>0.75</v>
       </c>
@@ -4983,8 +5202,8 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="132"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="134"/>
       <c r="D36" s="5">
         <v>1</v>
       </c>
@@ -4995,8 +5214,8 @@
         <v>2.94</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="132"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="134"/>
       <c r="J36" s="5">
         <v>1</v>
       </c>
@@ -5009,8 +5228,8 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="132"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="5">
         <v>1.5</v>
       </c>
@@ -5021,8 +5240,8 @@
         <v>4.83</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="132"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="134"/>
       <c r="J37" s="5">
         <v>1.5</v>
       </c>
@@ -5035,8 +5254,8 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="132"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="5">
         <v>2</v>
       </c>
@@ -5047,8 +5266,8 @@
         <v>6.51</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="132"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="134"/>
       <c r="J38" s="5">
         <v>2</v>
       </c>
@@ -5061,8 +5280,8 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="132"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="134"/>
       <c r="D39" s="5">
         <v>2.5</v>
       </c>
@@ -5073,8 +5292,8 @@
         <v>7.96</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="132"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="134"/>
       <c r="J39" s="5">
         <v>2.5</v>
       </c>
@@ -5087,8 +5306,8 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="132"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="5">
         <v>3</v>
       </c>
@@ -5099,8 +5318,8 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="132"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="134"/>
       <c r="J40" s="5">
         <v>3</v>
       </c>
@@ -5113,8 +5332,8 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="132"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="134"/>
       <c r="D41" s="5">
         <v>3.5</v>
       </c>
@@ -5125,8 +5344,8 @@
         <v>10.34</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="132"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="134"/>
       <c r="J41" s="5">
         <v>3.5</v>
       </c>
@@ -5139,8 +5358,8 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
-      <c r="B42" s="131"/>
-      <c r="C42" s="132"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="5">
         <v>4</v>
       </c>
@@ -5151,8 +5370,8 @@
         <v>11.3</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="132"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="134"/>
       <c r="J42" s="5">
         <v>4</v>
       </c>
@@ -5165,8 +5384,8 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
-      <c r="B43" s="131"/>
-      <c r="C43" s="132"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="5">
         <v>4.5</v>
       </c>
@@ -5177,8 +5396,8 @@
         <v>12.11</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="132"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="134"/>
       <c r="J43" s="5">
         <v>4.5</v>
       </c>
@@ -5191,8 +5410,8 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
-      <c r="B44" s="131"/>
-      <c r="C44" s="132"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="5">
         <v>5</v>
       </c>
@@ -5203,8 +5422,8 @@
         <v>12.86</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="131"/>
-      <c r="I44" s="132"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="134"/>
       <c r="J44" s="5">
         <v>5</v>
       </c>
@@ -5217,8 +5436,8 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="132"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="5">
         <v>5.5</v>
       </c>
@@ -5229,8 +5448,8 @@
         <v>13.56</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="132"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="134"/>
       <c r="J45" s="5">
         <v>5.5</v>
       </c>
@@ -5243,8 +5462,8 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="132"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="5">
         <v>6</v>
       </c>
@@ -5255,8 +5474,8 @@
         <v>14.22</v>
       </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="131"/>
-      <c r="I46" s="132"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="134"/>
       <c r="J46" s="5">
         <v>6</v>
       </c>
@@ -5269,8 +5488,8 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="132"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="5">
         <v>7</v>
       </c>
@@ -5281,8 +5500,8 @@
         <v>15.56</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="132"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="134"/>
       <c r="J47" s="5">
         <v>7</v>
       </c>
@@ -5295,8 +5514,8 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="132"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="134"/>
       <c r="D48" s="5">
         <v>8</v>
       </c>
@@ -5307,8 +5526,8 @@
         <v>16.89</v>
       </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="132"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="134"/>
       <c r="J48" s="5">
         <v>8</v>
       </c>
@@ -5321,8 +5540,8 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="134"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="136"/>
       <c r="D49" s="5">
         <v>9</v>
       </c>
@@ -5333,8 +5552,8 @@
         <v>18.23</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="134"/>
+      <c r="H49" s="135"/>
+      <c r="I49" s="136"/>
       <c r="J49" s="5">
         <v>9</v>
       </c>
@@ -5347,10 +5566,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
-      <c r="B50" s="135" t="s">
+      <c r="B50" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="136"/>
+      <c r="C50" s="130"/>
       <c r="D50" s="5">
         <v>10</v>
       </c>
@@ -5361,10 +5580,10 @@
         <v>19.559999999999999</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="135" t="s">
+      <c r="H50" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="136"/>
+      <c r="I50" s="130"/>
       <c r="J50" s="5">
         <v>10</v>
       </c>
@@ -5555,10 +5774,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
-      <c r="B58" s="129" t="s">
+      <c r="B58" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="130"/>
+      <c r="C58" s="132"/>
       <c r="D58" s="3" t="s">
         <v>1</v>
       </c>
@@ -5569,10 +5788,10 @@
         <v>3</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="129" t="s">
+      <c r="H58" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="I58" s="130"/>
+      <c r="I58" s="132"/>
       <c r="J58" s="3" t="s">
         <v>1</v>
       </c>
@@ -5585,8 +5804,8 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
-      <c r="B59" s="131"/>
-      <c r="C59" s="132"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="134"/>
       <c r="D59" s="4" t="s">
         <v>5</v>
       </c>
@@ -5597,8 +5816,8 @@
         <v>7</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="132"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="134"/>
       <c r="J59" s="4" t="s">
         <v>5</v>
       </c>
@@ -5611,8 +5830,8 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
-      <c r="B60" s="131"/>
-      <c r="C60" s="132"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="134"/>
       <c r="D60" s="5">
         <v>0</v>
       </c>
@@ -5623,8 +5842,8 @@
         <v>0</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="131"/>
-      <c r="I60" s="132"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="134"/>
       <c r="J60" s="5">
         <v>0</v>
       </c>
@@ -5637,8 +5856,8 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
-      <c r="B61" s="131"/>
-      <c r="C61" s="132"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="134"/>
       <c r="D61" s="5">
         <v>0.25</v>
       </c>
@@ -5649,8 +5868,8 @@
         <v>0.39</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="131"/>
-      <c r="I61" s="132"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="134"/>
       <c r="J61" s="5">
         <v>0.25</v>
       </c>
@@ -5663,8 +5882,8 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
-      <c r="B62" s="131"/>
-      <c r="C62" s="132"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="134"/>
       <c r="D62" s="5">
         <v>0.5</v>
       </c>
@@ -5675,8 +5894,8 @@
         <v>0.88</v>
       </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="132"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="134"/>
       <c r="J62" s="5">
         <v>0.5</v>
       </c>
@@ -5689,8 +5908,8 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
-      <c r="B63" s="131"/>
-      <c r="C63" s="132"/>
+      <c r="B63" s="133"/>
+      <c r="C63" s="134"/>
       <c r="D63" s="5">
         <v>0.75</v>
       </c>
@@ -5701,8 +5920,8 @@
         <v>1.42</v>
       </c>
       <c r="G63" s="2"/>
-      <c r="H63" s="131"/>
-      <c r="I63" s="132"/>
+      <c r="H63" s="133"/>
+      <c r="I63" s="134"/>
       <c r="J63" s="5">
         <v>0.75</v>
       </c>
@@ -5715,8 +5934,8 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
-      <c r="B64" s="131"/>
-      <c r="C64" s="132"/>
+      <c r="B64" s="133"/>
+      <c r="C64" s="134"/>
       <c r="D64" s="5">
         <v>1</v>
       </c>
@@ -5727,8 +5946,8 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="131"/>
-      <c r="I64" s="132"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="134"/>
       <c r="J64" s="5">
         <v>1</v>
       </c>
@@ -5741,8 +5960,8 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
-      <c r="B65" s="131"/>
-      <c r="C65" s="132"/>
+      <c r="B65" s="133"/>
+      <c r="C65" s="134"/>
       <c r="D65" s="5">
         <v>1.5</v>
       </c>
@@ -5753,8 +5972,8 @@
         <v>3.29</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="132"/>
+      <c r="H65" s="133"/>
+      <c r="I65" s="134"/>
       <c r="J65" s="5">
         <v>1.5</v>
       </c>
@@ -5767,8 +5986,8 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
-      <c r="B66" s="131"/>
-      <c r="C66" s="132"/>
+      <c r="B66" s="133"/>
+      <c r="C66" s="134"/>
       <c r="D66" s="5">
         <v>2</v>
       </c>
@@ -5779,8 +5998,8 @@
         <v>4.47</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="132"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="134"/>
       <c r="J66" s="5">
         <v>2</v>
       </c>
@@ -5793,8 +6012,8 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
-      <c r="B67" s="131"/>
-      <c r="C67" s="132"/>
+      <c r="B67" s="133"/>
+      <c r="C67" s="134"/>
       <c r="D67" s="5">
         <v>2.5</v>
       </c>
@@ -5805,8 +6024,8 @@
         <v>5.43</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="131"/>
-      <c r="I67" s="132"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="134"/>
       <c r="J67" s="5">
         <v>2.5</v>
       </c>
@@ -5819,8 +6038,8 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
-      <c r="B68" s="131"/>
-      <c r="C68" s="132"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="134"/>
       <c r="D68" s="5">
         <v>3</v>
       </c>
@@ -5831,8 +6050,8 @@
         <v>6.31</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="132"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="134"/>
       <c r="J68" s="5">
         <v>3</v>
       </c>
@@ -5845,8 +6064,8 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
-      <c r="B69" s="131"/>
-      <c r="C69" s="132"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="134"/>
       <c r="D69" s="5">
         <v>3.5</v>
       </c>
@@ -5857,8 +6076,8 @@
         <v>7.09</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="131"/>
-      <c r="I69" s="132"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="134"/>
       <c r="J69" s="5">
         <v>3.5</v>
       </c>
@@ -5871,8 +6090,8 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
-      <c r="B70" s="131"/>
-      <c r="C70" s="132"/>
+      <c r="B70" s="133"/>
+      <c r="C70" s="134"/>
       <c r="D70" s="5">
         <v>4</v>
       </c>
@@ -5883,8 +6102,8 @@
         <v>7.77</v>
       </c>
       <c r="G70" s="2"/>
-      <c r="H70" s="131"/>
-      <c r="I70" s="132"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="134"/>
       <c r="J70" s="5">
         <v>4</v>
       </c>
@@ -5897,8 +6116,8 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
-      <c r="B71" s="131"/>
-      <c r="C71" s="132"/>
+      <c r="B71" s="133"/>
+      <c r="C71" s="134"/>
       <c r="D71" s="5">
         <v>4.5</v>
       </c>
@@ -5909,8 +6128,8 @@
         <v>8.35</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="131"/>
-      <c r="I71" s="132"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="134"/>
       <c r="J71" s="5">
         <v>4.5</v>
       </c>
@@ -5923,8 +6142,8 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
-      <c r="B72" s="131"/>
-      <c r="C72" s="132"/>
+      <c r="B72" s="133"/>
+      <c r="C72" s="134"/>
       <c r="D72" s="5">
         <v>5</v>
       </c>
@@ -5935,8 +6154,8 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="131"/>
-      <c r="I72" s="132"/>
+      <c r="H72" s="133"/>
+      <c r="I72" s="134"/>
       <c r="J72" s="5">
         <v>5</v>
       </c>
@@ -5949,8 +6168,8 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
-      <c r="B73" s="131"/>
-      <c r="C73" s="132"/>
+      <c r="B73" s="133"/>
+      <c r="C73" s="134"/>
       <c r="D73" s="5">
         <v>5.5</v>
       </c>
@@ -5961,8 +6180,8 @@
         <v>9.39</v>
       </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="131"/>
-      <c r="I73" s="132"/>
+      <c r="H73" s="133"/>
+      <c r="I73" s="134"/>
       <c r="J73" s="5">
         <v>5.5</v>
       </c>
@@ -5975,8 +6194,8 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
-      <c r="B74" s="131"/>
-      <c r="C74" s="132"/>
+      <c r="B74" s="133"/>
+      <c r="C74" s="134"/>
       <c r="D74" s="5">
         <v>6</v>
       </c>
@@ -5987,8 +6206,8 @@
         <v>9.85</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="131"/>
-      <c r="I74" s="132"/>
+      <c r="H74" s="133"/>
+      <c r="I74" s="134"/>
       <c r="J74" s="5">
         <v>6</v>
       </c>
@@ -6001,8 +6220,8 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
-      <c r="B75" s="131"/>
-      <c r="C75" s="132"/>
+      <c r="B75" s="133"/>
+      <c r="C75" s="134"/>
       <c r="D75" s="5">
         <v>7</v>
       </c>
@@ -6013,8 +6232,8 @@
         <v>10.77</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="131"/>
-      <c r="I75" s="132"/>
+      <c r="H75" s="133"/>
+      <c r="I75" s="134"/>
       <c r="J75" s="5">
         <v>7</v>
       </c>
@@ -6027,8 +6246,8 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
-      <c r="B76" s="131"/>
-      <c r="C76" s="132"/>
+      <c r="B76" s="133"/>
+      <c r="C76" s="134"/>
       <c r="D76" s="5">
         <v>8</v>
       </c>
@@ -6039,8 +6258,8 @@
         <v>11.69</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="131"/>
-      <c r="I76" s="132"/>
+      <c r="H76" s="133"/>
+      <c r="I76" s="134"/>
       <c r="J76" s="5">
         <v>8</v>
       </c>
@@ -6053,8 +6272,8 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
-      <c r="B77" s="133"/>
-      <c r="C77" s="134"/>
+      <c r="B77" s="135"/>
+      <c r="C77" s="136"/>
       <c r="D77" s="5">
         <v>9</v>
       </c>
@@ -6065,8 +6284,8 @@
         <v>12.61</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="133"/>
-      <c r="I77" s="134"/>
+      <c r="H77" s="135"/>
+      <c r="I77" s="136"/>
       <c r="J77" s="5">
         <v>9</v>
       </c>
@@ -6079,10 +6298,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
-      <c r="B78" s="135" t="s">
+      <c r="B78" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="136"/>
+      <c r="C78" s="130"/>
       <c r="D78" s="5">
         <v>10</v>
       </c>
@@ -6093,10 +6312,10 @@
         <v>13.53</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="H78" s="135" t="s">
+      <c r="H78" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="I78" s="136"/>
+      <c r="I78" s="130"/>
       <c r="J78" s="5">
         <v>10</v>
       </c>
@@ -6287,10 +6506,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
-      <c r="B86" s="129" t="s">
+      <c r="B86" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="130"/>
+      <c r="C86" s="132"/>
       <c r="D86" s="3" t="s">
         <v>1</v>
       </c>
@@ -6301,10 +6520,10 @@
         <v>3</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="129" t="s">
+      <c r="H86" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="I86" s="130"/>
+      <c r="I86" s="132"/>
       <c r="J86" s="3" t="s">
         <v>1</v>
       </c>
@@ -6317,8 +6536,8 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
-      <c r="B87" s="131"/>
-      <c r="C87" s="132"/>
+      <c r="B87" s="133"/>
+      <c r="C87" s="134"/>
       <c r="D87" s="4" t="s">
         <v>5</v>
       </c>
@@ -6329,8 +6548,8 @@
         <v>7</v>
       </c>
       <c r="G87" s="2"/>
-      <c r="H87" s="131"/>
-      <c r="I87" s="132"/>
+      <c r="H87" s="133"/>
+      <c r="I87" s="134"/>
       <c r="J87" s="4" t="s">
         <v>5</v>
       </c>
@@ -6343,8 +6562,8 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
-      <c r="B88" s="131"/>
-      <c r="C88" s="132"/>
+      <c r="B88" s="133"/>
+      <c r="C88" s="134"/>
       <c r="D88" s="5">
         <v>0</v>
       </c>
@@ -6355,8 +6574,8 @@
         <v>0</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="131"/>
-      <c r="I88" s="132"/>
+      <c r="H88" s="133"/>
+      <c r="I88" s="134"/>
       <c r="J88" s="5">
         <v>0</v>
       </c>
@@ -6369,8 +6588,8 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
-      <c r="B89" s="131"/>
-      <c r="C89" s="132"/>
+      <c r="B89" s="133"/>
+      <c r="C89" s="134"/>
       <c r="D89" s="5">
         <v>0.25</v>
       </c>
@@ -6381,8 +6600,8 @@
         <v>1.07</v>
       </c>
       <c r="G89" s="2"/>
-      <c r="H89" s="131"/>
-      <c r="I89" s="132"/>
+      <c r="H89" s="133"/>
+      <c r="I89" s="134"/>
       <c r="J89" s="5">
         <v>0.25</v>
       </c>
@@ -6395,8 +6614,8 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
-      <c r="B90" s="131"/>
-      <c r="C90" s="132"/>
+      <c r="B90" s="133"/>
+      <c r="C90" s="134"/>
       <c r="D90" s="5">
         <v>0.5</v>
       </c>
@@ -6407,8 +6626,8 @@
         <v>2.42</v>
       </c>
       <c r="G90" s="2"/>
-      <c r="H90" s="131"/>
-      <c r="I90" s="132"/>
+      <c r="H90" s="133"/>
+      <c r="I90" s="134"/>
       <c r="J90" s="5">
         <v>0.5</v>
       </c>
@@ -6421,8 +6640,8 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
-      <c r="B91" s="131"/>
-      <c r="C91" s="132"/>
+      <c r="B91" s="133"/>
+      <c r="C91" s="134"/>
       <c r="D91" s="5">
         <v>0.75</v>
       </c>
@@ -6433,8 +6652,8 @@
         <v>3.93</v>
       </c>
       <c r="G91" s="2"/>
-      <c r="H91" s="131"/>
-      <c r="I91" s="132"/>
+      <c r="H91" s="133"/>
+      <c r="I91" s="134"/>
       <c r="J91" s="5">
         <v>0.75</v>
       </c>
@@ -6447,8 +6666,8 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
-      <c r="B92" s="131"/>
-      <c r="C92" s="132"/>
+      <c r="B92" s="133"/>
+      <c r="C92" s="134"/>
       <c r="D92" s="5">
         <v>1</v>
       </c>
@@ -6459,8 +6678,8 @@
         <v>5.58</v>
       </c>
       <c r="G92" s="2"/>
-      <c r="H92" s="131"/>
-      <c r="I92" s="132"/>
+      <c r="H92" s="133"/>
+      <c r="I92" s="134"/>
       <c r="J92" s="5">
         <v>1</v>
       </c>
@@ -6473,8 +6692,8 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
-      <c r="B93" s="131"/>
-      <c r="C93" s="132"/>
+      <c r="B93" s="133"/>
+      <c r="C93" s="134"/>
       <c r="D93" s="5">
         <v>1.5</v>
       </c>
@@ -6485,8 +6704,8 @@
         <v>9.1</v>
       </c>
       <c r="G93" s="2"/>
-      <c r="H93" s="131"/>
-      <c r="I93" s="132"/>
+      <c r="H93" s="133"/>
+      <c r="I93" s="134"/>
       <c r="J93" s="5">
         <v>1.5</v>
       </c>
@@ -6499,8 +6718,8 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
-      <c r="B94" s="131"/>
-      <c r="C94" s="132"/>
+      <c r="B94" s="133"/>
+      <c r="C94" s="134"/>
       <c r="D94" s="5">
         <v>2</v>
       </c>
@@ -6511,8 +6730,8 @@
         <v>12.4</v>
       </c>
       <c r="G94" s="2"/>
-      <c r="H94" s="131"/>
-      <c r="I94" s="132"/>
+      <c r="H94" s="133"/>
+      <c r="I94" s="134"/>
       <c r="J94" s="5">
         <v>2</v>
       </c>
@@ -6525,8 +6744,8 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
-      <c r="B95" s="131"/>
-      <c r="C95" s="132"/>
+      <c r="B95" s="133"/>
+      <c r="C95" s="134"/>
       <c r="D95" s="5">
         <v>2.5</v>
       </c>
@@ -6537,8 +6756,8 @@
         <v>15.04</v>
       </c>
       <c r="G95" s="2"/>
-      <c r="H95" s="131"/>
-      <c r="I95" s="132"/>
+      <c r="H95" s="133"/>
+      <c r="I95" s="134"/>
       <c r="J95" s="5">
         <v>2.5</v>
       </c>
@@ -6551,8 +6770,8 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
-      <c r="B96" s="131"/>
-      <c r="C96" s="132"/>
+      <c r="B96" s="133"/>
+      <c r="C96" s="134"/>
       <c r="D96" s="5">
         <v>3</v>
       </c>
@@ -6563,8 +6782,8 @@
         <v>17.41</v>
       </c>
       <c r="G96" s="2"/>
-      <c r="H96" s="131"/>
-      <c r="I96" s="132"/>
+      <c r="H96" s="133"/>
+      <c r="I96" s="134"/>
       <c r="J96" s="5">
         <v>3</v>
       </c>
@@ -6577,8 +6796,8 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
-      <c r="B97" s="131"/>
-      <c r="C97" s="132"/>
+      <c r="B97" s="133"/>
+      <c r="C97" s="134"/>
       <c r="D97" s="5">
         <v>3.5</v>
       </c>
@@ -6589,8 +6808,8 @@
         <v>19.55</v>
       </c>
       <c r="G97" s="2"/>
-      <c r="H97" s="131"/>
-      <c r="I97" s="132"/>
+      <c r="H97" s="133"/>
+      <c r="I97" s="134"/>
       <c r="J97" s="5">
         <v>3.5</v>
       </c>
@@ -6603,8 +6822,8 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
-      <c r="B98" s="131"/>
-      <c r="C98" s="132"/>
+      <c r="B98" s="133"/>
+      <c r="C98" s="134"/>
       <c r="D98" s="5">
         <v>4</v>
       </c>
@@ -6615,8 +6834,8 @@
         <v>21.37</v>
       </c>
       <c r="G98" s="2"/>
-      <c r="H98" s="131"/>
-      <c r="I98" s="132"/>
+      <c r="H98" s="133"/>
+      <c r="I98" s="134"/>
       <c r="J98" s="5">
         <v>4</v>
       </c>
@@ -6629,8 +6848,8 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
-      <c r="B99" s="131"/>
-      <c r="C99" s="132"/>
+      <c r="B99" s="133"/>
+      <c r="C99" s="134"/>
       <c r="D99" s="5">
         <v>4.5</v>
       </c>
@@ -6641,8 +6860,8 @@
         <v>23.02</v>
       </c>
       <c r="G99" s="2"/>
-      <c r="H99" s="131"/>
-      <c r="I99" s="132"/>
+      <c r="H99" s="133"/>
+      <c r="I99" s="134"/>
       <c r="J99" s="5">
         <v>4.5</v>
       </c>
@@ -6655,8 +6874,8 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
-      <c r="B100" s="131"/>
-      <c r="C100" s="132"/>
+      <c r="B100" s="133"/>
+      <c r="C100" s="134"/>
       <c r="D100" s="5">
         <v>5</v>
       </c>
@@ -6667,8 +6886,8 @@
         <v>24.45</v>
       </c>
       <c r="G100" s="2"/>
-      <c r="H100" s="131"/>
-      <c r="I100" s="132"/>
+      <c r="H100" s="133"/>
+      <c r="I100" s="134"/>
       <c r="J100" s="5">
         <v>5</v>
       </c>
@@ -6681,8 +6900,8 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
-      <c r="B101" s="131"/>
-      <c r="C101" s="132"/>
+      <c r="B101" s="133"/>
+      <c r="C101" s="134"/>
       <c r="D101" s="5">
         <v>5.5</v>
       </c>
@@ -6693,8 +6912,8 @@
         <v>25.77</v>
       </c>
       <c r="G101" s="2"/>
-      <c r="H101" s="131"/>
-      <c r="I101" s="132"/>
+      <c r="H101" s="133"/>
+      <c r="I101" s="134"/>
       <c r="J101" s="5">
         <v>5.5</v>
       </c>
@@ -6707,8 +6926,8 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
-      <c r="B102" s="131"/>
-      <c r="C102" s="132"/>
+      <c r="B102" s="133"/>
+      <c r="C102" s="134"/>
       <c r="D102" s="5">
         <v>6</v>
       </c>
@@ -6719,8 +6938,8 @@
         <v>27.03</v>
       </c>
       <c r="G102" s="2"/>
-      <c r="H102" s="131"/>
-      <c r="I102" s="132"/>
+      <c r="H102" s="133"/>
+      <c r="I102" s="134"/>
       <c r="J102" s="5">
         <v>6</v>
       </c>
@@ -6733,8 +6952,8 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
-      <c r="B103" s="131"/>
-      <c r="C103" s="132"/>
+      <c r="B103" s="133"/>
+      <c r="C103" s="134"/>
       <c r="D103" s="5">
         <v>7</v>
       </c>
@@ -6745,8 +6964,8 @@
         <v>29.56</v>
       </c>
       <c r="G103" s="2"/>
-      <c r="H103" s="131"/>
-      <c r="I103" s="132"/>
+      <c r="H103" s="133"/>
+      <c r="I103" s="134"/>
       <c r="J103" s="5">
         <v>7</v>
       </c>
@@ -6759,8 +6978,8 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
-      <c r="B104" s="131"/>
-      <c r="C104" s="132"/>
+      <c r="B104" s="133"/>
+      <c r="C104" s="134"/>
       <c r="D104" s="5">
         <v>8</v>
       </c>
@@ -6771,8 +6990,8 @@
         <v>32.090000000000003</v>
       </c>
       <c r="G104" s="2"/>
-      <c r="H104" s="131"/>
-      <c r="I104" s="132"/>
+      <c r="H104" s="133"/>
+      <c r="I104" s="134"/>
       <c r="J104" s="5">
         <v>8</v>
       </c>
@@ -6785,8 +7004,8 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
-      <c r="B105" s="133"/>
-      <c r="C105" s="134"/>
+      <c r="B105" s="135"/>
+      <c r="C105" s="136"/>
       <c r="D105" s="5">
         <v>9</v>
       </c>
@@ -6797,8 +7016,8 @@
         <v>34.619999999999997</v>
       </c>
       <c r="G105" s="2"/>
-      <c r="H105" s="133"/>
-      <c r="I105" s="134"/>
+      <c r="H105" s="135"/>
+      <c r="I105" s="136"/>
       <c r="J105" s="5">
         <v>9</v>
       </c>
@@ -6811,10 +7030,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
-      <c r="B106" s="135" t="s">
+      <c r="B106" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="136"/>
+      <c r="C106" s="130"/>
       <c r="D106" s="5">
         <v>10</v>
       </c>
@@ -6825,10 +7044,10 @@
         <v>37.15</v>
       </c>
       <c r="G106" s="2"/>
-      <c r="H106" s="135" t="s">
+      <c r="H106" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="I106" s="136"/>
+      <c r="I106" s="130"/>
       <c r="J106" s="5">
         <v>10</v>
       </c>
@@ -7019,10 +7238,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
-      <c r="B114" s="129" t="s">
+      <c r="B114" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="C114" s="130"/>
+      <c r="C114" s="132"/>
       <c r="D114" s="3" t="s">
         <v>1</v>
       </c>
@@ -7033,10 +7252,10 @@
         <v>3</v>
       </c>
       <c r="G114" s="2"/>
-      <c r="H114" s="129" t="s">
+      <c r="H114" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="I114" s="130"/>
+      <c r="I114" s="132"/>
       <c r="J114" s="3" t="s">
         <v>1</v>
       </c>
@@ -7049,8 +7268,8 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
-      <c r="B115" s="131"/>
-      <c r="C115" s="132"/>
+      <c r="B115" s="133"/>
+      <c r="C115" s="134"/>
       <c r="D115" s="4" t="s">
         <v>5</v>
       </c>
@@ -7061,8 +7280,8 @@
         <v>7</v>
       </c>
       <c r="G115" s="2"/>
-      <c r="H115" s="131"/>
-      <c r="I115" s="132"/>
+      <c r="H115" s="133"/>
+      <c r="I115" s="134"/>
       <c r="J115" s="4" t="s">
         <v>5</v>
       </c>
@@ -7075,8 +7294,8 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
-      <c r="B116" s="131"/>
-      <c r="C116" s="132"/>
+      <c r="B116" s="133"/>
+      <c r="C116" s="134"/>
       <c r="D116" s="5">
         <v>0</v>
       </c>
@@ -7087,8 +7306,8 @@
         <v>0</v>
       </c>
       <c r="G116" s="2"/>
-      <c r="H116" s="131"/>
-      <c r="I116" s="132"/>
+      <c r="H116" s="133"/>
+      <c r="I116" s="134"/>
       <c r="J116" s="5">
         <v>0</v>
       </c>
@@ -7101,8 +7320,8 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
-      <c r="B117" s="131"/>
-      <c r="C117" s="132"/>
+      <c r="B117" s="133"/>
+      <c r="C117" s="134"/>
       <c r="D117" s="5">
         <v>0.25</v>
       </c>
@@ -7113,8 +7332,8 @@
         <v>0.92</v>
       </c>
       <c r="G117" s="2"/>
-      <c r="H117" s="131"/>
-      <c r="I117" s="132"/>
+      <c r="H117" s="133"/>
+      <c r="I117" s="134"/>
       <c r="J117" s="5">
         <v>0.25</v>
       </c>
@@ -7127,8 +7346,8 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
-      <c r="B118" s="131"/>
-      <c r="C118" s="132"/>
+      <c r="B118" s="133"/>
+      <c r="C118" s="134"/>
       <c r="D118" s="5">
         <v>0.5</v>
       </c>
@@ -7139,8 +7358,8 @@
         <v>2.09</v>
       </c>
       <c r="G118" s="2"/>
-      <c r="H118" s="131"/>
-      <c r="I118" s="132"/>
+      <c r="H118" s="133"/>
+      <c r="I118" s="134"/>
       <c r="J118" s="5">
         <v>0.5</v>
       </c>
@@ -7153,8 +7372,8 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
-      <c r="B119" s="131"/>
-      <c r="C119" s="132"/>
+      <c r="B119" s="133"/>
+      <c r="C119" s="134"/>
       <c r="D119" s="5">
         <v>0.75</v>
       </c>
@@ -7165,8 +7384,8 @@
         <v>3.4</v>
       </c>
       <c r="G119" s="2"/>
-      <c r="H119" s="131"/>
-      <c r="I119" s="132"/>
+      <c r="H119" s="133"/>
+      <c r="I119" s="134"/>
       <c r="J119" s="5">
         <v>0.75</v>
       </c>
@@ -7179,8 +7398,8 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
-      <c r="B120" s="131"/>
-      <c r="C120" s="132"/>
+      <c r="B120" s="133"/>
+      <c r="C120" s="134"/>
       <c r="D120" s="5">
         <v>1</v>
       </c>
@@ -7191,8 +7410,8 @@
         <v>4.79</v>
       </c>
       <c r="G120" s="2"/>
-      <c r="H120" s="131"/>
-      <c r="I120" s="132"/>
+      <c r="H120" s="133"/>
+      <c r="I120" s="134"/>
       <c r="J120" s="5">
         <v>1</v>
       </c>
@@ -7205,8 +7424,8 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
-      <c r="B121" s="131"/>
-      <c r="C121" s="132"/>
+      <c r="B121" s="133"/>
+      <c r="C121" s="134"/>
       <c r="D121" s="5">
         <v>1.5</v>
       </c>
@@ -7217,8 +7436,8 @@
         <v>7.81</v>
       </c>
       <c r="G121" s="2"/>
-      <c r="H121" s="131"/>
-      <c r="I121" s="132"/>
+      <c r="H121" s="133"/>
+      <c r="I121" s="134"/>
       <c r="J121" s="5">
         <v>1.5</v>
       </c>
@@ -7231,8 +7450,8 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
-      <c r="B122" s="131"/>
-      <c r="C122" s="132"/>
+      <c r="B122" s="133"/>
+      <c r="C122" s="134"/>
       <c r="D122" s="5">
         <v>2</v>
       </c>
@@ -7243,8 +7462,8 @@
         <v>10.6</v>
       </c>
       <c r="G122" s="2"/>
-      <c r="H122" s="131"/>
-      <c r="I122" s="132"/>
+      <c r="H122" s="133"/>
+      <c r="I122" s="134"/>
       <c r="J122" s="5">
         <v>2</v>
       </c>
@@ -7257,8 +7476,8 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
-      <c r="B123" s="131"/>
-      <c r="C123" s="132"/>
+      <c r="B123" s="133"/>
+      <c r="C123" s="134"/>
       <c r="D123" s="5">
         <v>2.5</v>
       </c>
@@ -7269,8 +7488,8 @@
         <v>12.89</v>
       </c>
       <c r="G123" s="2"/>
-      <c r="H123" s="131"/>
-      <c r="I123" s="132"/>
+      <c r="H123" s="133"/>
+      <c r="I123" s="134"/>
       <c r="J123" s="5">
         <v>2.5</v>
       </c>
@@ -7283,8 +7502,8 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
-      <c r="B124" s="131"/>
-      <c r="C124" s="132"/>
+      <c r="B124" s="133"/>
+      <c r="C124" s="134"/>
       <c r="D124" s="5">
         <v>3</v>
       </c>
@@ -7295,8 +7514,8 @@
         <v>15.05</v>
       </c>
       <c r="G124" s="2"/>
-      <c r="H124" s="131"/>
-      <c r="I124" s="132"/>
+      <c r="H124" s="133"/>
+      <c r="I124" s="134"/>
       <c r="J124" s="5">
         <v>3</v>
       </c>
@@ -7309,8 +7528,8 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
-      <c r="B125" s="131"/>
-      <c r="C125" s="132"/>
+      <c r="B125" s="133"/>
+      <c r="C125" s="134"/>
       <c r="D125" s="5">
         <v>3.5</v>
       </c>
@@ -7321,8 +7540,8 @@
         <v>16.899999999999999</v>
       </c>
       <c r="G125" s="2"/>
-      <c r="H125" s="131"/>
-      <c r="I125" s="132"/>
+      <c r="H125" s="133"/>
+      <c r="I125" s="134"/>
       <c r="J125" s="5">
         <v>3.5</v>
       </c>
@@ -7335,8 +7554,8 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
-      <c r="B126" s="131"/>
-      <c r="C126" s="132"/>
+      <c r="B126" s="133"/>
+      <c r="C126" s="134"/>
       <c r="D126" s="5">
         <v>4</v>
       </c>
@@ -7347,8 +7566,8 @@
         <v>18.559999999999999</v>
       </c>
       <c r="G126" s="2"/>
-      <c r="H126" s="131"/>
-      <c r="I126" s="132"/>
+      <c r="H126" s="133"/>
+      <c r="I126" s="134"/>
       <c r="J126" s="5">
         <v>4</v>
       </c>
@@ -7361,8 +7580,8 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
-      <c r="B127" s="131"/>
-      <c r="C127" s="132"/>
+      <c r="B127" s="133"/>
+      <c r="C127" s="134"/>
       <c r="D127" s="5">
         <v>4.5</v>
       </c>
@@ -7373,8 +7592,8 @@
         <v>20.05</v>
       </c>
       <c r="G127" s="2"/>
-      <c r="H127" s="131"/>
-      <c r="I127" s="132"/>
+      <c r="H127" s="133"/>
+      <c r="I127" s="134"/>
       <c r="J127" s="5">
         <v>4.5</v>
       </c>
@@ -7387,8 +7606,8 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
-      <c r="B128" s="131"/>
-      <c r="C128" s="132"/>
+      <c r="B128" s="133"/>
+      <c r="C128" s="134"/>
       <c r="D128" s="5">
         <v>5</v>
       </c>
@@ -7399,8 +7618,8 @@
         <v>21.4</v>
       </c>
       <c r="G128" s="2"/>
-      <c r="H128" s="131"/>
-      <c r="I128" s="132"/>
+      <c r="H128" s="133"/>
+      <c r="I128" s="134"/>
       <c r="J128" s="5">
         <v>5</v>
       </c>
@@ -7413,8 +7632,8 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
-      <c r="B129" s="131"/>
-      <c r="C129" s="132"/>
+      <c r="B129" s="133"/>
+      <c r="C129" s="134"/>
       <c r="D129" s="5">
         <v>5.5</v>
       </c>
@@ -7425,8 +7644,8 @@
         <v>22.7</v>
       </c>
       <c r="G129" s="2"/>
-      <c r="H129" s="131"/>
-      <c r="I129" s="132"/>
+      <c r="H129" s="133"/>
+      <c r="I129" s="134"/>
       <c r="J129" s="5">
         <v>5.5</v>
       </c>
@@ -7439,8 +7658,8 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
-      <c r="B130" s="131"/>
-      <c r="C130" s="132"/>
+      <c r="B130" s="133"/>
+      <c r="C130" s="134"/>
       <c r="D130" s="5">
         <v>6</v>
       </c>
@@ -7451,8 +7670,8 @@
         <v>23.87</v>
       </c>
       <c r="G130" s="2"/>
-      <c r="H130" s="131"/>
-      <c r="I130" s="132"/>
+      <c r="H130" s="133"/>
+      <c r="I130" s="134"/>
       <c r="J130" s="5">
         <v>6</v>
       </c>
@@ -7465,8 +7684,8 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
-      <c r="B131" s="131"/>
-      <c r="C131" s="132"/>
+      <c r="B131" s="133"/>
+      <c r="C131" s="134"/>
       <c r="D131" s="5">
         <v>7</v>
       </c>
@@ -7477,8 +7696,8 @@
         <v>26.21</v>
       </c>
       <c r="G131" s="2"/>
-      <c r="H131" s="131"/>
-      <c r="I131" s="132"/>
+      <c r="H131" s="133"/>
+      <c r="I131" s="134"/>
       <c r="J131" s="5">
         <v>7</v>
       </c>
@@ -7491,8 +7710,8 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
-      <c r="B132" s="131"/>
-      <c r="C132" s="132"/>
+      <c r="B132" s="133"/>
+      <c r="C132" s="134"/>
       <c r="D132" s="5">
         <v>8</v>
       </c>
@@ -7503,8 +7722,8 @@
         <v>28.55</v>
       </c>
       <c r="G132" s="2"/>
-      <c r="H132" s="131"/>
-      <c r="I132" s="132"/>
+      <c r="H132" s="133"/>
+      <c r="I132" s="134"/>
       <c r="J132" s="5">
         <v>8</v>
       </c>
@@ -7517,8 +7736,8 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
-      <c r="B133" s="133"/>
-      <c r="C133" s="134"/>
+      <c r="B133" s="135"/>
+      <c r="C133" s="136"/>
       <c r="D133" s="5">
         <v>9</v>
       </c>
@@ -7529,8 +7748,8 @@
         <v>30.89</v>
       </c>
       <c r="G133" s="2"/>
-      <c r="H133" s="133"/>
-      <c r="I133" s="134"/>
+      <c r="H133" s="135"/>
+      <c r="I133" s="136"/>
       <c r="J133" s="5">
         <v>9</v>
       </c>
@@ -7543,10 +7762,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
-      <c r="B134" s="135" t="s">
+      <c r="B134" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C134" s="136"/>
+      <c r="C134" s="130"/>
       <c r="D134" s="5">
         <v>10</v>
       </c>
@@ -7557,10 +7776,10 @@
         <v>33.229999999999997</v>
       </c>
       <c r="G134" s="2"/>
-      <c r="H134" s="135" t="s">
+      <c r="H134" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="I134" s="136"/>
+      <c r="I134" s="130"/>
       <c r="J134" s="5">
         <v>10</v>
       </c>
@@ -7751,10 +7970,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A142" s="1"/>
-      <c r="B142" s="129" t="s">
+      <c r="B142" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="C142" s="130"/>
+      <c r="C142" s="132"/>
       <c r="D142" s="3" t="s">
         <v>1</v>
       </c>
@@ -7765,10 +7984,10 @@
         <v>3</v>
       </c>
       <c r="G142" s="2"/>
-      <c r="H142" s="129" t="s">
+      <c r="H142" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="I142" s="130"/>
+      <c r="I142" s="132"/>
       <c r="J142" s="3" t="s">
         <v>1</v>
       </c>
@@ -7781,8 +8000,8 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A143" s="1"/>
-      <c r="B143" s="131"/>
-      <c r="C143" s="132"/>
+      <c r="B143" s="133"/>
+      <c r="C143" s="134"/>
       <c r="D143" s="4" t="s">
         <v>5</v>
       </c>
@@ -7793,8 +8012,8 @@
         <v>7</v>
       </c>
       <c r="G143" s="2"/>
-      <c r="H143" s="131"/>
-      <c r="I143" s="132"/>
+      <c r="H143" s="133"/>
+      <c r="I143" s="134"/>
       <c r="J143" s="4" t="s">
         <v>5</v>
       </c>
@@ -7807,8 +8026,8 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A144" s="1"/>
-      <c r="B144" s="131"/>
-      <c r="C144" s="132"/>
+      <c r="B144" s="133"/>
+      <c r="C144" s="134"/>
       <c r="D144" s="5">
         <v>0</v>
       </c>
@@ -7819,8 +8038,8 @@
         <v>0</v>
       </c>
       <c r="G144" s="2"/>
-      <c r="H144" s="131"/>
-      <c r="I144" s="132"/>
+      <c r="H144" s="133"/>
+      <c r="I144" s="134"/>
       <c r="J144" s="5">
         <v>0</v>
       </c>
@@ -7833,8 +8052,8 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A145" s="1"/>
-      <c r="B145" s="131"/>
-      <c r="C145" s="132"/>
+      <c r="B145" s="133"/>
+      <c r="C145" s="134"/>
       <c r="D145" s="5">
         <v>0.25</v>
       </c>
@@ -7845,8 +8064,8 @@
         <v>0.48</v>
       </c>
       <c r="G145" s="2"/>
-      <c r="H145" s="131"/>
-      <c r="I145" s="132"/>
+      <c r="H145" s="133"/>
+      <c r="I145" s="134"/>
       <c r="J145" s="5">
         <v>0.25</v>
       </c>
@@ -7859,8 +8078,8 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A146" s="1"/>
-      <c r="B146" s="131"/>
-      <c r="C146" s="132"/>
+      <c r="B146" s="133"/>
+      <c r="C146" s="134"/>
       <c r="D146" s="5">
         <v>0.5</v>
       </c>
@@ -7871,8 +8090,8 @@
         <v>1.08</v>
       </c>
       <c r="G146" s="2"/>
-      <c r="H146" s="131"/>
-      <c r="I146" s="132"/>
+      <c r="H146" s="133"/>
+      <c r="I146" s="134"/>
       <c r="J146" s="5">
         <v>0.5</v>
       </c>
@@ -7885,8 +8104,8 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A147" s="1"/>
-      <c r="B147" s="131"/>
-      <c r="C147" s="132"/>
+      <c r="B147" s="133"/>
+      <c r="C147" s="134"/>
       <c r="D147" s="5">
         <v>0.75</v>
       </c>
@@ -7897,8 +8116,8 @@
         <v>1.73</v>
       </c>
       <c r="G147" s="2"/>
-      <c r="H147" s="131"/>
-      <c r="I147" s="132"/>
+      <c r="H147" s="133"/>
+      <c r="I147" s="134"/>
       <c r="J147" s="5">
         <v>0.75</v>
       </c>
@@ -7911,8 +8130,8 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A148" s="1"/>
-      <c r="B148" s="131"/>
-      <c r="C148" s="132"/>
+      <c r="B148" s="133"/>
+      <c r="C148" s="134"/>
       <c r="D148" s="5">
         <v>1</v>
       </c>
@@ -7923,8 +8142,8 @@
         <v>2.46</v>
       </c>
       <c r="G148" s="2"/>
-      <c r="H148" s="131"/>
-      <c r="I148" s="132"/>
+      <c r="H148" s="133"/>
+      <c r="I148" s="134"/>
       <c r="J148" s="5">
         <v>1</v>
       </c>
@@ -7937,8 +8156,8 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A149" s="1"/>
-      <c r="B149" s="131"/>
-      <c r="C149" s="132"/>
+      <c r="B149" s="133"/>
+      <c r="C149" s="134"/>
       <c r="D149" s="5">
         <v>1.5</v>
       </c>
@@ -7949,8 +8168,8 @@
         <v>4.04</v>
       </c>
       <c r="G149" s="2"/>
-      <c r="H149" s="131"/>
-      <c r="I149" s="132"/>
+      <c r="H149" s="133"/>
+      <c r="I149" s="134"/>
       <c r="J149" s="5">
         <v>1.5</v>
       </c>
@@ -7963,8 +8182,8 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A150" s="1"/>
-      <c r="B150" s="131"/>
-      <c r="C150" s="132"/>
+      <c r="B150" s="133"/>
+      <c r="C150" s="134"/>
       <c r="D150" s="5">
         <v>2</v>
       </c>
@@ -7975,8 +8194,8 @@
         <v>5.51</v>
       </c>
       <c r="G150" s="2"/>
-      <c r="H150" s="131"/>
-      <c r="I150" s="132"/>
+      <c r="H150" s="133"/>
+      <c r="I150" s="134"/>
       <c r="J150" s="5">
         <v>2</v>
       </c>
@@ -7989,8 +8208,8 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A151" s="1"/>
-      <c r="B151" s="131"/>
-      <c r="C151" s="132"/>
+      <c r="B151" s="133"/>
+      <c r="C151" s="134"/>
       <c r="D151" s="5">
         <v>2.5</v>
       </c>
@@ -8001,8 +8220,8 @@
         <v>6.71</v>
       </c>
       <c r="G151" s="2"/>
-      <c r="H151" s="131"/>
-      <c r="I151" s="132"/>
+      <c r="H151" s="133"/>
+      <c r="I151" s="134"/>
       <c r="J151" s="5">
         <v>2.5</v>
       </c>
@@ -8015,8 +8234,8 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A152" s="1"/>
-      <c r="B152" s="131"/>
-      <c r="C152" s="132"/>
+      <c r="B152" s="133"/>
+      <c r="C152" s="134"/>
       <c r="D152" s="5">
         <v>3</v>
       </c>
@@ -8027,8 +8246,8 @@
         <v>7.81</v>
       </c>
       <c r="G152" s="2"/>
-      <c r="H152" s="131"/>
-      <c r="I152" s="132"/>
+      <c r="H152" s="133"/>
+      <c r="I152" s="134"/>
       <c r="J152" s="5">
         <v>3</v>
       </c>
@@ -8041,8 +8260,8 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A153" s="1"/>
-      <c r="B153" s="131"/>
-      <c r="C153" s="132"/>
+      <c r="B153" s="133"/>
+      <c r="C153" s="134"/>
       <c r="D153" s="5">
         <v>3.5</v>
       </c>
@@ -8053,8 +8272,8 @@
         <v>8.76</v>
       </c>
       <c r="G153" s="2"/>
-      <c r="H153" s="131"/>
-      <c r="I153" s="132"/>
+      <c r="H153" s="133"/>
+      <c r="I153" s="134"/>
       <c r="J153" s="5">
         <v>3.5</v>
       </c>
@@ -8067,8 +8286,8 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A154" s="1"/>
-      <c r="B154" s="131"/>
-      <c r="C154" s="132"/>
+      <c r="B154" s="133"/>
+      <c r="C154" s="134"/>
       <c r="D154" s="5">
         <v>4</v>
       </c>
@@ -8079,8 +8298,8 @@
         <v>9.61</v>
       </c>
       <c r="G154" s="2"/>
-      <c r="H154" s="131"/>
-      <c r="I154" s="132"/>
+      <c r="H154" s="133"/>
+      <c r="I154" s="134"/>
       <c r="J154" s="5">
         <v>4</v>
       </c>
@@ -8093,8 +8312,8 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A155" s="1"/>
-      <c r="B155" s="131"/>
-      <c r="C155" s="132"/>
+      <c r="B155" s="133"/>
+      <c r="C155" s="134"/>
       <c r="D155" s="5">
         <v>4.5</v>
       </c>
@@ -8105,8 +8324,8 @@
         <v>10.29</v>
       </c>
       <c r="G155" s="2"/>
-      <c r="H155" s="131"/>
-      <c r="I155" s="132"/>
+      <c r="H155" s="133"/>
+      <c r="I155" s="134"/>
       <c r="J155" s="5">
         <v>4.5</v>
       </c>
@@ -8119,8 +8338,8 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A156" s="1"/>
-      <c r="B156" s="131"/>
-      <c r="C156" s="132"/>
+      <c r="B156" s="133"/>
+      <c r="C156" s="134"/>
       <c r="D156" s="5">
         <v>5</v>
       </c>
@@ -8131,8 +8350,8 @@
         <v>10.91</v>
       </c>
       <c r="G156" s="2"/>
-      <c r="H156" s="131"/>
-      <c r="I156" s="132"/>
+      <c r="H156" s="133"/>
+      <c r="I156" s="134"/>
       <c r="J156" s="5">
         <v>5</v>
       </c>
@@ -8145,8 +8364,8 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A157" s="1"/>
-      <c r="B157" s="131"/>
-      <c r="C157" s="132"/>
+      <c r="B157" s="133"/>
+      <c r="C157" s="134"/>
       <c r="D157" s="5">
         <v>5.5</v>
       </c>
@@ -8157,8 +8376,8 @@
         <v>11.51</v>
       </c>
       <c r="G157" s="2"/>
-      <c r="H157" s="131"/>
-      <c r="I157" s="132"/>
+      <c r="H157" s="133"/>
+      <c r="I157" s="134"/>
       <c r="J157" s="5">
         <v>5.5</v>
       </c>
@@ -8171,8 +8390,8 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A158" s="1"/>
-      <c r="B158" s="131"/>
-      <c r="C158" s="132"/>
+      <c r="B158" s="133"/>
+      <c r="C158" s="134"/>
       <c r="D158" s="5">
         <v>6</v>
       </c>
@@ -8183,8 +8402,8 @@
         <v>12.06</v>
       </c>
       <c r="G158" s="2"/>
-      <c r="H158" s="131"/>
-      <c r="I158" s="132"/>
+      <c r="H158" s="133"/>
+      <c r="I158" s="134"/>
       <c r="J158" s="5">
         <v>6</v>
       </c>
@@ -8197,8 +8416,8 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A159" s="1"/>
-      <c r="B159" s="131"/>
-      <c r="C159" s="132"/>
+      <c r="B159" s="133"/>
+      <c r="C159" s="134"/>
       <c r="D159" s="5">
         <v>7</v>
       </c>
@@ -8209,8 +8428,8 @@
         <v>13.16</v>
       </c>
       <c r="G159" s="2"/>
-      <c r="H159" s="131"/>
-      <c r="I159" s="132"/>
+      <c r="H159" s="133"/>
+      <c r="I159" s="134"/>
       <c r="J159" s="5">
         <v>7</v>
       </c>
@@ -8223,8 +8442,8 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A160" s="1"/>
-      <c r="B160" s="131"/>
-      <c r="C160" s="132"/>
+      <c r="B160" s="133"/>
+      <c r="C160" s="134"/>
       <c r="D160" s="5">
         <v>8</v>
       </c>
@@ -8235,8 +8454,8 @@
         <v>14.26</v>
       </c>
       <c r="G160" s="2"/>
-      <c r="H160" s="131"/>
-      <c r="I160" s="132"/>
+      <c r="H160" s="133"/>
+      <c r="I160" s="134"/>
       <c r="J160" s="5">
         <v>8</v>
       </c>
@@ -8249,8 +8468,8 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A161" s="1"/>
-      <c r="B161" s="133"/>
-      <c r="C161" s="134"/>
+      <c r="B161" s="135"/>
+      <c r="C161" s="136"/>
       <c r="D161" s="5">
         <v>9</v>
       </c>
@@ -8261,8 +8480,8 @@
         <v>15.36</v>
       </c>
       <c r="G161" s="2"/>
-      <c r="H161" s="133"/>
-      <c r="I161" s="134"/>
+      <c r="H161" s="135"/>
+      <c r="I161" s="136"/>
       <c r="J161" s="5">
         <v>9</v>
       </c>
@@ -8275,10 +8494,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A162" s="1"/>
-      <c r="B162" s="135" t="s">
+      <c r="B162" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="136"/>
+      <c r="C162" s="130"/>
       <c r="D162" s="5">
         <v>10</v>
       </c>
@@ -8289,10 +8508,10 @@
         <v>16.46</v>
       </c>
       <c r="G162" s="2"/>
-      <c r="H162" s="135" t="s">
+      <c r="H162" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="I162" s="136"/>
+      <c r="I162" s="130"/>
       <c r="J162" s="5">
         <v>10</v>
       </c>
@@ -8483,10 +8702,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A170" s="1"/>
-      <c r="B170" s="129" t="s">
+      <c r="B170" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="C170" s="130"/>
+      <c r="C170" s="132"/>
       <c r="D170" s="3" t="s">
         <v>1</v>
       </c>
@@ -8497,10 +8716,10 @@
         <v>3</v>
       </c>
       <c r="G170" s="2"/>
-      <c r="H170" s="129" t="s">
+      <c r="H170" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="I170" s="130"/>
+      <c r="I170" s="132"/>
       <c r="J170" s="3" t="s">
         <v>1</v>
       </c>
@@ -8513,8 +8732,8 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A171" s="1"/>
-      <c r="B171" s="131"/>
-      <c r="C171" s="132"/>
+      <c r="B171" s="133"/>
+      <c r="C171" s="134"/>
       <c r="D171" s="4" t="s">
         <v>5</v>
       </c>
@@ -8525,8 +8744,8 @@
         <v>7</v>
       </c>
       <c r="G171" s="2"/>
-      <c r="H171" s="131"/>
-      <c r="I171" s="132"/>
+      <c r="H171" s="133"/>
+      <c r="I171" s="134"/>
       <c r="J171" s="4" t="s">
         <v>5</v>
       </c>
@@ -8539,8 +8758,8 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A172" s="1"/>
-      <c r="B172" s="131"/>
-      <c r="C172" s="132"/>
+      <c r="B172" s="133"/>
+      <c r="C172" s="134"/>
       <c r="D172" s="5">
         <v>0</v>
       </c>
@@ -8551,8 +8770,8 @@
         <v>0</v>
       </c>
       <c r="G172" s="2"/>
-      <c r="H172" s="131"/>
-      <c r="I172" s="132"/>
+      <c r="H172" s="133"/>
+      <c r="I172" s="134"/>
       <c r="J172" s="5">
         <v>0</v>
       </c>
@@ -8565,8 +8784,8 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A173" s="1"/>
-      <c r="B173" s="131"/>
-      <c r="C173" s="132"/>
+      <c r="B173" s="133"/>
+      <c r="C173" s="134"/>
       <c r="D173" s="5">
         <v>0.25</v>
       </c>
@@ -8577,8 +8796,8 @@
         <v>0.38</v>
       </c>
       <c r="G173" s="2"/>
-      <c r="H173" s="131"/>
-      <c r="I173" s="132"/>
+      <c r="H173" s="133"/>
+      <c r="I173" s="134"/>
       <c r="J173" s="5">
         <v>0.25</v>
       </c>
@@ -8591,8 +8810,8 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A174" s="1"/>
-      <c r="B174" s="131"/>
-      <c r="C174" s="132"/>
+      <c r="B174" s="133"/>
+      <c r="C174" s="134"/>
       <c r="D174" s="5">
         <v>0.5</v>
       </c>
@@ -8603,8 +8822,8 @@
         <v>0.81</v>
       </c>
       <c r="G174" s="2"/>
-      <c r="H174" s="131"/>
-      <c r="I174" s="132"/>
+      <c r="H174" s="133"/>
+      <c r="I174" s="134"/>
       <c r="J174" s="5">
         <v>0.5</v>
       </c>
@@ -8617,8 +8836,8 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A175" s="1"/>
-      <c r="B175" s="131"/>
-      <c r="C175" s="132"/>
+      <c r="B175" s="133"/>
+      <c r="C175" s="134"/>
       <c r="D175" s="5">
         <v>0.75</v>
       </c>
@@ -8629,8 +8848,8 @@
         <v>1.37</v>
       </c>
       <c r="G175" s="2"/>
-      <c r="H175" s="131"/>
-      <c r="I175" s="132"/>
+      <c r="H175" s="133"/>
+      <c r="I175" s="134"/>
       <c r="J175" s="5">
         <v>0.75</v>
       </c>
@@ -8643,8 +8862,8 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A176" s="1"/>
-      <c r="B176" s="131"/>
-      <c r="C176" s="132"/>
+      <c r="B176" s="133"/>
+      <c r="C176" s="134"/>
       <c r="D176" s="5">
         <v>1</v>
       </c>
@@ -8655,8 +8874,8 @@
         <v>1.91</v>
       </c>
       <c r="G176" s="2"/>
-      <c r="H176" s="131"/>
-      <c r="I176" s="132"/>
+      <c r="H176" s="133"/>
+      <c r="I176" s="134"/>
       <c r="J176" s="5">
         <v>1</v>
       </c>
@@ -8669,8 +8888,8 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A177" s="1"/>
-      <c r="B177" s="131"/>
-      <c r="C177" s="132"/>
+      <c r="B177" s="133"/>
+      <c r="C177" s="134"/>
       <c r="D177" s="5">
         <v>1.5</v>
       </c>
@@ -8681,8 +8900,8 @@
         <v>3.05</v>
       </c>
       <c r="G177" s="2"/>
-      <c r="H177" s="131"/>
-      <c r="I177" s="132"/>
+      <c r="H177" s="133"/>
+      <c r="I177" s="134"/>
       <c r="J177" s="5">
         <v>1.5</v>
       </c>
@@ -8695,8 +8914,8 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A178" s="1"/>
-      <c r="B178" s="131"/>
-      <c r="C178" s="132"/>
+      <c r="B178" s="133"/>
+      <c r="C178" s="134"/>
       <c r="D178" s="5">
         <v>2</v>
       </c>
@@ -8707,8 +8926,8 @@
         <v>4.17</v>
       </c>
       <c r="G178" s="2"/>
-      <c r="H178" s="131"/>
-      <c r="I178" s="132"/>
+      <c r="H178" s="133"/>
+      <c r="I178" s="134"/>
       <c r="J178" s="5">
         <v>2</v>
       </c>
@@ -8721,8 +8940,8 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A179" s="1"/>
-      <c r="B179" s="131"/>
-      <c r="C179" s="132"/>
+      <c r="B179" s="133"/>
+      <c r="C179" s="134"/>
       <c r="D179" s="5">
         <v>2.5</v>
       </c>
@@ -8733,8 +8952,8 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="G179" s="2"/>
-      <c r="H179" s="131"/>
-      <c r="I179" s="132"/>
+      <c r="H179" s="133"/>
+      <c r="I179" s="134"/>
       <c r="J179" s="5">
         <v>2.5</v>
       </c>
@@ -8747,8 +8966,8 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A180" s="1"/>
-      <c r="B180" s="131"/>
-      <c r="C180" s="132"/>
+      <c r="B180" s="133"/>
+      <c r="C180" s="134"/>
       <c r="D180" s="5">
         <v>3</v>
       </c>
@@ -8759,8 +8978,8 @@
         <v>6.03</v>
       </c>
       <c r="G180" s="2"/>
-      <c r="H180" s="131"/>
-      <c r="I180" s="132"/>
+      <c r="H180" s="133"/>
+      <c r="I180" s="134"/>
       <c r="J180" s="5">
         <v>3</v>
       </c>
@@ -8773,8 +8992,8 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A181" s="1"/>
-      <c r="B181" s="131"/>
-      <c r="C181" s="132"/>
+      <c r="B181" s="133"/>
+      <c r="C181" s="134"/>
       <c r="D181" s="5">
         <v>3.5</v>
       </c>
@@ -8785,8 +9004,8 @@
         <v>6.79</v>
       </c>
       <c r="G181" s="2"/>
-      <c r="H181" s="131"/>
-      <c r="I181" s="132"/>
+      <c r="H181" s="133"/>
+      <c r="I181" s="134"/>
       <c r="J181" s="5">
         <v>3.5</v>
       </c>
@@ -8799,8 +9018,8 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A182" s="1"/>
-      <c r="B182" s="131"/>
-      <c r="C182" s="132"/>
+      <c r="B182" s="133"/>
+      <c r="C182" s="134"/>
       <c r="D182" s="5">
         <v>4</v>
       </c>
@@ -8811,8 +9030,8 @@
         <v>7.45</v>
       </c>
       <c r="G182" s="2"/>
-      <c r="H182" s="131"/>
-      <c r="I182" s="132"/>
+      <c r="H182" s="133"/>
+      <c r="I182" s="134"/>
       <c r="J182" s="5">
         <v>4</v>
       </c>
@@ -8825,8 +9044,8 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A183" s="1"/>
-      <c r="B183" s="131"/>
-      <c r="C183" s="132"/>
+      <c r="B183" s="133"/>
+      <c r="C183" s="134"/>
       <c r="D183" s="5">
         <v>4.5</v>
       </c>
@@ -8837,8 +9056,8 @@
         <v>8.09</v>
       </c>
       <c r="G183" s="2"/>
-      <c r="H183" s="131"/>
-      <c r="I183" s="132"/>
+      <c r="H183" s="133"/>
+      <c r="I183" s="134"/>
       <c r="J183" s="5">
         <v>4.5</v>
       </c>
@@ -8851,8 +9070,8 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A184" s="1"/>
-      <c r="B184" s="131"/>
-      <c r="C184" s="132"/>
+      <c r="B184" s="133"/>
+      <c r="C184" s="134"/>
       <c r="D184" s="5">
         <v>5</v>
       </c>
@@ -8863,8 +9082,8 @@
         <v>8.49</v>
       </c>
       <c r="G184" s="2"/>
-      <c r="H184" s="131"/>
-      <c r="I184" s="132"/>
+      <c r="H184" s="133"/>
+      <c r="I184" s="134"/>
       <c r="J184" s="5">
         <v>5</v>
       </c>
@@ -8877,8 +9096,8 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A185" s="1"/>
-      <c r="B185" s="131"/>
-      <c r="C185" s="132"/>
+      <c r="B185" s="133"/>
+      <c r="C185" s="134"/>
       <c r="D185" s="5">
         <v>5.5</v>
       </c>
@@ -8889,8 +9108,8 @@
         <v>8.91</v>
       </c>
       <c r="G185" s="2"/>
-      <c r="H185" s="131"/>
-      <c r="I185" s="132"/>
+      <c r="H185" s="133"/>
+      <c r="I185" s="134"/>
       <c r="J185" s="5">
         <v>5.5</v>
       </c>
@@ -8903,8 +9122,8 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A186" s="1"/>
-      <c r="B186" s="131"/>
-      <c r="C186" s="132"/>
+      <c r="B186" s="133"/>
+      <c r="C186" s="134"/>
       <c r="D186" s="5">
         <v>6</v>
       </c>
@@ -8915,8 +9134,8 @@
         <v>9.25</v>
       </c>
       <c r="G186" s="2"/>
-      <c r="H186" s="131"/>
-      <c r="I186" s="132"/>
+      <c r="H186" s="133"/>
+      <c r="I186" s="134"/>
       <c r="J186" s="5">
         <v>6</v>
       </c>
@@ -8929,8 +9148,8 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A187" s="1"/>
-      <c r="B187" s="131"/>
-      <c r="C187" s="132"/>
+      <c r="B187" s="133"/>
+      <c r="C187" s="134"/>
       <c r="D187" s="5">
         <v>7</v>
       </c>
@@ -8941,8 +9160,8 @@
         <v>9.93</v>
       </c>
       <c r="G187" s="2"/>
-      <c r="H187" s="131"/>
-      <c r="I187" s="132"/>
+      <c r="H187" s="133"/>
+      <c r="I187" s="134"/>
       <c r="J187" s="5">
         <v>7</v>
       </c>
@@ -8955,8 +9174,8 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A188" s="1"/>
-      <c r="B188" s="131"/>
-      <c r="C188" s="132"/>
+      <c r="B188" s="133"/>
+      <c r="C188" s="134"/>
       <c r="D188" s="5">
         <v>8</v>
       </c>
@@ -8967,8 +9186,8 @@
         <v>10.61</v>
       </c>
       <c r="G188" s="2"/>
-      <c r="H188" s="131"/>
-      <c r="I188" s="132"/>
+      <c r="H188" s="133"/>
+      <c r="I188" s="134"/>
       <c r="J188" s="5">
         <v>8</v>
       </c>
@@ -8981,8 +9200,8 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A189" s="1"/>
-      <c r="B189" s="133"/>
-      <c r="C189" s="134"/>
+      <c r="B189" s="135"/>
+      <c r="C189" s="136"/>
       <c r="D189" s="5">
         <v>9</v>
       </c>
@@ -8993,8 +9212,8 @@
         <v>11.29</v>
       </c>
       <c r="G189" s="2"/>
-      <c r="H189" s="133"/>
-      <c r="I189" s="134"/>
+      <c r="H189" s="135"/>
+      <c r="I189" s="136"/>
       <c r="J189" s="5">
         <v>9</v>
       </c>
@@ -9007,10 +9226,10 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A190" s="1"/>
-      <c r="B190" s="135" t="s">
+      <c r="B190" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C190" s="136"/>
+      <c r="C190" s="130"/>
       <c r="D190" s="5">
         <v>10</v>
       </c>
@@ -9021,10 +9240,10 @@
         <v>11.97</v>
       </c>
       <c r="G190" s="2"/>
-      <c r="H190" s="135" t="s">
+      <c r="H190" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="I190" s="136"/>
+      <c r="I190" s="130"/>
       <c r="J190" s="5">
         <v>10</v>
       </c>
@@ -9215,10 +9434,10 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A198" s="1"/>
-      <c r="B198" s="129" t="s">
+      <c r="B198" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="C198" s="130"/>
+      <c r="C198" s="132"/>
       <c r="D198" s="3" t="s">
         <v>1</v>
       </c>
@@ -9229,10 +9448,10 @@
         <v>3</v>
       </c>
       <c r="G198" s="2"/>
-      <c r="H198" s="129" t="s">
+      <c r="H198" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="I198" s="130"/>
+      <c r="I198" s="132"/>
       <c r="J198" s="3" t="s">
         <v>1</v>
       </c>
@@ -9245,8 +9464,8 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A199" s="1"/>
-      <c r="B199" s="131"/>
-      <c r="C199" s="132"/>
+      <c r="B199" s="133"/>
+      <c r="C199" s="134"/>
       <c r="D199" s="4" t="s">
         <v>5</v>
       </c>
@@ -9257,8 +9476,8 @@
         <v>7</v>
       </c>
       <c r="G199" s="2"/>
-      <c r="H199" s="131"/>
-      <c r="I199" s="132"/>
+      <c r="H199" s="133"/>
+      <c r="I199" s="134"/>
       <c r="J199" s="4" t="s">
         <v>5</v>
       </c>
@@ -9271,8 +9490,8 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A200" s="1"/>
-      <c r="B200" s="131"/>
-      <c r="C200" s="132"/>
+      <c r="B200" s="133"/>
+      <c r="C200" s="134"/>
       <c r="D200" s="5">
         <v>0</v>
       </c>
@@ -9283,8 +9502,8 @@
         <v>0</v>
       </c>
       <c r="G200" s="2"/>
-      <c r="H200" s="131"/>
-      <c r="I200" s="132"/>
+      <c r="H200" s="133"/>
+      <c r="I200" s="134"/>
       <c r="J200" s="5">
         <v>0</v>
       </c>
@@ -9297,8 +9516,8 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A201" s="1"/>
-      <c r="B201" s="131"/>
-      <c r="C201" s="132"/>
+      <c r="B201" s="133"/>
+      <c r="C201" s="134"/>
       <c r="D201" s="5">
         <v>0.25</v>
       </c>
@@ -9309,8 +9528,8 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G201" s="2"/>
-      <c r="H201" s="131"/>
-      <c r="I201" s="132"/>
+      <c r="H201" s="133"/>
+      <c r="I201" s="134"/>
       <c r="J201" s="5">
         <v>0.25</v>
       </c>
@@ -9323,8 +9542,8 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A202" s="1"/>
-      <c r="B202" s="131"/>
-      <c r="C202" s="132"/>
+      <c r="B202" s="133"/>
+      <c r="C202" s="134"/>
       <c r="D202" s="5">
         <v>0.5</v>
       </c>
@@ -9335,8 +9554,8 @@
         <v>1.23</v>
       </c>
       <c r="G202" s="2"/>
-      <c r="H202" s="131"/>
-      <c r="I202" s="132"/>
+      <c r="H202" s="133"/>
+      <c r="I202" s="134"/>
       <c r="J202" s="5">
         <v>0.5</v>
       </c>
@@ -9349,8 +9568,8 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A203" s="1"/>
-      <c r="B203" s="131"/>
-      <c r="C203" s="132"/>
+      <c r="B203" s="133"/>
+      <c r="C203" s="134"/>
       <c r="D203" s="5">
         <v>0.75</v>
       </c>
@@ -9361,8 +9580,8 @@
         <v>1.98</v>
       </c>
       <c r="G203" s="2"/>
-      <c r="H203" s="131"/>
-      <c r="I203" s="132"/>
+      <c r="H203" s="133"/>
+      <c r="I203" s="134"/>
       <c r="J203" s="5">
         <v>0.75</v>
       </c>
@@ -9375,8 +9594,8 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A204" s="1"/>
-      <c r="B204" s="131"/>
-      <c r="C204" s="132"/>
+      <c r="B204" s="133"/>
+      <c r="C204" s="134"/>
       <c r="D204" s="5">
         <v>1</v>
       </c>
@@ -9387,8 +9606,8 @@
         <v>2.75</v>
       </c>
       <c r="G204" s="2"/>
-      <c r="H204" s="131"/>
-      <c r="I204" s="132"/>
+      <c r="H204" s="133"/>
+      <c r="I204" s="134"/>
       <c r="J204" s="5">
         <v>1</v>
       </c>
@@ -9401,8 +9620,8 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A205" s="1"/>
-      <c r="B205" s="131"/>
-      <c r="C205" s="132"/>
+      <c r="B205" s="133"/>
+      <c r="C205" s="134"/>
       <c r="D205" s="5">
         <v>1.5</v>
       </c>
@@ -9413,8 +9632,8 @@
         <v>4.28</v>
       </c>
       <c r="G205" s="2"/>
-      <c r="H205" s="131"/>
-      <c r="I205" s="132"/>
+      <c r="H205" s="133"/>
+      <c r="I205" s="134"/>
       <c r="J205" s="5">
         <v>1.5</v>
       </c>
@@ -9427,8 +9646,8 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A206" s="1"/>
-      <c r="B206" s="131"/>
-      <c r="C206" s="132"/>
+      <c r="B206" s="133"/>
+      <c r="C206" s="134"/>
       <c r="D206" s="5">
         <v>2</v>
       </c>
@@ -9439,8 +9658,8 @@
         <v>5.63</v>
       </c>
       <c r="G206" s="2"/>
-      <c r="H206" s="131"/>
-      <c r="I206" s="132"/>
+      <c r="H206" s="133"/>
+      <c r="I206" s="134"/>
       <c r="J206" s="5">
         <v>2</v>
       </c>
@@ -9453,8 +9672,8 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A207" s="1"/>
-      <c r="B207" s="131"/>
-      <c r="C207" s="132"/>
+      <c r="B207" s="133"/>
+      <c r="C207" s="134"/>
       <c r="D207" s="5">
         <v>2.5</v>
       </c>
@@ -9465,8 +9684,8 @@
         <v>6.93</v>
       </c>
       <c r="G207" s="2"/>
-      <c r="H207" s="131"/>
-      <c r="I207" s="132"/>
+      <c r="H207" s="133"/>
+      <c r="I207" s="134"/>
       <c r="J207" s="5">
         <v>2.5</v>
       </c>
@@ -9479,8 +9698,8 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A208" s="1"/>
-      <c r="B208" s="131"/>
-      <c r="C208" s="132"/>
+      <c r="B208" s="133"/>
+      <c r="C208" s="134"/>
       <c r="D208" s="5">
         <v>3</v>
       </c>
@@ -9491,8 +9710,8 @@
         <v>8.18</v>
       </c>
       <c r="G208" s="2"/>
-      <c r="H208" s="131"/>
-      <c r="I208" s="132"/>
+      <c r="H208" s="133"/>
+      <c r="I208" s="134"/>
       <c r="J208" s="5">
         <v>3</v>
       </c>
@@ -9505,8 +9724,8 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A209" s="1"/>
-      <c r="B209" s="131"/>
-      <c r="C209" s="132"/>
+      <c r="B209" s="133"/>
+      <c r="C209" s="134"/>
       <c r="D209" s="5">
         <v>3.5</v>
       </c>
@@ -9517,8 +9736,8 @@
         <v>9.35</v>
       </c>
       <c r="G209" s="2"/>
-      <c r="H209" s="131"/>
-      <c r="I209" s="132"/>
+      <c r="H209" s="133"/>
+      <c r="I209" s="134"/>
       <c r="J209" s="5">
         <v>3.5</v>
       </c>
@@ -9531,8 +9750,8 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A210" s="1"/>
-      <c r="B210" s="131"/>
-      <c r="C210" s="132"/>
+      <c r="B210" s="133"/>
+      <c r="C210" s="134"/>
       <c r="D210" s="5">
         <v>4</v>
       </c>
@@ -9543,8 +9762,8 @@
         <v>10.35</v>
       </c>
       <c r="G210" s="2"/>
-      <c r="H210" s="131"/>
-      <c r="I210" s="132"/>
+      <c r="H210" s="133"/>
+      <c r="I210" s="134"/>
       <c r="J210" s="5">
         <v>4</v>
       </c>
@@ -9557,8 +9776,8 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A211" s="1"/>
-      <c r="B211" s="131"/>
-      <c r="C211" s="132"/>
+      <c r="B211" s="133"/>
+      <c r="C211" s="134"/>
       <c r="D211" s="5">
         <v>4.5</v>
       </c>
@@ -9569,8 +9788,8 @@
         <v>11.23</v>
       </c>
       <c r="G211" s="2"/>
-      <c r="H211" s="131"/>
-      <c r="I211" s="132"/>
+      <c r="H211" s="133"/>
+      <c r="I211" s="134"/>
       <c r="J211" s="5">
         <v>4.5</v>
       </c>
@@ -9583,8 +9802,8 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A212" s="1"/>
-      <c r="B212" s="131"/>
-      <c r="C212" s="132"/>
+      <c r="B212" s="133"/>
+      <c r="C212" s="134"/>
       <c r="D212" s="5">
         <v>5</v>
       </c>
@@ -9595,8 +9814,8 @@
         <v>11.98</v>
       </c>
       <c r="G212" s="2"/>
-      <c r="H212" s="131"/>
-      <c r="I212" s="132"/>
+      <c r="H212" s="133"/>
+      <c r="I212" s="134"/>
       <c r="J212" s="5">
         <v>5</v>
       </c>
@@ -9609,8 +9828,8 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A213" s="1"/>
-      <c r="B213" s="131"/>
-      <c r="C213" s="132"/>
+      <c r="B213" s="133"/>
+      <c r="C213" s="134"/>
       <c r="D213" s="5">
         <v>5.5</v>
       </c>
@@ -9621,8 +9840,8 @@
         <v>12.58</v>
       </c>
       <c r="G213" s="2"/>
-      <c r="H213" s="131"/>
-      <c r="I213" s="132"/>
+      <c r="H213" s="133"/>
+      <c r="I213" s="134"/>
       <c r="J213" s="5">
         <v>5.5</v>
       </c>
@@ -9635,8 +9854,8 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
-      <c r="B214" s="131"/>
-      <c r="C214" s="132"/>
+      <c r="B214" s="133"/>
+      <c r="C214" s="134"/>
       <c r="D214" s="5">
         <v>6</v>
       </c>
@@ -9647,8 +9866,8 @@
         <v>13.08</v>
       </c>
       <c r="G214" s="2"/>
-      <c r="H214" s="131"/>
-      <c r="I214" s="132"/>
+      <c r="H214" s="133"/>
+      <c r="I214" s="134"/>
       <c r="J214" s="5">
         <v>6</v>
       </c>
@@ -9661,8 +9880,8 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
-      <c r="B215" s="131"/>
-      <c r="C215" s="132"/>
+      <c r="B215" s="133"/>
+      <c r="C215" s="134"/>
       <c r="D215" s="5">
         <v>7</v>
       </c>
@@ -9673,8 +9892,8 @@
         <v>14.08</v>
       </c>
       <c r="G215" s="2"/>
-      <c r="H215" s="131"/>
-      <c r="I215" s="132"/>
+      <c r="H215" s="133"/>
+      <c r="I215" s="134"/>
       <c r="J215" s="5">
         <v>7</v>
       </c>
@@ -9687,8 +9906,8 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
-      <c r="B216" s="131"/>
-      <c r="C216" s="132"/>
+      <c r="B216" s="133"/>
+      <c r="C216" s="134"/>
       <c r="D216" s="5">
         <v>8</v>
       </c>
@@ -9699,8 +9918,8 @@
         <v>15.08</v>
       </c>
       <c r="G216" s="2"/>
-      <c r="H216" s="131"/>
-      <c r="I216" s="132"/>
+      <c r="H216" s="133"/>
+      <c r="I216" s="134"/>
       <c r="J216" s="5">
         <v>8</v>
       </c>
@@ -9713,8 +9932,8 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
-      <c r="B217" s="133"/>
-      <c r="C217" s="134"/>
+      <c r="B217" s="135"/>
+      <c r="C217" s="136"/>
       <c r="D217" s="5">
         <v>9</v>
       </c>
@@ -9725,8 +9944,8 @@
         <v>16.079999999999998</v>
       </c>
       <c r="G217" s="2"/>
-      <c r="H217" s="133"/>
-      <c r="I217" s="134"/>
+      <c r="H217" s="135"/>
+      <c r="I217" s="136"/>
       <c r="J217" s="5">
         <v>9</v>
       </c>
@@ -9739,10 +9958,10 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
-      <c r="B218" s="135" t="s">
+      <c r="B218" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C218" s="136"/>
+      <c r="C218" s="130"/>
       <c r="D218" s="5">
         <v>10</v>
       </c>
@@ -9753,10 +9972,10 @@
         <v>17.079999999999998</v>
       </c>
       <c r="G218" s="2"/>
-      <c r="H218" s="135" t="s">
+      <c r="H218" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="I218" s="136"/>
+      <c r="I218" s="130"/>
       <c r="J218" s="5">
         <v>10</v>
       </c>
@@ -9947,10 +10166,10 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
-      <c r="B226" s="129" t="s">
+      <c r="B226" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C226" s="130"/>
+      <c r="C226" s="132"/>
       <c r="D226" s="3" t="s">
         <v>1</v>
       </c>
@@ -9961,10 +10180,10 @@
         <v>3</v>
       </c>
       <c r="G226" s="2"/>
-      <c r="H226" s="129" t="s">
+      <c r="H226" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="I226" s="130"/>
+      <c r="I226" s="132"/>
       <c r="J226" s="3" t="s">
         <v>1</v>
       </c>
@@ -9977,8 +10196,8 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
-      <c r="B227" s="131"/>
-      <c r="C227" s="132"/>
+      <c r="B227" s="133"/>
+      <c r="C227" s="134"/>
       <c r="D227" s="4" t="s">
         <v>5</v>
       </c>
@@ -9989,8 +10208,8 @@
         <v>7</v>
       </c>
       <c r="G227" s="2"/>
-      <c r="H227" s="131"/>
-      <c r="I227" s="132"/>
+      <c r="H227" s="133"/>
+      <c r="I227" s="134"/>
       <c r="J227" s="4" t="s">
         <v>5</v>
       </c>
@@ -10003,8 +10222,8 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
-      <c r="B228" s="131"/>
-      <c r="C228" s="132"/>
+      <c r="B228" s="133"/>
+      <c r="C228" s="134"/>
       <c r="D228" s="5">
         <v>0</v>
       </c>
@@ -10015,8 +10234,8 @@
         <v>0</v>
       </c>
       <c r="G228" s="2"/>
-      <c r="H228" s="131"/>
-      <c r="I228" s="132"/>
+      <c r="H228" s="133"/>
+      <c r="I228" s="134"/>
       <c r="J228" s="5">
         <v>0</v>
       </c>
@@ -10029,8 +10248,8 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
-      <c r="B229" s="131"/>
-      <c r="C229" s="132"/>
+      <c r="B229" s="133"/>
+      <c r="C229" s="134"/>
       <c r="D229" s="5">
         <v>0.25</v>
       </c>
@@ -10041,8 +10260,8 @@
         <v>0.39</v>
       </c>
       <c r="G229" s="2"/>
-      <c r="H229" s="131"/>
-      <c r="I229" s="132"/>
+      <c r="H229" s="133"/>
+      <c r="I229" s="134"/>
       <c r="J229" s="5">
         <v>0.25</v>
       </c>
@@ -10055,8 +10274,8 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
-      <c r="B230" s="131"/>
-      <c r="C230" s="132"/>
+      <c r="B230" s="133"/>
+      <c r="C230" s="134"/>
       <c r="D230" s="5">
         <v>0.5</v>
       </c>
@@ -10067,8 +10286,8 @@
         <v>0.84</v>
       </c>
       <c r="G230" s="2"/>
-      <c r="H230" s="131"/>
-      <c r="I230" s="132"/>
+      <c r="H230" s="133"/>
+      <c r="I230" s="134"/>
       <c r="J230" s="5">
         <v>0.5</v>
       </c>
@@ -10081,8 +10300,8 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
-      <c r="B231" s="131"/>
-      <c r="C231" s="132"/>
+      <c r="B231" s="133"/>
+      <c r="C231" s="134"/>
       <c r="D231" s="5">
         <v>0.75</v>
       </c>
@@ -10093,8 +10312,8 @@
         <v>1.39</v>
       </c>
       <c r="G231" s="2"/>
-      <c r="H231" s="131"/>
-      <c r="I231" s="132"/>
+      <c r="H231" s="133"/>
+      <c r="I231" s="134"/>
       <c r="J231" s="5">
         <v>0.75</v>
       </c>
@@ -10107,8 +10326,8 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
-      <c r="B232" s="131"/>
-      <c r="C232" s="132"/>
+      <c r="B232" s="133"/>
+      <c r="C232" s="134"/>
       <c r="D232" s="5">
         <v>1</v>
       </c>
@@ -10119,8 +10338,8 @@
         <v>1.96</v>
       </c>
       <c r="G232" s="2"/>
-      <c r="H232" s="131"/>
-      <c r="I232" s="132"/>
+      <c r="H232" s="133"/>
+      <c r="I232" s="134"/>
       <c r="J232" s="5">
         <v>1</v>
       </c>
@@ -10133,8 +10352,8 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
-      <c r="B233" s="131"/>
-      <c r="C233" s="132"/>
+      <c r="B233" s="133"/>
+      <c r="C233" s="134"/>
       <c r="D233" s="5">
         <v>1.5</v>
       </c>
@@ -10145,8 +10364,8 @@
         <v>3.2</v>
       </c>
       <c r="G233" s="2"/>
-      <c r="H233" s="131"/>
-      <c r="I233" s="132"/>
+      <c r="H233" s="133"/>
+      <c r="I233" s="134"/>
       <c r="J233" s="5">
         <v>1.5</v>
       </c>
@@ -10159,8 +10378,8 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
-      <c r="B234" s="131"/>
-      <c r="C234" s="132"/>
+      <c r="B234" s="133"/>
+      <c r="C234" s="134"/>
       <c r="D234" s="5">
         <v>2</v>
       </c>
@@ -10171,8 +10390,8 @@
         <v>4.38</v>
       </c>
       <c r="G234" s="2"/>
-      <c r="H234" s="131"/>
-      <c r="I234" s="132"/>
+      <c r="H234" s="133"/>
+      <c r="I234" s="134"/>
       <c r="J234" s="5">
         <v>2</v>
       </c>
@@ -10185,8 +10404,8 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
-      <c r="B235" s="131"/>
-      <c r="C235" s="132"/>
+      <c r="B235" s="133"/>
+      <c r="C235" s="134"/>
       <c r="D235" s="5">
         <v>2.5</v>
       </c>
@@ -10197,8 +10416,8 @@
         <v>5.54</v>
       </c>
       <c r="G235" s="2"/>
-      <c r="H235" s="131"/>
-      <c r="I235" s="132"/>
+      <c r="H235" s="133"/>
+      <c r="I235" s="134"/>
       <c r="J235" s="5">
         <v>2.5</v>
       </c>
@@ -10211,8 +10430,8 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
-      <c r="B236" s="131"/>
-      <c r="C236" s="132"/>
+      <c r="B236" s="133"/>
+      <c r="C236" s="134"/>
       <c r="D236" s="5">
         <v>3</v>
       </c>
@@ -10223,8 +10442,8 @@
         <v>6.48</v>
       </c>
       <c r="G236" s="2"/>
-      <c r="H236" s="131"/>
-      <c r="I236" s="132"/>
+      <c r="H236" s="133"/>
+      <c r="I236" s="134"/>
       <c r="J236" s="5">
         <v>3</v>
       </c>
@@ -10237,8 +10456,8 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
-      <c r="B237" s="131"/>
-      <c r="C237" s="132"/>
+      <c r="B237" s="133"/>
+      <c r="C237" s="134"/>
       <c r="D237" s="5">
         <v>3.5</v>
       </c>
@@ -10249,8 +10468,8 @@
         <v>7.1</v>
       </c>
       <c r="G237" s="2"/>
-      <c r="H237" s="131"/>
-      <c r="I237" s="132"/>
+      <c r="H237" s="133"/>
+      <c r="I237" s="134"/>
       <c r="J237" s="5">
         <v>3.5</v>
       </c>
@@ -10263,8 +10482,8 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
-      <c r="B238" s="131"/>
-      <c r="C238" s="132"/>
+      <c r="B238" s="133"/>
+      <c r="C238" s="134"/>
       <c r="D238" s="5">
         <v>4</v>
       </c>
@@ -10275,8 +10494,8 @@
         <v>7.7</v>
       </c>
       <c r="G238" s="2"/>
-      <c r="H238" s="131"/>
-      <c r="I238" s="132"/>
+      <c r="H238" s="133"/>
+      <c r="I238" s="134"/>
       <c r="J238" s="5">
         <v>4</v>
       </c>
@@ -10289,8 +10508,8 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A239" s="1"/>
-      <c r="B239" s="131"/>
-      <c r="C239" s="132"/>
+      <c r="B239" s="133"/>
+      <c r="C239" s="134"/>
       <c r="D239" s="5">
         <v>4.5</v>
       </c>
@@ -10301,8 +10520,8 @@
         <v>8.26</v>
       </c>
       <c r="G239" s="2"/>
-      <c r="H239" s="131"/>
-      <c r="I239" s="132"/>
+      <c r="H239" s="133"/>
+      <c r="I239" s="134"/>
       <c r="J239" s="5">
         <v>4.5</v>
       </c>
@@ -10315,8 +10534,8 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A240" s="1"/>
-      <c r="B240" s="131"/>
-      <c r="C240" s="132"/>
+      <c r="B240" s="133"/>
+      <c r="C240" s="134"/>
       <c r="D240" s="5">
         <v>5</v>
       </c>
@@ -10327,8 +10546,8 @@
         <v>8.82</v>
       </c>
       <c r="G240" s="2"/>
-      <c r="H240" s="131"/>
-      <c r="I240" s="132"/>
+      <c r="H240" s="133"/>
+      <c r="I240" s="134"/>
       <c r="J240" s="5">
         <v>5</v>
       </c>
@@ -10341,8 +10560,8 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A241" s="1"/>
-      <c r="B241" s="131"/>
-      <c r="C241" s="132"/>
+      <c r="B241" s="133"/>
+      <c r="C241" s="134"/>
       <c r="D241" s="5">
         <v>5.5</v>
       </c>
@@ -10353,8 +10572,8 @@
         <v>9.36</v>
       </c>
       <c r="G241" s="2"/>
-      <c r="H241" s="131"/>
-      <c r="I241" s="132"/>
+      <c r="H241" s="133"/>
+      <c r="I241" s="134"/>
       <c r="J241" s="5">
         <v>5.5</v>
       </c>
@@ -10367,8 +10586,8 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A242" s="1"/>
-      <c r="B242" s="131"/>
-      <c r="C242" s="132"/>
+      <c r="B242" s="133"/>
+      <c r="C242" s="134"/>
       <c r="D242" s="5">
         <v>6</v>
       </c>
@@ -10379,8 +10598,8 @@
         <v>9.76</v>
       </c>
       <c r="G242" s="2"/>
-      <c r="H242" s="131"/>
-      <c r="I242" s="132"/>
+      <c r="H242" s="133"/>
+      <c r="I242" s="134"/>
       <c r="J242" s="5">
         <v>6</v>
       </c>
@@ -10393,8 +10612,8 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A243" s="1"/>
-      <c r="B243" s="131"/>
-      <c r="C243" s="132"/>
+      <c r="B243" s="133"/>
+      <c r="C243" s="134"/>
       <c r="D243" s="5">
         <v>7</v>
       </c>
@@ -10405,8 +10624,8 @@
         <v>10.56</v>
       </c>
       <c r="G243" s="2"/>
-      <c r="H243" s="131"/>
-      <c r="I243" s="132"/>
+      <c r="H243" s="133"/>
+      <c r="I243" s="134"/>
       <c r="J243" s="5">
         <v>7</v>
       </c>
@@ -10419,8 +10638,8 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A244" s="1"/>
-      <c r="B244" s="131"/>
-      <c r="C244" s="132"/>
+      <c r="B244" s="133"/>
+      <c r="C244" s="134"/>
       <c r="D244" s="5">
         <v>8</v>
       </c>
@@ -10431,8 +10650,8 @@
         <v>11.36</v>
       </c>
       <c r="G244" s="2"/>
-      <c r="H244" s="131"/>
-      <c r="I244" s="132"/>
+      <c r="H244" s="133"/>
+      <c r="I244" s="134"/>
       <c r="J244" s="5">
         <v>8</v>
       </c>
@@ -10445,8 +10664,8 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A245" s="1"/>
-      <c r="B245" s="133"/>
-      <c r="C245" s="134"/>
+      <c r="B245" s="135"/>
+      <c r="C245" s="136"/>
       <c r="D245" s="5">
         <v>9</v>
       </c>
@@ -10457,8 +10676,8 @@
         <v>12.16</v>
       </c>
       <c r="G245" s="2"/>
-      <c r="H245" s="133"/>
-      <c r="I245" s="134"/>
+      <c r="H245" s="135"/>
+      <c r="I245" s="136"/>
       <c r="J245" s="5">
         <v>9</v>
       </c>
@@ -10471,10 +10690,10 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A246" s="1"/>
-      <c r="B246" s="135" t="s">
+      <c r="B246" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C246" s="136"/>
+      <c r="C246" s="130"/>
       <c r="D246" s="5">
         <v>10</v>
       </c>
@@ -10485,10 +10704,10 @@
         <v>12.96</v>
       </c>
       <c r="G246" s="2"/>
-      <c r="H246" s="135" t="s">
+      <c r="H246" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="I246" s="136"/>
+      <c r="I246" s="130"/>
       <c r="J246" s="5">
         <v>10</v>
       </c>
@@ -10679,10 +10898,10 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A254" s="1"/>
-      <c r="B254" s="129" t="s">
+      <c r="B254" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="C254" s="130"/>
+      <c r="C254" s="132"/>
       <c r="D254" s="3" t="s">
         <v>1</v>
       </c>
@@ -10693,10 +10912,10 @@
         <v>3</v>
       </c>
       <c r="G254" s="2"/>
-      <c r="H254" s="129" t="s">
+      <c r="H254" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="I254" s="130"/>
+      <c r="I254" s="132"/>
       <c r="J254" s="3" t="s">
         <v>1</v>
       </c>
@@ -10709,8 +10928,8 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A255" s="1"/>
-      <c r="B255" s="131"/>
-      <c r="C255" s="132"/>
+      <c r="B255" s="133"/>
+      <c r="C255" s="134"/>
       <c r="D255" s="4" t="s">
         <v>5</v>
       </c>
@@ -10721,8 +10940,8 @@
         <v>7</v>
       </c>
       <c r="G255" s="2"/>
-      <c r="H255" s="131"/>
-      <c r="I255" s="132"/>
+      <c r="H255" s="133"/>
+      <c r="I255" s="134"/>
       <c r="J255" s="4" t="s">
         <v>5</v>
       </c>
@@ -10735,8 +10954,8 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A256" s="1"/>
-      <c r="B256" s="131"/>
-      <c r="C256" s="132"/>
+      <c r="B256" s="133"/>
+      <c r="C256" s="134"/>
       <c r="D256" s="5">
         <v>0</v>
       </c>
@@ -10747,8 +10966,8 @@
         <v>0</v>
       </c>
       <c r="G256" s="2"/>
-      <c r="H256" s="131"/>
-      <c r="I256" s="132"/>
+      <c r="H256" s="133"/>
+      <c r="I256" s="134"/>
       <c r="J256" s="5">
         <v>0</v>
       </c>
@@ -10761,8 +10980,8 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A257" s="1"/>
-      <c r="B257" s="131"/>
-      <c r="C257" s="132"/>
+      <c r="B257" s="133"/>
+      <c r="C257" s="134"/>
       <c r="D257" s="5">
         <v>0.25</v>
       </c>
@@ -10773,8 +10992,8 @@
         <v>0.38</v>
       </c>
       <c r="G257" s="2"/>
-      <c r="H257" s="131"/>
-      <c r="I257" s="132"/>
+      <c r="H257" s="133"/>
+      <c r="I257" s="134"/>
       <c r="J257" s="5">
         <v>0.25</v>
       </c>
@@ -10787,8 +11006,8 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A258" s="1"/>
-      <c r="B258" s="131"/>
-      <c r="C258" s="132"/>
+      <c r="B258" s="133"/>
+      <c r="C258" s="134"/>
       <c r="D258" s="5">
         <v>0.5</v>
       </c>
@@ -10799,8 +11018,8 @@
         <v>0.85</v>
       </c>
       <c r="G258" s="2"/>
-      <c r="H258" s="131"/>
-      <c r="I258" s="132"/>
+      <c r="H258" s="133"/>
+      <c r="I258" s="134"/>
       <c r="J258" s="5">
         <v>0.5</v>
       </c>
@@ -10813,8 +11032,8 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A259" s="1"/>
-      <c r="B259" s="131"/>
-      <c r="C259" s="132"/>
+      <c r="B259" s="133"/>
+      <c r="C259" s="134"/>
       <c r="D259" s="5">
         <v>0.75</v>
       </c>
@@ -10825,8 +11044,8 @@
         <v>1.48</v>
       </c>
       <c r="G259" s="2"/>
-      <c r="H259" s="131"/>
-      <c r="I259" s="132"/>
+      <c r="H259" s="133"/>
+      <c r="I259" s="134"/>
       <c r="J259" s="5">
         <v>0.75</v>
       </c>
@@ -10839,8 +11058,8 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A260" s="1"/>
-      <c r="B260" s="131"/>
-      <c r="C260" s="132"/>
+      <c r="B260" s="133"/>
+      <c r="C260" s="134"/>
       <c r="D260" s="5">
         <v>1</v>
       </c>
@@ -10851,8 +11070,8 @@
         <v>2.14</v>
       </c>
       <c r="G260" s="2"/>
-      <c r="H260" s="131"/>
-      <c r="I260" s="132"/>
+      <c r="H260" s="133"/>
+      <c r="I260" s="134"/>
       <c r="J260" s="5">
         <v>1</v>
       </c>
@@ -10865,8 +11084,8 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A261" s="1"/>
-      <c r="B261" s="131"/>
-      <c r="C261" s="132"/>
+      <c r="B261" s="133"/>
+      <c r="C261" s="134"/>
       <c r="D261" s="5">
         <v>1.5</v>
       </c>
@@ -10877,8 +11096,8 @@
         <v>3.32</v>
       </c>
       <c r="G261" s="2"/>
-      <c r="H261" s="131"/>
-      <c r="I261" s="132"/>
+      <c r="H261" s="133"/>
+      <c r="I261" s="134"/>
       <c r="J261" s="5">
         <v>1.5</v>
       </c>
@@ -10891,8 +11110,8 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A262" s="1"/>
-      <c r="B262" s="131"/>
-      <c r="C262" s="132"/>
+      <c r="B262" s="133"/>
+      <c r="C262" s="134"/>
       <c r="D262" s="5">
         <v>2</v>
       </c>
@@ -10903,8 +11122,8 @@
         <v>4.42</v>
       </c>
       <c r="G262" s="2"/>
-      <c r="H262" s="131"/>
-      <c r="I262" s="132"/>
+      <c r="H262" s="133"/>
+      <c r="I262" s="134"/>
       <c r="J262" s="5">
         <v>2</v>
       </c>
@@ -10917,8 +11136,8 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A263" s="1"/>
-      <c r="B263" s="131"/>
-      <c r="C263" s="132"/>
+      <c r="B263" s="133"/>
+      <c r="C263" s="134"/>
       <c r="D263" s="5">
         <v>2.5</v>
       </c>
@@ -10929,8 +11148,8 @@
         <v>5.46</v>
       </c>
       <c r="G263" s="2"/>
-      <c r="H263" s="131"/>
-      <c r="I263" s="132"/>
+      <c r="H263" s="133"/>
+      <c r="I263" s="134"/>
       <c r="J263" s="5">
         <v>2.5</v>
       </c>
@@ -10943,8 +11162,8 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A264" s="1"/>
-      <c r="B264" s="131"/>
-      <c r="C264" s="132"/>
+      <c r="B264" s="133"/>
+      <c r="C264" s="134"/>
       <c r="D264" s="5">
         <v>3</v>
       </c>
@@ -10955,8 +11174,8 @@
         <v>6.46</v>
       </c>
       <c r="G264" s="2"/>
-      <c r="H264" s="131"/>
-      <c r="I264" s="132"/>
+      <c r="H264" s="133"/>
+      <c r="I264" s="134"/>
       <c r="J264" s="5">
         <v>3</v>
       </c>
@@ -10969,8 +11188,8 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A265" s="1"/>
-      <c r="B265" s="131"/>
-      <c r="C265" s="132"/>
+      <c r="B265" s="133"/>
+      <c r="C265" s="134"/>
       <c r="D265" s="5">
         <v>3.5</v>
       </c>
@@ -10981,8 +11200,8 @@
         <v>7.36</v>
       </c>
       <c r="G265" s="2"/>
-      <c r="H265" s="131"/>
-      <c r="I265" s="132"/>
+      <c r="H265" s="133"/>
+      <c r="I265" s="134"/>
       <c r="J265" s="5">
         <v>3.5</v>
       </c>
@@ -10995,8 +11214,8 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A266" s="1"/>
-      <c r="B266" s="131"/>
-      <c r="C266" s="132"/>
+      <c r="B266" s="133"/>
+      <c r="C266" s="134"/>
       <c r="D266" s="5">
         <v>4</v>
       </c>
@@ -11007,8 +11226,8 @@
         <v>8.18</v>
       </c>
       <c r="G266" s="2"/>
-      <c r="H266" s="131"/>
-      <c r="I266" s="132"/>
+      <c r="H266" s="133"/>
+      <c r="I266" s="134"/>
       <c r="J266" s="5">
         <v>4</v>
       </c>
@@ -11021,8 +11240,8 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A267" s="1"/>
-      <c r="B267" s="131"/>
-      <c r="C267" s="132"/>
+      <c r="B267" s="133"/>
+      <c r="C267" s="134"/>
       <c r="D267" s="5">
         <v>4.5</v>
       </c>
@@ -11033,8 +11252,8 @@
         <v>8.92</v>
       </c>
       <c r="G267" s="2"/>
-      <c r="H267" s="131"/>
-      <c r="I267" s="132"/>
+      <c r="H267" s="133"/>
+      <c r="I267" s="134"/>
       <c r="J267" s="5">
         <v>4.5</v>
       </c>
@@ -11047,8 +11266,8 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A268" s="1"/>
-      <c r="B268" s="131"/>
-      <c r="C268" s="132"/>
+      <c r="B268" s="133"/>
+      <c r="C268" s="134"/>
       <c r="D268" s="5">
         <v>5</v>
       </c>
@@ -11059,8 +11278,8 @@
         <v>9.5</v>
       </c>
       <c r="G268" s="2"/>
-      <c r="H268" s="131"/>
-      <c r="I268" s="132"/>
+      <c r="H268" s="133"/>
+      <c r="I268" s="134"/>
       <c r="J268" s="5">
         <v>5</v>
       </c>
@@ -11073,8 +11292,8 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A269" s="1"/>
-      <c r="B269" s="131"/>
-      <c r="C269" s="132"/>
+      <c r="B269" s="133"/>
+      <c r="C269" s="134"/>
       <c r="D269" s="5">
         <v>5.5</v>
       </c>
@@ -11085,8 +11304,8 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="G269" s="2"/>
-      <c r="H269" s="131"/>
-      <c r="I269" s="132"/>
+      <c r="H269" s="133"/>
+      <c r="I269" s="134"/>
       <c r="J269" s="5">
         <v>5.5</v>
       </c>
@@ -11099,8 +11318,8 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A270" s="1"/>
-      <c r="B270" s="131"/>
-      <c r="C270" s="132"/>
+      <c r="B270" s="133"/>
+      <c r="C270" s="134"/>
       <c r="D270" s="5">
         <v>6</v>
       </c>
@@ -11111,8 +11330,8 @@
         <v>10.32</v>
       </c>
       <c r="G270" s="2"/>
-      <c r="H270" s="131"/>
-      <c r="I270" s="132"/>
+      <c r="H270" s="133"/>
+      <c r="I270" s="134"/>
       <c r="J270" s="5">
         <v>6</v>
       </c>
@@ -11125,8 +11344,8 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A271" s="1"/>
-      <c r="B271" s="131"/>
-      <c r="C271" s="132"/>
+      <c r="B271" s="133"/>
+      <c r="C271" s="134"/>
       <c r="D271" s="5">
         <v>7</v>
       </c>
@@ -11137,8 +11356,8 @@
         <v>11.04</v>
       </c>
       <c r="G271" s="2"/>
-      <c r="H271" s="131"/>
-      <c r="I271" s="132"/>
+      <c r="H271" s="133"/>
+      <c r="I271" s="134"/>
       <c r="J271" s="5">
         <v>7</v>
       </c>
@@ -11151,8 +11370,8 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A272" s="1"/>
-      <c r="B272" s="131"/>
-      <c r="C272" s="132"/>
+      <c r="B272" s="133"/>
+      <c r="C272" s="134"/>
       <c r="D272" s="5">
         <v>8</v>
       </c>
@@ -11163,8 +11382,8 @@
         <v>11.76</v>
       </c>
       <c r="G272" s="2"/>
-      <c r="H272" s="131"/>
-      <c r="I272" s="132"/>
+      <c r="H272" s="133"/>
+      <c r="I272" s="134"/>
       <c r="J272" s="5">
         <v>8</v>
       </c>
@@ -11177,8 +11396,8 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A273" s="1"/>
-      <c r="B273" s="133"/>
-      <c r="C273" s="134"/>
+      <c r="B273" s="135"/>
+      <c r="C273" s="136"/>
       <c r="D273" s="5">
         <v>9</v>
       </c>
@@ -11189,8 +11408,8 @@
         <v>12.48</v>
       </c>
       <c r="G273" s="2"/>
-      <c r="H273" s="133"/>
-      <c r="I273" s="134"/>
+      <c r="H273" s="135"/>
+      <c r="I273" s="136"/>
       <c r="J273" s="5">
         <v>9</v>
       </c>
@@ -11203,10 +11422,10 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A274" s="1"/>
-      <c r="B274" s="135" t="s">
+      <c r="B274" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C274" s="136"/>
+      <c r="C274" s="130"/>
       <c r="D274" s="5">
         <v>10</v>
       </c>
@@ -11217,10 +11436,10 @@
         <v>13.2</v>
       </c>
       <c r="G274" s="2"/>
-      <c r="H274" s="135" t="s">
+      <c r="H274" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="I274" s="136"/>
+      <c r="I274" s="130"/>
       <c r="J274" s="5">
         <v>10</v>
       </c>
@@ -11411,10 +11630,10 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A282" s="1"/>
-      <c r="B282" s="129" t="s">
+      <c r="B282" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="C282" s="130"/>
+      <c r="C282" s="132"/>
       <c r="D282" s="3" t="s">
         <v>1</v>
       </c>
@@ -11433,8 +11652,8 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A283" s="1"/>
-      <c r="B283" s="131"/>
-      <c r="C283" s="132"/>
+      <c r="B283" s="133"/>
+      <c r="C283" s="134"/>
       <c r="D283" s="4" t="s">
         <v>5</v>
       </c>
@@ -11453,8 +11672,8 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A284" s="1"/>
-      <c r="B284" s="131"/>
-      <c r="C284" s="132"/>
+      <c r="B284" s="133"/>
+      <c r="C284" s="134"/>
       <c r="D284" s="5">
         <v>0</v>
       </c>
@@ -11473,8 +11692,8 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A285" s="1"/>
-      <c r="B285" s="131"/>
-      <c r="C285" s="132"/>
+      <c r="B285" s="133"/>
+      <c r="C285" s="134"/>
       <c r="D285" s="5">
         <v>0.25</v>
       </c>
@@ -11493,8 +11712,8 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A286" s="1"/>
-      <c r="B286" s="131"/>
-      <c r="C286" s="132"/>
+      <c r="B286" s="133"/>
+      <c r="C286" s="134"/>
       <c r="D286" s="5">
         <v>0.5</v>
       </c>
@@ -11513,8 +11732,8 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A287" s="1"/>
-      <c r="B287" s="131"/>
-      <c r="C287" s="132"/>
+      <c r="B287" s="133"/>
+      <c r="C287" s="134"/>
       <c r="D287" s="5">
         <v>0.75</v>
       </c>
@@ -11533,8 +11752,8 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A288" s="1"/>
-      <c r="B288" s="131"/>
-      <c r="C288" s="132"/>
+      <c r="B288" s="133"/>
+      <c r="C288" s="134"/>
       <c r="D288" s="5">
         <v>1</v>
       </c>
@@ -11553,8 +11772,8 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A289" s="1"/>
-      <c r="B289" s="131"/>
-      <c r="C289" s="132"/>
+      <c r="B289" s="133"/>
+      <c r="C289" s="134"/>
       <c r="D289" s="5">
         <v>1.5</v>
       </c>
@@ -11573,8 +11792,8 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A290" s="1"/>
-      <c r="B290" s="131"/>
-      <c r="C290" s="132"/>
+      <c r="B290" s="133"/>
+      <c r="C290" s="134"/>
       <c r="D290" s="5">
         <v>2</v>
       </c>
@@ -11593,8 +11812,8 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A291" s="1"/>
-      <c r="B291" s="131"/>
-      <c r="C291" s="132"/>
+      <c r="B291" s="133"/>
+      <c r="C291" s="134"/>
       <c r="D291" s="5">
         <v>2.5</v>
       </c>
@@ -11613,8 +11832,8 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A292" s="1"/>
-      <c r="B292" s="131"/>
-      <c r="C292" s="132"/>
+      <c r="B292" s="133"/>
+      <c r="C292" s="134"/>
       <c r="D292" s="5">
         <v>3</v>
       </c>
@@ -11633,8 +11852,8 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A293" s="1"/>
-      <c r="B293" s="131"/>
-      <c r="C293" s="132"/>
+      <c r="B293" s="133"/>
+      <c r="C293" s="134"/>
       <c r="D293" s="5">
         <v>3.5</v>
       </c>
@@ -11653,8 +11872,8 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A294" s="1"/>
-      <c r="B294" s="131"/>
-      <c r="C294" s="132"/>
+      <c r="B294" s="133"/>
+      <c r="C294" s="134"/>
       <c r="D294" s="5">
         <v>4</v>
       </c>
@@ -11673,8 +11892,8 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A295" s="1"/>
-      <c r="B295" s="131"/>
-      <c r="C295" s="132"/>
+      <c r="B295" s="133"/>
+      <c r="C295" s="134"/>
       <c r="D295" s="5">
         <v>4.5</v>
       </c>
@@ -11693,8 +11912,8 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A296" s="1"/>
-      <c r="B296" s="131"/>
-      <c r="C296" s="132"/>
+      <c r="B296" s="133"/>
+      <c r="C296" s="134"/>
       <c r="D296" s="5">
         <v>5</v>
       </c>
@@ -11713,8 +11932,8 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A297" s="1"/>
-      <c r="B297" s="131"/>
-      <c r="C297" s="132"/>
+      <c r="B297" s="133"/>
+      <c r="C297" s="134"/>
       <c r="D297" s="5">
         <v>5.5</v>
       </c>
@@ -11733,8 +11952,8 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A298" s="1"/>
-      <c r="B298" s="131"/>
-      <c r="C298" s="132"/>
+      <c r="B298" s="133"/>
+      <c r="C298" s="134"/>
       <c r="D298" s="5">
         <v>6</v>
       </c>
@@ -11753,8 +11972,8 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A299" s="1"/>
-      <c r="B299" s="131"/>
-      <c r="C299" s="132"/>
+      <c r="B299" s="133"/>
+      <c r="C299" s="134"/>
       <c r="D299" s="5">
         <v>7</v>
       </c>
@@ -11773,8 +11992,8 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A300" s="1"/>
-      <c r="B300" s="131"/>
-      <c r="C300" s="132"/>
+      <c r="B300" s="133"/>
+      <c r="C300" s="134"/>
       <c r="D300" s="5">
         <v>8</v>
       </c>
@@ -11793,8 +12012,8 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A301" s="1"/>
-      <c r="B301" s="133"/>
-      <c r="C301" s="134"/>
+      <c r="B301" s="135"/>
+      <c r="C301" s="136"/>
       <c r="D301" s="5">
         <v>9</v>
       </c>
@@ -11813,10 +12032,10 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A302" s="1"/>
-      <c r="B302" s="135" t="s">
+      <c r="B302" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C302" s="136"/>
+      <c r="C302" s="130"/>
       <c r="D302" s="5">
         <v>10</v>
       </c>
@@ -11945,6 +12164,36 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B2:C21"/>
+    <mergeCell ref="H2:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B30:C49"/>
+    <mergeCell ref="H30:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B58:C77"/>
+    <mergeCell ref="H58:I77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="B86:C105"/>
+    <mergeCell ref="H86:I105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B114:C133"/>
+    <mergeCell ref="H114:I133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="B142:C161"/>
+    <mergeCell ref="H142:I161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="B170:C189"/>
+    <mergeCell ref="H170:I189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="B198:C217"/>
+    <mergeCell ref="H198:I217"/>
     <mergeCell ref="B302:C302"/>
     <mergeCell ref="B218:C218"/>
     <mergeCell ref="H218:I218"/>
@@ -11957,36 +12206,6 @@
     <mergeCell ref="B274:C274"/>
     <mergeCell ref="H274:I274"/>
     <mergeCell ref="B282:C301"/>
-    <mergeCell ref="B170:C189"/>
-    <mergeCell ref="H170:I189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="B198:C217"/>
-    <mergeCell ref="H198:I217"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="B142:C161"/>
-    <mergeCell ref="H142:I161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="B86:C105"/>
-    <mergeCell ref="H86:I105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B114:C133"/>
-    <mergeCell ref="H114:I133"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B58:C77"/>
-    <mergeCell ref="H58:I77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="B2:C21"/>
-    <mergeCell ref="H2:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B30:C49"/>
-    <mergeCell ref="H30:I49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -43495,16 +43714,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75519623-5105-47FA-8037-D4F40F6B4546}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="41" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="3" width="11.3125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="11.0625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.0625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.0625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -43536,33 +43760,33 @@
     <row r="2" spans="1:20" s="41" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="158"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="160" t="s">
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="162" t="s">
+      <c r="G2" s="154"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="163" t="s">
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="158"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="163" t="s">
+      <c r="N2" s="154"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="159"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="155"/>
       <c r="T2" s="82" t="s">
         <v>95</v>
       </c>
@@ -43649,16 +43873,16 @@
       <c r="H4" s="97">
         <v>312.42030908916797</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="57">
         <v>20.448897977743911</v>
       </c>
-      <c r="J4" s="96">
+      <c r="J4" s="165">
         <v>15.46842183127514</v>
       </c>
-      <c r="K4" s="96">
+      <c r="K4" s="165">
         <v>27.26519730365855</v>
       </c>
-      <c r="L4" s="97">
+      <c r="L4" s="59">
         <v>22.41800265402194</v>
       </c>
       <c r="M4" s="95">
@@ -43670,27 +43894,65 @@
       <c r="O4" s="97">
         <v>381.6532150041848</v>
       </c>
-      <c r="P4" s="95">
+      <c r="P4" s="57">
         <v>24.235003327948501</v>
       </c>
-      <c r="Q4" s="96">
+      <c r="Q4" s="165">
         <v>33.197312760242397</v>
       </c>
-      <c r="R4" s="96">
+      <c r="R4" s="165">
         <v>29.554882107254269</v>
       </c>
-      <c r="S4" s="97">
+      <c r="S4" s="59">
         <v>43.113393195119997</v>
       </c>
       <c r="T4" s="98">
         <v>140.80995730342769</v>
       </c>
     </row>
+    <row r="5" spans="1:20" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="166" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="167"/>
+      <c r="I5" s="168">
+        <f>I4*0.05+I4</f>
+        <v>21.471342876631105</v>
+      </c>
+      <c r="J5" s="169">
+        <f>J4*0.05+J4</f>
+        <v>16.241842922838899</v>
+      </c>
+      <c r="K5" s="169">
+        <f t="shared" ref="J5:L5" si="0">K4*0.05+K4</f>
+        <v>28.628457168841479</v>
+      </c>
+      <c r="L5" s="170">
+        <f t="shared" si="0"/>
+        <v>23.538902786723035</v>
+      </c>
+      <c r="P5" s="171">
+        <f>P4*0.05 + P4</f>
+        <v>25.446753494345927</v>
+      </c>
+      <c r="Q5" s="172">
+        <f t="shared" ref="Q5:S5" si="1">Q4*0.05 + Q4</f>
+        <v>34.857178398254518</v>
+      </c>
+      <c r="R5" s="172">
+        <f t="shared" si="1"/>
+        <v>31.032626212616982</v>
+      </c>
+      <c r="S5" s="173">
+        <f t="shared" si="1"/>
+        <v>45.269062854875997</v>
+      </c>
+    </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="154"/>
+      <c r="C7" s="152"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="B8" s="99" t="s">
@@ -43699,14 +43961,14 @@
       <c r="C8" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="128" t="s">
+      <c r="F8" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="128"/>
-      <c r="K8" s="154" t="s">
+      <c r="G8" s="125"/>
+      <c r="K8" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="L8" s="154"/>
+      <c r="L8" s="152"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="B9" s="99">
@@ -43729,13 +43991,13 @@
         <f>N4/T4</f>
         <v>2.305771392461311</v>
       </c>
-      <c r="O9" s="152" t="s">
+      <c r="O9" s="160" t="s">
         <v>201</v>
       </c>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="160"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="160"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="B10" s="99">
@@ -43785,15 +44047,15 @@
       <c r="L11" s="100">
         <v>22.148729343453237</v>
       </c>
-      <c r="O11" s="153" t="s">
+      <c r="O11" s="161" t="s">
         <v>180</v>
       </c>
-      <c r="P11" s="153"/>
+      <c r="P11" s="161"/>
       <c r="Q11" s="113"/>
-      <c r="R11" s="153" t="s">
+      <c r="R11" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="S11" s="153"/>
+      <c r="S11" s="161"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="F12" s="81" t="s">
@@ -43824,10 +44086,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="156"/>
+      <c r="C13" s="163"/>
       <c r="F13" s="81" t="s">
         <v>174</v>
       </c>
@@ -44062,28 +44324,28 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="O21" s="152" t="s">
+      <c r="O21" s="160" t="s">
         <v>207</v>
       </c>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="152"/>
-      <c r="S21" s="152"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="160"/>
+      <c r="R21" s="160"/>
+      <c r="S21" s="160"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
-      <c r="S22" s="152"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="160"/>
+      <c r="S22" s="160"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="F23" s="128" t="s">
+      <c r="F23" s="125" t="s">
         <v>190</v>
       </c>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
       <c r="K23" s="67"/>
       <c r="L23" s="81" t="s">
         <v>173</v>
@@ -44091,24 +44353,24 @@
       <c r="M23" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="O23" s="153" t="s">
+      <c r="O23" s="161" t="s">
         <v>208</v>
       </c>
-      <c r="P23" s="153"/>
+      <c r="P23" s="161"/>
       <c r="Q23" s="113"/>
-      <c r="R23" s="153" t="s">
+      <c r="R23" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="S23" s="153"/>
+      <c r="S23" s="161"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="128" t="s">
+      <c r="F24" s="125" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="128"/>
+      <c r="G24" s="125"/>
       <c r="H24" s="81">
         <v>100</v>
       </c>
@@ -44142,10 +44404,10 @@
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="F25" s="128" t="s">
+      <c r="F25" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="G25" s="128"/>
+      <c r="G25" s="125"/>
       <c r="H25" s="81">
         <v>140</v>
       </c>
@@ -44179,10 +44441,10 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="F26" s="128" t="s">
+      <c r="F26" s="125" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="128"/>
+      <c r="G26" s="125"/>
       <c r="H26" s="81">
         <v>400</v>
       </c>
@@ -44223,21 +44485,436 @@
       <c r="D29" s="110"/>
       <c r="E29" s="110"/>
     </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="G31" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="174"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="174"/>
+      <c r="S31" s="174"/>
+    </row>
+    <row r="34" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="G34" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="125"/>
+      <c r="K34" s="152" t="s">
+        <v>185</v>
+      </c>
+      <c r="L34" s="152"/>
+      <c r="O34" s="160" t="s">
+        <v>201</v>
+      </c>
+      <c r="P34" s="160"/>
+      <c r="Q34" s="160"/>
+      <c r="R34" s="160"/>
+      <c r="S34" s="160"/>
+    </row>
+    <row r="35" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="G35" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="100">
+        <f>G4/T4</f>
+        <v>3.0696328387188734</v>
+      </c>
+      <c r="K35" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="L35" s="100">
+        <f>N4/T4</f>
+        <v>2.305771392461311</v>
+      </c>
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="164"/>
+      <c r="R35" s="164"/>
+      <c r="S35" s="164"/>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="G36" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="100">
+        <f>H4/T4</f>
+        <v>2.218737332729543</v>
+      </c>
+      <c r="K36" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="L36" s="100">
+        <f>O4/T4</f>
+        <v>2.7104135411515697</v>
+      </c>
+      <c r="O36" s="161" t="s">
+        <v>180</v>
+      </c>
+      <c r="P36" s="161"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="S36" s="161"/>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="G37" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" s="106">
+        <v>6.1458779803043928</v>
+      </c>
+      <c r="K37" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="L37" s="100">
+        <v>23.256165810624935</v>
+      </c>
+      <c r="O37" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="P37" s="111">
+        <f>H37*(H35-H38)-I5</f>
+        <v>-1.2972457597015818E-7</v>
+      </c>
+      <c r="R37" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="S37" s="112">
+        <f>L37*(L35-L38)-P5</f>
+        <v>-2.4569200007817926E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="G38" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="H38" s="106">
+        <v>-0.42398399124674513</v>
+      </c>
+      <c r="K38" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="L38" s="100">
+        <v>1.2115775577653016</v>
+      </c>
+      <c r="O38" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="P38" s="81">
+        <f>H37*(H36-H38)-J5</f>
+        <v>-1.2973215746114874E-7</v>
+      </c>
+      <c r="R38" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="S38" s="73">
+        <f>L37*(L36-L38)-Q5</f>
+        <v>-2.4569238377125657E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="G39" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="106">
+        <v>5.13066063755769</v>
+      </c>
+      <c r="K39" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="L39" s="100">
+        <v>36.297461464277234</v>
+      </c>
+      <c r="O39" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="P39" s="81">
+        <f>SUM(P37:P38)</f>
+        <v>-2.5945673343130693E-7</v>
+      </c>
+      <c r="R39" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="S39" s="73">
+        <f>SUM(S37:S38)</f>
+        <v>-4.9138438384943584E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="7:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G40" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="109">
+        <v>-2.014250483328639</v>
+      </c>
+      <c r="K40" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="L40" s="100">
+        <v>-0.625041187419482</v>
+      </c>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="R40" s="67"/>
+    </row>
+    <row r="41" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="G41" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="H41" s="106">
+        <f>((C14/H39)+H40)*T4</f>
+        <v>706.58451134272991</v>
+      </c>
+      <c r="I41" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="K41" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="L41" s="100">
+        <f>((C14/L13)+L14)*T4</f>
+        <v>352.09682080499437</v>
+      </c>
+      <c r="M41" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="O41" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="P41" s="81">
+        <f>H39*(H35-H40)-K5</f>
+        <v>-2.5447771224762832</v>
+      </c>
+      <c r="R41" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="S41" s="175">
+        <f>L40*(L35-L41)-R5</f>
+        <v>187.60118666089937</v>
+      </c>
+      <c r="T41" s="176" t="s">
+        <v>215</v>
+      </c>
+      <c r="U41" s="177"/>
+      <c r="V41" s="178"/>
+    </row>
+    <row r="42" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="G42" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" s="106">
+        <f>H41/T4</f>
+        <v>5.0180010339760948</v>
+      </c>
+      <c r="K42" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="L42" s="100">
+        <f>L41/T4</f>
+        <v>2.5005108129268878</v>
+      </c>
+      <c r="O42" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="P42" s="81">
+        <f>H39*(H35-H40)-L5</f>
+        <v>2.5447772596421601</v>
+      </c>
+      <c r="R42" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="S42" s="175">
+        <f>L40*(L35-L41)-S5</f>
+        <v>173.36475001864034</v>
+      </c>
+      <c r="T42" s="179"/>
+      <c r="U42" s="180"/>
+      <c r="V42" s="181"/>
+    </row>
+    <row r="43" spans="7:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G43" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="H43" s="106">
+        <f>H37*(H42-H38)</f>
+        <v>33.445775935663299</v>
+      </c>
+      <c r="I43" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="K43" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="L43" s="100">
+        <f>L37*(L42-L38)</f>
+        <v>29.975645500866388</v>
+      </c>
+      <c r="M43" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O43" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="P43" s="81">
+        <f>SUM(P41:P42)</f>
+        <v>1.3716587687895299E-7</v>
+      </c>
+      <c r="R43" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="S43" s="175">
+        <f>SUM(S41:S42)</f>
+        <v>360.96593667953971</v>
+      </c>
+      <c r="T43" s="182"/>
+      <c r="U43" s="183"/>
+      <c r="V43" s="184"/>
+    </row>
+    <row r="44" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="G44" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="106">
+        <v>23.416005233520526</v>
+      </c>
+      <c r="K44" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" s="106">
+        <v>6.7340739516509753</v>
+      </c>
+    </row>
+    <row r="45" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="G45" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="H45" s="106">
+        <v>8.7510071558553424</v>
+      </c>
+      <c r="K45" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="L45" s="106">
+        <v>20.278381120803886</v>
+      </c>
+    </row>
+    <row r="46" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="G46" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="H46" s="106">
+        <f>10^((C15-H44)/H45)</f>
+        <v>10.835815306602051</v>
+      </c>
+      <c r="I46" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="K46" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="L46" s="106">
+        <f>10^((C15-L44)/L45)</f>
+        <v>18.588060804847135</v>
+      </c>
+      <c r="M46" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="O46" s="160" t="s">
+        <v>207</v>
+      </c>
+      <c r="P46" s="160"/>
+      <c r="Q46" s="160"/>
+      <c r="R46" s="160"/>
+      <c r="S46" s="160"/>
+    </row>
+    <row r="47" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="O47" s="160"/>
+      <c r="P47" s="160"/>
+      <c r="Q47" s="160"/>
+      <c r="R47" s="160"/>
+      <c r="S47" s="160"/>
+    </row>
+    <row r="48" spans="7:22" x14ac:dyDescent="0.5">
+      <c r="O48" s="161" t="s">
+        <v>208</v>
+      </c>
+      <c r="P48" s="161"/>
+      <c r="Q48" s="113"/>
+      <c r="R48" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="S48" s="161"/>
+    </row>
+    <row r="49" spans="15:19" x14ac:dyDescent="0.5">
+      <c r="O49" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="P49" s="112">
+        <f>H44+H45*LOG10(14)-H43</f>
+        <v>3.9396039142047812E-6</v>
+      </c>
+      <c r="R49" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="S49" s="112">
+        <f>L44+L45*LOG10(14)-L43</f>
+        <v>4.9571506206547156E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="15:19" x14ac:dyDescent="0.5">
+      <c r="O50" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="P50" s="73">
+        <f>H44+H45*LOG10(28)-C14</f>
+        <v>-5.3179091707988846E-7</v>
+      </c>
+      <c r="R50" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="S50" s="73">
+        <f>L44+L45*LOG10(28)-C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="15:19" x14ac:dyDescent="0.5">
+      <c r="O51" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="P51" s="73">
+        <f>SUM(P49:P50)</f>
+        <v>3.4078129971248927E-6</v>
+      </c>
+      <c r="R51" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="S51" s="73">
+        <f>SUM(S49:S50)</f>
+        <v>4.9571506206547156E-5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:S2"/>
+  <mergeCells count="32">
+    <mergeCell ref="T41:V43"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="O46:S47"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="O34:S35"/>
+    <mergeCell ref="G31:S31"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="O21:S22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="R23:S23"/>
@@ -44246,7 +44923,21 @@
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="O9:S10"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
